--- a/assets/sample_metadata/wastewater_biosample_template.xlsx
+++ b/assets/sample_metadata/wastewater_biosample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoconnell/Desktop/tostadas/assets/sample_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46CF1E4-913F-664F-928B-74D0A5D69F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AC56A-B100-4E0A-ADD3-03490D1D8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="21000" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NWSS_Metadata" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="421">
   <si>
     <t>Strategy</t>
   </si>
@@ -1785,9 +1785,6 @@
     <t>Ginkgo Bioworks clinical laboratory</t>
   </si>
   <si>
-    <t>nwss_sample_idX</t>
-  </si>
-  <si>
     <t>This submission is part of a test for NWSS submission</t>
   </si>
   <si>
@@ -1807,6 +1804,15 @@
   </si>
   <si>
     <t>ww</t>
+  </si>
+  <si>
+    <t>nwss_sample_id1</t>
+  </si>
+  <si>
+    <t>nwss_sample_id2</t>
+  </si>
+  <si>
+    <t>Not Provided</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1822,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2518,39 +2524,39 @@
   </sheetPr>
   <dimension ref="A1:EG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="CM4" sqref="CM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.1640625" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
-    <col min="20" max="21" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="116" width="13.5" customWidth="1"/>
-    <col min="117" max="117" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="124" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="125" max="126" width="13.5" customWidth="1"/>
-    <col min="127" max="134" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="13.5" customWidth="1"/>
-    <col min="136" max="136" width="13.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.83203125" style="19"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="15.1796875" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" customWidth="1"/>
+    <col min="16" max="16" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" customWidth="1"/>
+    <col min="20" max="21" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="116" width="13.453125" customWidth="1"/>
+    <col min="117" max="117" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="119" max="124" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="13.453125" customWidth="1"/>
+    <col min="127" max="134" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="13.453125" customWidth="1"/>
+    <col min="136" max="136" width="13.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" s="28" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:129" s="28" customFormat="1" ht="17" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>290</v>
       </c>
@@ -2570,13 +2576,13 @@
       </c>
       <c r="N1" s="33"/>
       <c r="Y1" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC1" s="51" t="s">
         <v>395</v>
       </c>
       <c r="CA1" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CC1" s="34"/>
       <c r="CD1" s="34"/>
@@ -2591,7 +2597,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>320</v>
       </c>
@@ -2900,15 +2906,15 @@
       </c>
       <c r="CY2" s="47"/>
     </row>
-    <row r="3" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>386</v>
@@ -2917,7 +2923,7 @@
         <v>366</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>387</v>
@@ -3108,6 +3114,9 @@
       <c r="CK3" s="18" t="s">
         <v>289</v>
       </c>
+      <c r="CM3" s="18" t="s">
+        <v>420</v>
+      </c>
       <c r="CN3" s="18" t="s">
         <v>313</v>
       </c>
@@ -3119,15 +3128,15 @@
       </c>
       <c r="CQ3" s="25"/>
     </row>
-    <row r="4" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>418</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>386</v>
@@ -3136,7 +3145,7 @@
         <v>366</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>387</v>
@@ -3327,6 +3336,9 @@
       <c r="CK4" s="18" t="s">
         <v>289</v>
       </c>
+      <c r="CM4" s="18" t="s">
+        <v>420</v>
+      </c>
       <c r="CN4" s="18" t="s">
         <v>313</v>
       </c>
@@ -3338,7 +3350,7 @@
       </c>
       <c r="CQ4" s="25"/>
     </row>
-    <row r="5" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G5" s="13"/>
       <c r="M5" s="19"/>
       <c r="N5" s="17"/>
@@ -3440,7 +3452,7 @@
       <c r="DO5" s="17"/>
       <c r="DY5" s="13"/>
     </row>
-    <row r="6" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G6" s="13"/>
       <c r="M6" s="19"/>
       <c r="N6" s="17"/>
@@ -3542,7 +3554,7 @@
       <c r="DO6" s="17"/>
       <c r="DY6" s="13"/>
     </row>
-    <row r="7" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G7" s="13"/>
       <c r="M7" s="19"/>
       <c r="N7" s="17"/>
@@ -3644,7 +3656,7 @@
       <c r="DO7" s="17"/>
       <c r="DY7" s="13"/>
     </row>
-    <row r="8" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G8" s="13"/>
       <c r="M8" s="19"/>
       <c r="N8" s="17"/>
@@ -3746,7 +3758,7 @@
       <c r="DO8" s="17"/>
       <c r="DY8" s="13"/>
     </row>
-    <row r="9" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G9" s="13"/>
       <c r="M9" s="19"/>
       <c r="N9" s="17"/>
@@ -3848,7 +3860,7 @@
       <c r="DO9" s="17"/>
       <c r="DY9" s="13"/>
     </row>
-    <row r="10" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G10" s="13"/>
       <c r="M10" s="19"/>
       <c r="N10" s="17"/>
@@ -3950,7 +3962,7 @@
       <c r="DO10" s="17"/>
       <c r="DY10" s="13"/>
     </row>
-    <row r="11" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G11" s="13"/>
       <c r="M11" s="19"/>
       <c r="N11" s="17"/>
@@ -4052,7 +4064,7 @@
       <c r="DO11" s="17"/>
       <c r="DY11" s="13"/>
     </row>
-    <row r="12" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G12" s="13"/>
       <c r="M12" s="19"/>
       <c r="N12" s="17"/>
@@ -4154,7 +4166,7 @@
       <c r="DO12" s="17"/>
       <c r="DY12" s="13"/>
     </row>
-    <row r="13" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G13" s="13"/>
       <c r="M13" s="19"/>
       <c r="N13" s="17"/>
@@ -4256,7 +4268,7 @@
       <c r="DO13" s="17"/>
       <c r="DY13" s="13"/>
     </row>
-    <row r="14" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G14" s="13"/>
       <c r="M14" s="19"/>
       <c r="N14" s="17"/>
@@ -4358,7 +4370,7 @@
       <c r="DO14" s="17"/>
       <c r="DY14" s="13"/>
     </row>
-    <row r="15" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G15" s="13"/>
       <c r="M15" s="19"/>
       <c r="N15" s="17"/>
@@ -4460,7 +4472,7 @@
       <c r="DO15" s="17"/>
       <c r="DY15" s="13"/>
     </row>
-    <row r="16" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G16" s="13"/>
       <c r="M16" s="19"/>
       <c r="N16" s="17"/>
@@ -4562,7 +4574,7 @@
       <c r="DO16" s="17"/>
       <c r="DY16" s="13"/>
     </row>
-    <row r="17" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G17" s="13"/>
       <c r="M17" s="19"/>
       <c r="N17" s="17"/>
@@ -4664,7 +4676,7 @@
       <c r="DO17" s="17"/>
       <c r="DY17" s="13"/>
     </row>
-    <row r="18" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G18" s="13"/>
       <c r="M18" s="19"/>
       <c r="N18" s="17"/>
@@ -4766,7 +4778,7 @@
       <c r="DO18" s="17"/>
       <c r="DY18" s="13"/>
     </row>
-    <row r="19" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G19" s="13"/>
       <c r="M19" s="19"/>
       <c r="N19" s="17"/>
@@ -4868,7 +4880,7 @@
       <c r="DO19" s="17"/>
       <c r="DY19" s="13"/>
     </row>
-    <row r="20" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G20" s="13"/>
       <c r="M20" s="19"/>
       <c r="N20" s="17"/>
@@ -4970,7 +4982,7 @@
       <c r="DO20" s="17"/>
       <c r="DY20" s="13"/>
     </row>
-    <row r="21" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G21" s="13"/>
       <c r="M21" s="19"/>
       <c r="N21" s="17"/>
@@ -5072,7 +5084,7 @@
       <c r="DO21" s="17"/>
       <c r="DY21" s="13"/>
     </row>
-    <row r="22" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G22" s="13"/>
       <c r="M22" s="19"/>
       <c r="N22" s="17"/>
@@ -5174,7 +5186,7 @@
       <c r="DO22" s="17"/>
       <c r="DY22" s="13"/>
     </row>
-    <row r="23" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G23" s="13"/>
       <c r="M23" s="19"/>
       <c r="N23" s="17"/>
@@ -5276,7 +5288,7 @@
       <c r="DO23" s="17"/>
       <c r="DY23" s="13"/>
     </row>
-    <row r="24" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G24" s="13"/>
       <c r="M24" s="19"/>
       <c r="N24" s="17"/>
@@ -5378,7 +5390,7 @@
       <c r="DO24" s="17"/>
       <c r="DY24" s="13"/>
     </row>
-    <row r="25" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G25" s="13"/>
       <c r="M25" s="19"/>
       <c r="N25" s="17"/>
@@ -5480,7 +5492,7 @@
       <c r="DO25" s="17"/>
       <c r="DY25" s="13"/>
     </row>
-    <row r="26" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G26" s="13"/>
       <c r="M26" s="19"/>
       <c r="N26" s="17"/>
@@ -5582,7 +5594,7 @@
       <c r="DO26" s="17"/>
       <c r="DY26" s="13"/>
     </row>
-    <row r="27" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G27" s="13"/>
       <c r="M27" s="19"/>
       <c r="N27" s="17"/>
@@ -5684,7 +5696,7 @@
       <c r="DO27" s="17"/>
       <c r="DY27" s="13"/>
     </row>
-    <row r="28" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G28" s="13"/>
       <c r="M28" s="19"/>
       <c r="N28" s="17"/>
@@ -5786,7 +5798,7 @@
       <c r="DO28" s="17"/>
       <c r="DY28" s="13"/>
     </row>
-    <row r="29" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G29" s="13"/>
       <c r="M29" s="19"/>
       <c r="N29" s="17"/>
@@ -5888,7 +5900,7 @@
       <c r="DO29" s="17"/>
       <c r="DY29" s="13"/>
     </row>
-    <row r="30" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G30" s="13"/>
       <c r="M30" s="19"/>
       <c r="N30" s="17"/>
@@ -5990,7 +6002,7 @@
       <c r="DO30" s="17"/>
       <c r="DY30" s="13"/>
     </row>
-    <row r="31" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G31" s="13"/>
       <c r="M31" s="19"/>
       <c r="N31" s="17"/>
@@ -6092,7 +6104,7 @@
       <c r="DO31" s="17"/>
       <c r="DY31" s="13"/>
     </row>
-    <row r="32" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G32" s="13"/>
       <c r="M32" s="19"/>
       <c r="N32" s="17"/>
@@ -6194,7 +6206,7 @@
       <c r="DO32" s="17"/>
       <c r="DY32" s="13"/>
     </row>
-    <row r="33" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G33" s="13"/>
       <c r="M33" s="19"/>
       <c r="N33" s="17"/>
@@ -6296,7 +6308,7 @@
       <c r="DO33" s="17"/>
       <c r="DY33" s="13"/>
     </row>
-    <row r="34" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G34" s="13"/>
       <c r="M34" s="19"/>
       <c r="N34" s="17"/>
@@ -6398,7 +6410,7 @@
       <c r="DO34" s="17"/>
       <c r="DY34" s="13"/>
     </row>
-    <row r="35" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G35" s="13"/>
       <c r="M35" s="19"/>
       <c r="N35" s="17"/>
@@ -6500,7 +6512,7 @@
       <c r="DO35" s="17"/>
       <c r="DY35" s="13"/>
     </row>
-    <row r="36" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G36" s="13"/>
       <c r="M36" s="19"/>
       <c r="N36" s="17"/>
@@ -6513,7 +6525,7 @@
       <c r="CQ36" s="19"/>
       <c r="DY36" s="13"/>
     </row>
-    <row r="37" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G37" s="13"/>
       <c r="M37" s="19"/>
       <c r="N37" s="17"/>
@@ -6526,7 +6538,7 @@
       <c r="CQ37" s="19"/>
       <c r="DY37" s="13"/>
     </row>
-    <row r="38" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G38" s="13"/>
       <c r="M38" s="19"/>
       <c r="N38" s="17"/>
@@ -6539,7 +6551,7 @@
       <c r="CQ38" s="19"/>
       <c r="DY38" s="13"/>
     </row>
-    <row r="39" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="G39" s="13"/>
       <c r="M39" s="19"/>
       <c r="N39" s="17"/>
@@ -6552,7 +6564,7 @@
       <c r="CQ39" s="19"/>
       <c r="DY39" s="13"/>
     </row>
-    <row r="40" spans="7:129" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:129" s="18" customFormat="1">
       <c r="M40" s="19"/>
       <c r="Y40" s="19"/>
       <c r="AC40" s="19"/>
@@ -6561,8 +6573,8 @@
       <c r="CG40" s="19"/>
       <c r="CQ40" s="19"/>
     </row>
-    <row r="41" spans="7:129" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="7:129" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="7:129" s="18" customFormat="1"/>
+    <row r="42" spans="7:129" s="18" customFormat="1" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6581,25 +6593,25 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -6694,7 +6706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>253</v>
       </c>
@@ -6803,22 +6815,22 @@
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -6831,7 +6843,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6848,7 +6860,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6865,7 +6877,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6882,7 +6894,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6899,7 +6911,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -6916,7 +6928,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -6933,7 +6945,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -6950,7 +6962,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -6967,7 +6979,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -6984,7 +6996,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -7001,7 +7013,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -7018,7 +7030,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -7035,7 +7047,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -7052,7 +7064,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -7069,7 +7081,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -7086,7 +7098,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -7103,7 +7115,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -7120,7 +7132,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -7137,7 +7149,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -7154,7 +7166,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -7171,7 +7183,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -7188,7 +7200,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -7205,7 +7217,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -7222,7 +7234,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -7237,7 +7249,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -7254,7 +7266,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -7271,7 +7283,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -7288,7 +7300,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -7305,7 +7317,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -7322,7 +7334,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -7337,7 +7349,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -7354,7 +7366,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -7371,7 +7383,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -7388,7 +7400,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -7403,7 +7415,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -7418,7 +7430,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -7435,7 +7447,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -7448,7 +7460,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -7465,7 +7477,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -7482,7 +7494,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -7499,7 +7511,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -7516,7 +7528,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -7533,7 +7545,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -7550,7 +7562,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -7567,7 +7579,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -7582,7 +7594,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -7597,7 +7609,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -7614,7 +7626,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -7627,7 +7639,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -7644,7 +7656,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
@@ -7661,7 +7673,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,7 +7690,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -7695,7 +7707,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
@@ -7712,7 +7724,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -7729,7 +7741,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
@@ -7746,7 +7758,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -7763,7 +7775,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -7780,7 +7792,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
@@ -7797,7 +7809,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -7814,7 +7826,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
@@ -7831,7 +7843,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
@@ -7848,7 +7860,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
@@ -7865,7 +7877,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -7882,7 +7894,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
@@ -7899,7 +7911,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -7916,7 +7928,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
@@ -7933,7 +7945,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -7950,7 +7962,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
@@ -7967,7 +7979,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -7984,7 +7996,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
@@ -8001,7 +8013,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -8018,7 +8030,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -8035,7 +8047,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
@@ -8052,7 +8064,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
@@ -8069,7 +8081,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
@@ -8086,7 +8098,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -8103,7 +8115,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
@@ -8118,7 +8130,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -8133,7 +8145,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>141</v>
       </c>
@@ -8150,7 +8162,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>143</v>
       </c>
@@ -8167,7 +8179,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
@@ -8184,7 +8196,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>147</v>
       </c>
@@ -8201,7 +8213,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -8214,7 +8226,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>149</v>
       </c>
@@ -8229,7 +8241,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>150</v>
       </c>
@@ -8264,7 +8276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>153</v>
       </c>
@@ -8299,7 +8311,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
@@ -8330,7 +8342,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
@@ -8361,7 +8373,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
@@ -8390,7 +8402,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>152</v>
       </c>
@@ -8415,7 +8427,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -8438,7 +8450,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
@@ -8459,7 +8471,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>158</v>
       </c>
@@ -8478,7 +8490,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
@@ -8497,7 +8509,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
@@ -8514,7 +8526,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -8529,7 +8541,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
@@ -8544,7 +8556,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
@@ -8559,7 +8571,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8" t="s">
@@ -8574,7 +8586,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="7" t="s">
@@ -8589,7 +8601,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -8604,7 +8616,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
@@ -8619,7 +8631,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
@@ -8634,7 +8646,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
@@ -8649,7 +8661,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
@@ -8664,7 +8676,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
@@ -8681,61 +8693,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -8744,6 +8701,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/wastewater_biosample_template.xlsx
+++ b/assets/sample_metadata/wastewater_biosample_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AC56A-B100-4E0A-ADD3-03490D1D8DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5FFE3D-2B25-4572-AD19-A50E69AECC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3850" yWindow="3740" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NWSS_Metadata" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{8F70F8D4-E69E-E443-A064-CCD1D1F4D4DE}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{8F70F8D4-E69E-E443-A064-CCD1D1F4D4DE}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{0F75BE03-DF0E-4741-8874-ED5081447508}">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{0F75BE03-DF0E-4741-8874-ED5081447508}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{F7D64A2F-AE23-3E4B-9DF1-7116DE690F46}">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{F7D64A2F-AE23-3E4B-9DF1-7116DE690F46}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{EF678A32-511C-D84E-ADF1-2E591656AF2C}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{EF678A32-511C-D84E-ADF1-2E591656AF2C}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{E5296A58-8444-F34B-906D-F2410A90B907}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{E5296A58-8444-F34B-906D-F2410A90B907}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{11624994-9978-024B-8681-F5E652E28630}">
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{11624994-9978-024B-8681-F5E652E28630}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{3ECE29DA-97FE-C84B-BB36-D871DD08820C}">
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{3ECE29DA-97FE-C84B-BB36-D871DD08820C}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{4FAF7BA6-C4A7-1642-AE08-015E8E6583D8}">
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{4FAF7BA6-C4A7-1642-AE08-015E8E6583D8}">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="0" shapeId="0" xr:uid="{1073CB93-8A8E-2B44-8B4B-C923C358AAAA}">
+    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{1073CB93-8A8E-2B44-8B4B-C923C358AAAA}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{E77A5E63-5D6E-EB43-9539-B1B7545F9B36}">
+    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{E77A5E63-5D6E-EB43-9539-B1B7545F9B36}">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{4F705598-626F-4A43-B41B-781B64E4B37D}">
+    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{4F705598-626F-4A43-B41B-781B64E4B37D}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{876137D5-E4AE-BB48-8BF0-9E4982BD6E75}">
+    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{876137D5-E4AE-BB48-8BF0-9E4982BD6E75}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{98495637-0659-4F49-B346-76CD7202890A}">
+    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{98495637-0659-4F49-B346-76CD7202890A}">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="0" shapeId="0" xr:uid="{BBA2504D-B665-FE43-982A-E205A56DEAE6}">
+    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{BBA2504D-B665-FE43-982A-E205A56DEAE6}">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="0" shapeId="0" xr:uid="{40CF946F-CED4-434A-94CA-8731CEA5F73B}">
+    <comment ref="AT2" authorId="0" shapeId="0" xr:uid="{40CF946F-CED4-434A-94CA-8731CEA5F73B}">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{D8A6FB62-ED9C-B742-81A3-071F32F4D325}">
+    <comment ref="AU2" authorId="0" shapeId="0" xr:uid="{D8A6FB62-ED9C-B742-81A3-071F32F4D325}">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{81A6F2FC-E415-0143-8B58-8FA703EEC16D}">
+    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{81A6F2FC-E415-0143-8B58-8FA703EEC16D}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="0" shapeId="0" xr:uid="{EA70DF8F-032A-5249-A3B7-7DE889E93DB5}">
+    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{EA70DF8F-032A-5249-A3B7-7DE889E93DB5}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="1" shapeId="0" xr:uid="{E4BF336C-54C7-FA4D-804F-DFA6007E2B05}">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{E4BF336C-54C7-FA4D-804F-DFA6007E2B05}">
       <text>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="1" shapeId="0" xr:uid="{50185EF4-35DE-0D4E-871D-6F28165049C6}">
+    <comment ref="AY2" authorId="1" shapeId="0" xr:uid="{50185EF4-35DE-0D4E-871D-6F28165049C6}">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA2" authorId="1" shapeId="0" xr:uid="{389EB998-EFE6-384C-B3D2-0F67F5A0FED6}">
+    <comment ref="AZ2" authorId="1" shapeId="0" xr:uid="{389EB998-EFE6-384C-B3D2-0F67F5A0FED6}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB2" authorId="0" shapeId="0" xr:uid="{9D422331-E3ED-B74E-B175-7849BD5D9534}">
+    <comment ref="BA2" authorId="0" shapeId="0" xr:uid="{9D422331-E3ED-B74E-B175-7849BD5D9534}">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="0" shapeId="0" xr:uid="{DA45AB15-707A-B043-8837-3B38E8FED35A}">
+    <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{DA45AB15-707A-B043-8837-3B38E8FED35A}">
       <text>
         <r>
           <rPr>
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{8EFA9AFE-1B01-2B42-BDC7-EE9760FCC9A7}">
+    <comment ref="BF2" authorId="0" shapeId="0" xr:uid="{8EFA9AFE-1B01-2B42-BDC7-EE9760FCC9A7}">
       <text>
         <r>
           <rPr>
@@ -363,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="0" shapeId="0" xr:uid="{9D2AB255-F6C2-1A46-A302-398D5BE9097E}">
+    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{9D2AB255-F6C2-1A46-A302-398D5BE9097E}">
       <text>
         <r>
           <rPr>
@@ -376,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI2" authorId="0" shapeId="0" xr:uid="{45534E51-B629-DD41-BC34-81F730250065}">
+    <comment ref="BH2" authorId="0" shapeId="0" xr:uid="{45534E51-B629-DD41-BC34-81F730250065}">
       <text>
         <r>
           <rPr>
@@ -389,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ2" authorId="0" shapeId="0" xr:uid="{989EBFB0-26E3-FA47-853D-0C19815BB82A}">
+    <comment ref="BI2" authorId="0" shapeId="0" xr:uid="{989EBFB0-26E3-FA47-853D-0C19815BB82A}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK2" authorId="0" shapeId="0" xr:uid="{7B36CB72-1083-374F-9843-50C698AF6907}">
+    <comment ref="BJ2" authorId="0" shapeId="0" xr:uid="{7B36CB72-1083-374F-9843-50C698AF6907}">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL2" authorId="0" shapeId="0" xr:uid="{EFD019AE-AA3C-8A4C-9384-7A2441ABC0A1}">
+    <comment ref="BK2" authorId="0" shapeId="0" xr:uid="{EFD019AE-AA3C-8A4C-9384-7A2441ABC0A1}">
       <text>
         <r>
           <rPr>
@@ -428,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM2" authorId="0" shapeId="0" xr:uid="{D69AF32C-73F0-314F-893A-E3B5335BAAA5}">
+    <comment ref="BL2" authorId="0" shapeId="0" xr:uid="{D69AF32C-73F0-314F-893A-E3B5335BAAA5}">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN2" authorId="0" shapeId="0" xr:uid="{4B21AE6C-1406-9A4A-9449-BA32FF5B43DC}">
+    <comment ref="BM2" authorId="0" shapeId="0" xr:uid="{4B21AE6C-1406-9A4A-9449-BA32FF5B43DC}">
       <text>
         <r>
           <rPr>
@@ -454,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="0" shapeId="0" xr:uid="{87C2975E-08E9-B64B-8AFD-53378ACD0D81}">
+    <comment ref="BN2" authorId="0" shapeId="0" xr:uid="{87C2975E-08E9-B64B-8AFD-53378ACD0D81}">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="0" shapeId="0" xr:uid="{9AB63383-8D08-C748-9C99-27A3E3D0CA23}">
+    <comment ref="BO2" authorId="0" shapeId="0" xr:uid="{9AB63383-8D08-C748-9C99-27A3E3D0CA23}">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ2" authorId="0" shapeId="0" xr:uid="{86769650-6F5E-794F-A2B2-3C3D9A723FB0}">
+    <comment ref="BP2" authorId="0" shapeId="0" xr:uid="{86769650-6F5E-794F-A2B2-3C3D9A723FB0}">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR2" authorId="0" shapeId="0" xr:uid="{74070E91-E538-5F4E-B8CC-0A233A8CD60E}">
+    <comment ref="BQ2" authorId="0" shapeId="0" xr:uid="{74070E91-E538-5F4E-B8CC-0A233A8CD60E}">
       <text>
         <r>
           <rPr>
@@ -506,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS2" authorId="0" shapeId="0" xr:uid="{50A15D4E-15A3-0C4C-8EAC-4B693A103575}">
+    <comment ref="BR2" authorId="0" shapeId="0" xr:uid="{50A15D4E-15A3-0C4C-8EAC-4B693A103575}">
       <text>
         <r>
           <rPr>
@@ -519,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY2" authorId="0" shapeId="0" xr:uid="{9279467B-8BCE-9F4F-A5FA-A6765A412B4D}">
+    <comment ref="BX2" authorId="0" shapeId="0" xr:uid="{9279467B-8BCE-9F4F-A5FA-A6765A412B4D}">
       <text>
         <r>
           <rPr>
@@ -532,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ2" authorId="0" shapeId="0" xr:uid="{05C5002D-9637-3549-98C0-02197A5CA289}">
+    <comment ref="BY2" authorId="0" shapeId="0" xr:uid="{05C5002D-9637-3549-98C0-02197A5CA289}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="419">
   <si>
     <t>Strategy</t>
   </si>
@@ -1479,9 +1479,6 @@
     <t>ncbi-spuid</t>
   </si>
   <si>
-    <t>ncbi-spuid_namespace</t>
-  </si>
-  <si>
     <t>ncbi-bioproject</t>
   </si>
   <si>
@@ -1801,9 +1798,6 @@
   </si>
   <si>
     <t>NWSS-testing2</t>
-  </si>
-  <si>
-    <t>ww</t>
   </si>
   <si>
     <t>nwss_sample_id1</t>
@@ -1822,7 +1816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1896,13 +1890,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2067,7 +2054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2121,7 +2108,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2161,28 +2147,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2192,13 +2178,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2522,176 +2508,175 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EG42"/>
+  <dimension ref="A1:EF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="CM4" sqref="CM4"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.1796875" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="15.1796875" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" customWidth="1"/>
-    <col min="16" max="16" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" customWidth="1"/>
-    <col min="20" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="116" width="13.453125" customWidth="1"/>
-    <col min="117" max="117" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="119" max="124" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="125" max="126" width="13.453125" customWidth="1"/>
-    <col min="127" max="134" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="13.453125" customWidth="1"/>
-    <col min="136" max="136" width="13.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.81640625" style="19"/>
+    <col min="3" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" customWidth="1"/>
+    <col min="19" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="115" width="13.453125" customWidth="1"/>
+    <col min="116" max="116" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="118" max="123" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="13.453125" customWidth="1"/>
+    <col min="126" max="133" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="13.453125" customWidth="1"/>
+    <col min="135" max="135" width="13.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" s="28" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:128" s="27" customFormat="1" ht="17" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="L1" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="32"/>
+      <c r="X1" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="BZ1" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="CF1" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="CP1" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="R2" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="M1" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" s="33"/>
-      <c r="Y1" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AC1" s="51" t="s">
+      <c r="S2" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB2" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="CA1" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="CG1" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="CQ1" s="27" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y2" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC2" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AC2" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE2" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="AE2" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="36" t="s">
         <v>325</v>
       </c>
       <c r="AG2" s="37" t="s">
@@ -2701,255 +2686,252 @@
         <v>327</v>
       </c>
       <c r="AI2" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ2" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="AJ2" s="40" t="s">
+      <c r="AK2" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL2" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="AK2" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL2" s="37" t="s">
+      <c r="AM2" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN2" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="AM2" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="AN2" s="40" t="s">
+      <c r="AO2" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AP2" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="AP2" s="40" t="s">
+      <c r="AQ2" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR2" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS2" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="AT2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV2" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="AW2" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX2" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY2" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="AZ2" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA2" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="BB2" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="BC2" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="BD2" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="BE2" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF2" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG2" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="BH2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="BI2" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="BJ2" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK2" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="BL2" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="BM2" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="AQ2" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR2" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="AS2" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT2" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="AU2" s="37" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV2" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="AW2" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX2" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="AY2" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="AZ2" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA2" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="BB2" s="37" t="s">
-        <v>343</v>
-      </c>
-      <c r="BC2" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="BD2" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="BE2" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF2" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG2" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="BH2" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="BI2" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="BJ2" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="BK2" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="BL2" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="BM2" s="37" t="s">
+      <c r="BN2" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="BO2" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="BN2" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="BO2" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="BP2" s="37" t="s">
+      <c r="BP2" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="BQ2" s="37" t="s">
+      <c r="BQ2" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="BR2" s="37" t="s">
+      <c r="BR2" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="BS2" s="37" t="s">
+      <c r="BS2" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="BT2" s="42" t="s">
+      <c r="BT2" s="41" t="s">
         <v>359</v>
       </c>
       <c r="BU2" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="BV2" s="43" t="s">
+      <c r="BV2" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="BW2" s="43" t="s">
+      <c r="BW2" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="BX2" s="43" t="s">
+      <c r="BX2" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="BY2" s="41" t="s">
+      <c r="BY2" s="43" t="s">
         <v>364</v>
       </c>
       <c r="BZ2" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="CA2" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="CB2" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="CC2" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="CD2" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="CE2" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="CF2" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="CG2" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="CH2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="CI2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="CJ2" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="CK2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="CL2" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="CM2" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="CN2" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="CO2" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="CP2" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="CQ2" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="CR2" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS2" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="CT2" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="CU2" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="CV2" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="CW2" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="CX2" s="46"/>
+    </row>
+    <row r="3" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A3" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="CA2" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="CB2" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="CC2" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="CD2" s="46" t="s">
-        <v>384</v>
-      </c>
-      <c r="CE2" s="46" t="s">
-        <v>385</v>
-      </c>
-      <c r="CF2" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="CG2" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="CH2" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="CI2" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="CJ2" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="CK2" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="CL2" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="CM2" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="CN2" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="CO2" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="CP2" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="CQ2" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="CR2" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="CS2" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="CT2" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="CU2" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="CV2" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="CW2" s="35" t="s">
+      <c r="E3" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="CX2" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="CY2" s="47"/>
-    </row>
-    <row r="3" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>301</v>
       </c>
+      <c r="S3" s="18" t="s">
+        <v>288</v>
+      </c>
       <c r="T3" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="U3" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="V3" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="Y3" s="25"/>
-      <c r="AC3" s="53">
+      <c r="X3" s="24"/>
+      <c r="AB3" s="52">
         <v>8675</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="AD3" s="20" t="s">
         <v>404</v>
@@ -2960,31 +2942,31 @@
       <c r="AF3" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="20">
+        <v>110000000</v>
+      </c>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20">
+        <v>40000</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="AH3" s="20">
-        <v>110000000</v>
-      </c>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20">
-        <v>40000</v>
-      </c>
       <c r="AK3" s="20" t="s">
-        <v>408</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="20" t="s">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="AM3" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="AN3" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20">
         <v>24</v>
+      </c>
+      <c r="AP3" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="AQ3" s="20" t="s">
         <v>1</v>
@@ -2999,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="AU3" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="AV3" s="20" t="s">
         <v>1</v>
-      </c>
-      <c r="AV3" s="20" t="s">
-        <v>409</v>
       </c>
       <c r="AW3" s="20" t="s">
         <v>1</v>
@@ -3017,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="BA3" s="20" t="s">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="BB3" s="20" t="s">
         <v>372</v>
@@ -3028,13 +3010,13 @@
       <c r="BD3" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="BE3" s="20" t="s">
-        <v>375</v>
-      </c>
+      <c r="BE3" s="20"/>
       <c r="BF3" s="20"/>
       <c r="BG3" s="20"/>
       <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
+      <c r="BI3" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="BJ3" s="20" t="s">
         <v>1</v>
       </c>
@@ -3045,25 +3027,25 @@
         <v>1</v>
       </c>
       <c r="BM3" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="BN3" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="BP3" s="21">
+        <v>35</v>
+      </c>
+      <c r="BQ3" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="BR3" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS3" s="20" t="s">
         <v>1</v>
-      </c>
-      <c r="BN3" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="BO3" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP3" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="BQ3" s="22">
-        <v>35</v>
-      </c>
-      <c r="BR3" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="BS3" s="20" t="s">
-        <v>379</v>
       </c>
       <c r="BT3" s="20" t="s">
         <v>1</v>
@@ -3081,97 +3063,94 @@
         <v>1</v>
       </c>
       <c r="BY3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="CA3" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="BZ3" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CB3" s="22">
+        <v>40</v>
+      </c>
+      <c r="CC3" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="CC3" s="23">
-        <v>40</v>
-      </c>
-      <c r="CD3" s="23" t="s">
+      <c r="CD3" s="22"/>
+      <c r="CE3" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="CE3" s="23"/>
       <c r="CF3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ3" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="CL3" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="CM3" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN3" s="18" t="s">
         <v>390</v>
-      </c>
-      <c r="CG3" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="CH3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="CI3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="CJ3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK3" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="CM3" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="CN3" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="CO3" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="CP3" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="CQ3" s="25"/>
-    </row>
-    <row r="4" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="CP3" s="24"/>
+    </row>
+    <row r="4" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q4" s="20" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="P4" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>301</v>
       </c>
+      <c r="S4" s="18" t="s">
+        <v>288</v>
+      </c>
       <c r="T4" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="U4" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="Y4" s="25"/>
-      <c r="AC4" s="53">
+      <c r="X4" s="24"/>
+      <c r="AB4" s="52">
         <v>8675</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="AD4" s="20" t="s">
         <v>404</v>
@@ -3182,31 +3161,31 @@
       <c r="AF4" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AG4" s="20">
+        <v>110000000</v>
+      </c>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20">
+        <v>40000</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="AH4" s="20">
-        <v>110000000</v>
-      </c>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20">
-        <v>40000</v>
-      </c>
       <c r="AK4" s="20" t="s">
-        <v>408</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="20" t="s">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="AM4" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="AN4" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20">
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20">
         <v>24</v>
+      </c>
+      <c r="AP4" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="AQ4" s="20" t="s">
         <v>1</v>
@@ -3221,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="AU4" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="AV4" s="20" t="s">
         <v>1</v>
-      </c>
-      <c r="AV4" s="20" t="s">
-        <v>409</v>
       </c>
       <c r="AW4" s="20" t="s">
         <v>1</v>
@@ -3239,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="BA4" s="20" t="s">
-        <v>1</v>
+        <v>371</v>
       </c>
       <c r="BB4" s="20" t="s">
         <v>372</v>
@@ -3250,13 +3229,13 @@
       <c r="BD4" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="BE4" s="20" t="s">
-        <v>375</v>
-      </c>
+      <c r="BE4" s="20"/>
       <c r="BF4" s="20"/>
       <c r="BG4" s="20"/>
       <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
+      <c r="BI4" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="BJ4" s="20" t="s">
         <v>1</v>
       </c>
@@ -3267,25 +3246,25 @@
         <v>1</v>
       </c>
       <c r="BM4" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="BN4" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="BP4" s="21">
+        <v>35</v>
+      </c>
+      <c r="BQ4" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="BR4" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS4" s="20" t="s">
         <v>1</v>
-      </c>
-      <c r="BN4" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="BO4" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP4" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="BQ4" s="22">
-        <v>35</v>
-      </c>
-      <c r="BR4" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="BS4" s="20" t="s">
-        <v>379</v>
       </c>
       <c r="BT4" s="20" t="s">
         <v>1</v>
@@ -3303,64 +3282,62 @@
         <v>1</v>
       </c>
       <c r="BY4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="CA4" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="BZ4" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CB4" s="22">
+        <v>40</v>
+      </c>
+      <c r="CC4" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="CC4" s="23">
-        <v>40</v>
-      </c>
-      <c r="CD4" s="23" t="s">
+      <c r="CD4" s="22"/>
+      <c r="CE4" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="CE4" s="23"/>
       <c r="CF4" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="CG4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ4" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="CL4" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="CM4" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN4" s="18" t="s">
         <v>390</v>
-      </c>
-      <c r="CG4" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="CH4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="CI4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="CJ4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK4" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="CM4" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="CN4" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="CO4" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="CP4" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="CQ4" s="25"/>
-    </row>
-    <row r="5" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G5" s="13"/>
-      <c r="M5" s="19"/>
+      <c r="CP4" s="24"/>
+    </row>
+    <row r="5" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F5" s="13"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="32"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="32"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="17"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
       <c r="AF5" s="17"/>
@@ -3409,14 +3386,14 @@
       <c r="BW5" s="17"/>
       <c r="BX5" s="17"/>
       <c r="BY5" s="17"/>
-      <c r="BZ5" s="17"/>
-      <c r="CA5" s="32"/>
+      <c r="BZ5" s="31"/>
+      <c r="CA5" s="17"/>
       <c r="CB5" s="17"/>
       <c r="CC5" s="17"/>
       <c r="CD5" s="17"/>
-      <c r="CE5" s="17"/>
-      <c r="CF5" s="32"/>
-      <c r="CG5" s="32"/>
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="31"/>
+      <c r="CG5" s="17"/>
       <c r="CH5" s="17"/>
       <c r="CI5" s="17"/>
       <c r="CJ5" s="17"/>
@@ -3425,8 +3402,8 @@
       <c r="CM5" s="17"/>
       <c r="CN5" s="17"/>
       <c r="CO5" s="17"/>
-      <c r="CP5" s="17"/>
-      <c r="CQ5" s="32"/>
+      <c r="CP5" s="31"/>
+      <c r="CQ5" s="17"/>
       <c r="CR5" s="17"/>
       <c r="CS5" s="17"/>
       <c r="CT5" s="17"/>
@@ -3447,22 +3424,22 @@
       <c r="DI5" s="17"/>
       <c r="DJ5" s="17"/>
       <c r="DK5" s="17"/>
-      <c r="DL5" s="17"/>
+      <c r="DM5" s="17"/>
       <c r="DN5" s="17"/>
-      <c r="DO5" s="17"/>
-      <c r="DY5" s="13"/>
-    </row>
-    <row r="6" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G6" s="13"/>
-      <c r="M6" s="19"/>
+      <c r="DX5" s="13"/>
+    </row>
+    <row r="6" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F6" s="13"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="32"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="32"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
@@ -3511,14 +3488,14 @@
       <c r="BW6" s="17"/>
       <c r="BX6" s="17"/>
       <c r="BY6" s="17"/>
-      <c r="BZ6" s="17"/>
-      <c r="CA6" s="32"/>
+      <c r="BZ6" s="31"/>
+      <c r="CA6" s="17"/>
       <c r="CB6" s="17"/>
       <c r="CC6" s="17"/>
       <c r="CD6" s="17"/>
-      <c r="CE6" s="17"/>
-      <c r="CF6" s="32"/>
-      <c r="CG6" s="32"/>
+      <c r="CE6" s="31"/>
+      <c r="CF6" s="31"/>
+      <c r="CG6" s="17"/>
       <c r="CH6" s="17"/>
       <c r="CI6" s="17"/>
       <c r="CJ6" s="17"/>
@@ -3527,8 +3504,8 @@
       <c r="CM6" s="17"/>
       <c r="CN6" s="17"/>
       <c r="CO6" s="17"/>
-      <c r="CP6" s="17"/>
-      <c r="CQ6" s="32"/>
+      <c r="CP6" s="31"/>
+      <c r="CQ6" s="17"/>
       <c r="CR6" s="17"/>
       <c r="CS6" s="17"/>
       <c r="CT6" s="17"/>
@@ -3549,22 +3526,22 @@
       <c r="DI6" s="17"/>
       <c r="DJ6" s="17"/>
       <c r="DK6" s="17"/>
-      <c r="DL6" s="17"/>
+      <c r="DM6" s="17"/>
       <c r="DN6" s="17"/>
-      <c r="DO6" s="17"/>
-      <c r="DY6" s="13"/>
-    </row>
-    <row r="7" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G7" s="13"/>
-      <c r="M7" s="19"/>
+      <c r="DX6" s="13"/>
+    </row>
+    <row r="7" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F7" s="13"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="32"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="32"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17"/>
@@ -3613,14 +3590,14 @@
       <c r="BW7" s="17"/>
       <c r="BX7" s="17"/>
       <c r="BY7" s="17"/>
-      <c r="BZ7" s="17"/>
-      <c r="CA7" s="32"/>
+      <c r="BZ7" s="31"/>
+      <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
       <c r="CC7" s="17"/>
       <c r="CD7" s="17"/>
-      <c r="CE7" s="17"/>
-      <c r="CF7" s="32"/>
-      <c r="CG7" s="32"/>
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="31"/>
+      <c r="CG7" s="17"/>
       <c r="CH7" s="17"/>
       <c r="CI7" s="17"/>
       <c r="CJ7" s="17"/>
@@ -3629,8 +3606,8 @@
       <c r="CM7" s="17"/>
       <c r="CN7" s="17"/>
       <c r="CO7" s="17"/>
-      <c r="CP7" s="17"/>
-      <c r="CQ7" s="32"/>
+      <c r="CP7" s="31"/>
+      <c r="CQ7" s="17"/>
       <c r="CR7" s="17"/>
       <c r="CS7" s="17"/>
       <c r="CT7" s="17"/>
@@ -3651,22 +3628,22 @@
       <c r="DI7" s="17"/>
       <c r="DJ7" s="17"/>
       <c r="DK7" s="17"/>
-      <c r="DL7" s="17"/>
+      <c r="DM7" s="17"/>
       <c r="DN7" s="17"/>
-      <c r="DO7" s="17"/>
-      <c r="DY7" s="13"/>
-    </row>
-    <row r="8" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G8" s="13"/>
-      <c r="M8" s="19"/>
+      <c r="DX7" s="13"/>
+    </row>
+    <row r="8" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F8" s="13"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="32"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="32"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="17"/>
       <c r="AF8" s="17"/>
@@ -3715,14 +3692,14 @@
       <c r="BW8" s="17"/>
       <c r="BX8" s="17"/>
       <c r="BY8" s="17"/>
-      <c r="BZ8" s="17"/>
-      <c r="CA8" s="32"/>
+      <c r="BZ8" s="31"/>
+      <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
       <c r="CC8" s="17"/>
       <c r="CD8" s="17"/>
-      <c r="CE8" s="17"/>
-      <c r="CF8" s="32"/>
-      <c r="CG8" s="32"/>
+      <c r="CE8" s="31"/>
+      <c r="CF8" s="31"/>
+      <c r="CG8" s="17"/>
       <c r="CH8" s="17"/>
       <c r="CI8" s="17"/>
       <c r="CJ8" s="17"/>
@@ -3731,8 +3708,8 @@
       <c r="CM8" s="17"/>
       <c r="CN8" s="17"/>
       <c r="CO8" s="17"/>
-      <c r="CP8" s="17"/>
-      <c r="CQ8" s="32"/>
+      <c r="CP8" s="31"/>
+      <c r="CQ8" s="17"/>
       <c r="CR8" s="17"/>
       <c r="CS8" s="17"/>
       <c r="CT8" s="17"/>
@@ -3753,22 +3730,22 @@
       <c r="DI8" s="17"/>
       <c r="DJ8" s="17"/>
       <c r="DK8" s="17"/>
-      <c r="DL8" s="17"/>
+      <c r="DM8" s="17"/>
       <c r="DN8" s="17"/>
-      <c r="DO8" s="17"/>
-      <c r="DY8" s="13"/>
-    </row>
-    <row r="9" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G9" s="13"/>
-      <c r="M9" s="19"/>
+      <c r="DX8" s="13"/>
+    </row>
+    <row r="9" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F9" s="13"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="32"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="32"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="17"/>
       <c r="AF9" s="17"/>
@@ -3817,14 +3794,14 @@
       <c r="BW9" s="17"/>
       <c r="BX9" s="17"/>
       <c r="BY9" s="17"/>
-      <c r="BZ9" s="17"/>
-      <c r="CA9" s="32"/>
+      <c r="BZ9" s="31"/>
+      <c r="CA9" s="17"/>
       <c r="CB9" s="17"/>
       <c r="CC9" s="17"/>
       <c r="CD9" s="17"/>
-      <c r="CE9" s="17"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="17"/>
       <c r="CH9" s="17"/>
       <c r="CI9" s="17"/>
       <c r="CJ9" s="17"/>
@@ -3833,8 +3810,8 @@
       <c r="CM9" s="17"/>
       <c r="CN9" s="17"/>
       <c r="CO9" s="17"/>
-      <c r="CP9" s="17"/>
-      <c r="CQ9" s="32"/>
+      <c r="CP9" s="31"/>
+      <c r="CQ9" s="17"/>
       <c r="CR9" s="17"/>
       <c r="CS9" s="17"/>
       <c r="CT9" s="17"/>
@@ -3855,22 +3832,22 @@
       <c r="DI9" s="17"/>
       <c r="DJ9" s="17"/>
       <c r="DK9" s="17"/>
-      <c r="DL9" s="17"/>
+      <c r="DM9" s="17"/>
       <c r="DN9" s="17"/>
-      <c r="DO9" s="17"/>
-      <c r="DY9" s="13"/>
-    </row>
-    <row r="10" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G10" s="13"/>
-      <c r="M10" s="19"/>
+      <c r="DX9" s="13"/>
+    </row>
+    <row r="10" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F10" s="13"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="32"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="32"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="17"/>
       <c r="AF10" s="17"/>
@@ -3919,14 +3896,14 @@
       <c r="BW10" s="17"/>
       <c r="BX10" s="17"/>
       <c r="BY10" s="17"/>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="32"/>
+      <c r="BZ10" s="31"/>
+      <c r="CA10" s="17"/>
       <c r="CB10" s="17"/>
       <c r="CC10" s="17"/>
       <c r="CD10" s="17"/>
-      <c r="CE10" s="17"/>
-      <c r="CF10" s="32"/>
-      <c r="CG10" s="32"/>
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="31"/>
+      <c r="CG10" s="17"/>
       <c r="CH10" s="17"/>
       <c r="CI10" s="17"/>
       <c r="CJ10" s="17"/>
@@ -3935,8 +3912,8 @@
       <c r="CM10" s="17"/>
       <c r="CN10" s="17"/>
       <c r="CO10" s="17"/>
-      <c r="CP10" s="17"/>
-      <c r="CQ10" s="32"/>
+      <c r="CP10" s="31"/>
+      <c r="CQ10" s="17"/>
       <c r="CR10" s="17"/>
       <c r="CS10" s="17"/>
       <c r="CT10" s="17"/>
@@ -3957,22 +3934,22 @@
       <c r="DI10" s="17"/>
       <c r="DJ10" s="17"/>
       <c r="DK10" s="17"/>
-      <c r="DL10" s="17"/>
+      <c r="DM10" s="17"/>
       <c r="DN10" s="17"/>
-      <c r="DO10" s="17"/>
-      <c r="DY10" s="13"/>
-    </row>
-    <row r="11" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G11" s="13"/>
-      <c r="M11" s="19"/>
+      <c r="DX10" s="13"/>
+    </row>
+    <row r="11" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F11" s="13"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="32"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="32"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="17"/>
       <c r="AF11" s="17"/>
@@ -4021,14 +3998,14 @@
       <c r="BW11" s="17"/>
       <c r="BX11" s="17"/>
       <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
-      <c r="CA11" s="32"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
       <c r="CC11" s="17"/>
       <c r="CD11" s="17"/>
-      <c r="CE11" s="17"/>
-      <c r="CF11" s="32"/>
-      <c r="CG11" s="32"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="17"/>
       <c r="CH11" s="17"/>
       <c r="CI11" s="17"/>
       <c r="CJ11" s="17"/>
@@ -4037,8 +4014,8 @@
       <c r="CM11" s="17"/>
       <c r="CN11" s="17"/>
       <c r="CO11" s="17"/>
-      <c r="CP11" s="17"/>
-      <c r="CQ11" s="32"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="17"/>
       <c r="CR11" s="17"/>
       <c r="CS11" s="17"/>
       <c r="CT11" s="17"/>
@@ -4059,22 +4036,22 @@
       <c r="DI11" s="17"/>
       <c r="DJ11" s="17"/>
       <c r="DK11" s="17"/>
-      <c r="DL11" s="17"/>
+      <c r="DM11" s="17"/>
       <c r="DN11" s="17"/>
-      <c r="DO11" s="17"/>
-      <c r="DY11" s="13"/>
-    </row>
-    <row r="12" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G12" s="13"/>
-      <c r="M12" s="19"/>
+      <c r="DX11" s="13"/>
+    </row>
+    <row r="12" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F12" s="13"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="32"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="32"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
@@ -4123,14 +4100,14 @@
       <c r="BW12" s="17"/>
       <c r="BX12" s="17"/>
       <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="32"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="17"/>
       <c r="CB12" s="17"/>
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
-      <c r="CE12" s="17"/>
-      <c r="CF12" s="32"/>
-      <c r="CG12" s="32"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="17"/>
       <c r="CH12" s="17"/>
       <c r="CI12" s="17"/>
       <c r="CJ12" s="17"/>
@@ -4139,8 +4116,8 @@
       <c r="CM12" s="17"/>
       <c r="CN12" s="17"/>
       <c r="CO12" s="17"/>
-      <c r="CP12" s="17"/>
-      <c r="CQ12" s="32"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="17"/>
       <c r="CR12" s="17"/>
       <c r="CS12" s="17"/>
       <c r="CT12" s="17"/>
@@ -4161,22 +4138,22 @@
       <c r="DI12" s="17"/>
       <c r="DJ12" s="17"/>
       <c r="DK12" s="17"/>
-      <c r="DL12" s="17"/>
+      <c r="DM12" s="17"/>
       <c r="DN12" s="17"/>
-      <c r="DO12" s="17"/>
-      <c r="DY12" s="13"/>
-    </row>
-    <row r="13" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G13" s="13"/>
-      <c r="M13" s="19"/>
+      <c r="DX12" s="13"/>
+    </row>
+    <row r="13" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F13" s="13"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="32"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="32"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
@@ -4225,14 +4202,14 @@
       <c r="BW13" s="17"/>
       <c r="BX13" s="17"/>
       <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="32"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
-      <c r="CE13" s="17"/>
-      <c r="CF13" s="32"/>
-      <c r="CG13" s="32"/>
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="31"/>
+      <c r="CG13" s="17"/>
       <c r="CH13" s="17"/>
       <c r="CI13" s="17"/>
       <c r="CJ13" s="17"/>
@@ -4241,8 +4218,8 @@
       <c r="CM13" s="17"/>
       <c r="CN13" s="17"/>
       <c r="CO13" s="17"/>
-      <c r="CP13" s="17"/>
-      <c r="CQ13" s="32"/>
+      <c r="CP13" s="31"/>
+      <c r="CQ13" s="17"/>
       <c r="CR13" s="17"/>
       <c r="CS13" s="17"/>
       <c r="CT13" s="17"/>
@@ -4263,22 +4240,22 @@
       <c r="DI13" s="17"/>
       <c r="DJ13" s="17"/>
       <c r="DK13" s="17"/>
-      <c r="DL13" s="17"/>
+      <c r="DM13" s="17"/>
       <c r="DN13" s="17"/>
-      <c r="DO13" s="17"/>
-      <c r="DY13" s="13"/>
-    </row>
-    <row r="14" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G14" s="13"/>
-      <c r="M14" s="19"/>
+      <c r="DX13" s="13"/>
+    </row>
+    <row r="14" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F14" s="13"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="32"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="32"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="17"/>
       <c r="AF14" s="17"/>
@@ -4327,14 +4304,14 @@
       <c r="BW14" s="17"/>
       <c r="BX14" s="17"/>
       <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="32"/>
+      <c r="BZ14" s="31"/>
+      <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
-      <c r="CE14" s="17"/>
-      <c r="CF14" s="32"/>
-      <c r="CG14" s="32"/>
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="31"/>
+      <c r="CG14" s="17"/>
       <c r="CH14" s="17"/>
       <c r="CI14" s="17"/>
       <c r="CJ14" s="17"/>
@@ -4343,8 +4320,8 @@
       <c r="CM14" s="17"/>
       <c r="CN14" s="17"/>
       <c r="CO14" s="17"/>
-      <c r="CP14" s="17"/>
-      <c r="CQ14" s="32"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="17"/>
       <c r="CR14" s="17"/>
       <c r="CS14" s="17"/>
       <c r="CT14" s="17"/>
@@ -4365,22 +4342,22 @@
       <c r="DI14" s="17"/>
       <c r="DJ14" s="17"/>
       <c r="DK14" s="17"/>
-      <c r="DL14" s="17"/>
+      <c r="DM14" s="17"/>
       <c r="DN14" s="17"/>
-      <c r="DO14" s="17"/>
-      <c r="DY14" s="13"/>
-    </row>
-    <row r="15" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G15" s="13"/>
-      <c r="M15" s="19"/>
+      <c r="DX14" s="13"/>
+    </row>
+    <row r="15" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F15" s="13"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="32"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="32"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="17"/>
       <c r="AF15" s="17"/>
@@ -4429,14 +4406,14 @@
       <c r="BW15" s="17"/>
       <c r="BX15" s="17"/>
       <c r="BY15" s="17"/>
-      <c r="BZ15" s="17"/>
-      <c r="CA15" s="32"/>
+      <c r="BZ15" s="31"/>
+      <c r="CA15" s="17"/>
       <c r="CB15" s="17"/>
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
-      <c r="CE15" s="17"/>
-      <c r="CF15" s="32"/>
-      <c r="CG15" s="32"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="31"/>
+      <c r="CG15" s="17"/>
       <c r="CH15" s="17"/>
       <c r="CI15" s="17"/>
       <c r="CJ15" s="17"/>
@@ -4445,8 +4422,8 @@
       <c r="CM15" s="17"/>
       <c r="CN15" s="17"/>
       <c r="CO15" s="17"/>
-      <c r="CP15" s="17"/>
-      <c r="CQ15" s="32"/>
+      <c r="CP15" s="31"/>
+      <c r="CQ15" s="17"/>
       <c r="CR15" s="17"/>
       <c r="CS15" s="17"/>
       <c r="CT15" s="17"/>
@@ -4467,22 +4444,22 @@
       <c r="DI15" s="17"/>
       <c r="DJ15" s="17"/>
       <c r="DK15" s="17"/>
-      <c r="DL15" s="17"/>
+      <c r="DM15" s="17"/>
       <c r="DN15" s="17"/>
-      <c r="DO15" s="17"/>
-      <c r="DY15" s="13"/>
-    </row>
-    <row r="16" spans="1:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G16" s="13"/>
-      <c r="M16" s="19"/>
+      <c r="DX15" s="13"/>
+    </row>
+    <row r="16" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F16" s="13"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="32"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="32"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
@@ -4531,14 +4508,14 @@
       <c r="BW16" s="17"/>
       <c r="BX16" s="17"/>
       <c r="BY16" s="17"/>
-      <c r="BZ16" s="17"/>
-      <c r="CA16" s="32"/>
+      <c r="BZ16" s="31"/>
+      <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
-      <c r="CE16" s="17"/>
-      <c r="CF16" s="32"/>
-      <c r="CG16" s="32"/>
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="31"/>
+      <c r="CG16" s="17"/>
       <c r="CH16" s="17"/>
       <c r="CI16" s="17"/>
       <c r="CJ16" s="17"/>
@@ -4547,8 +4524,8 @@
       <c r="CM16" s="17"/>
       <c r="CN16" s="17"/>
       <c r="CO16" s="17"/>
-      <c r="CP16" s="17"/>
-      <c r="CQ16" s="32"/>
+      <c r="CP16" s="31"/>
+      <c r="CQ16" s="17"/>
       <c r="CR16" s="17"/>
       <c r="CS16" s="17"/>
       <c r="CT16" s="17"/>
@@ -4569,22 +4546,22 @@
       <c r="DI16" s="17"/>
       <c r="DJ16" s="17"/>
       <c r="DK16" s="17"/>
-      <c r="DL16" s="17"/>
+      <c r="DM16" s="17"/>
       <c r="DN16" s="17"/>
-      <c r="DO16" s="17"/>
-      <c r="DY16" s="13"/>
-    </row>
-    <row r="17" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G17" s="13"/>
-      <c r="M17" s="19"/>
+      <c r="DX16" s="13"/>
+    </row>
+    <row r="17" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F17" s="13"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="32"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="32"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
@@ -4633,14 +4610,14 @@
       <c r="BW17" s="17"/>
       <c r="BX17" s="17"/>
       <c r="BY17" s="17"/>
-      <c r="BZ17" s="17"/>
-      <c r="CA17" s="32"/>
+      <c r="BZ17" s="31"/>
+      <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
-      <c r="CE17" s="17"/>
-      <c r="CF17" s="32"/>
-      <c r="CG17" s="32"/>
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="31"/>
+      <c r="CG17" s="17"/>
       <c r="CH17" s="17"/>
       <c r="CI17" s="17"/>
       <c r="CJ17" s="17"/>
@@ -4649,8 +4626,8 @@
       <c r="CM17" s="17"/>
       <c r="CN17" s="17"/>
       <c r="CO17" s="17"/>
-      <c r="CP17" s="17"/>
-      <c r="CQ17" s="32"/>
+      <c r="CP17" s="31"/>
+      <c r="CQ17" s="17"/>
       <c r="CR17" s="17"/>
       <c r="CS17" s="17"/>
       <c r="CT17" s="17"/>
@@ -4671,22 +4648,22 @@
       <c r="DI17" s="17"/>
       <c r="DJ17" s="17"/>
       <c r="DK17" s="17"/>
-      <c r="DL17" s="17"/>
+      <c r="DM17" s="17"/>
       <c r="DN17" s="17"/>
-      <c r="DO17" s="17"/>
-      <c r="DY17" s="13"/>
-    </row>
-    <row r="18" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G18" s="13"/>
-      <c r="M18" s="19"/>
+      <c r="DX17" s="13"/>
+    </row>
+    <row r="18" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F18" s="13"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="32"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="32"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
       <c r="AF18" s="17"/>
@@ -4735,14 +4712,14 @@
       <c r="BW18" s="17"/>
       <c r="BX18" s="17"/>
       <c r="BY18" s="17"/>
-      <c r="BZ18" s="17"/>
-      <c r="CA18" s="32"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
-      <c r="CE18" s="17"/>
-      <c r="CF18" s="32"/>
-      <c r="CG18" s="32"/>
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="31"/>
+      <c r="CG18" s="17"/>
       <c r="CH18" s="17"/>
       <c r="CI18" s="17"/>
       <c r="CJ18" s="17"/>
@@ -4751,8 +4728,8 @@
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="32"/>
+      <c r="CP18" s="31"/>
+      <c r="CQ18" s="17"/>
       <c r="CR18" s="17"/>
       <c r="CS18" s="17"/>
       <c r="CT18" s="17"/>
@@ -4773,22 +4750,22 @@
       <c r="DI18" s="17"/>
       <c r="DJ18" s="17"/>
       <c r="DK18" s="17"/>
-      <c r="DL18" s="17"/>
+      <c r="DM18" s="17"/>
       <c r="DN18" s="17"/>
-      <c r="DO18" s="17"/>
-      <c r="DY18" s="13"/>
-    </row>
-    <row r="19" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G19" s="13"/>
-      <c r="M19" s="19"/>
+      <c r="DX18" s="13"/>
+    </row>
+    <row r="19" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F19" s="13"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="32"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="32"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
@@ -4837,14 +4814,14 @@
       <c r="BW19" s="17"/>
       <c r="BX19" s="17"/>
       <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="32"/>
+      <c r="BZ19" s="31"/>
+      <c r="CA19" s="17"/>
       <c r="CB19" s="17"/>
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
-      <c r="CE19" s="17"/>
-      <c r="CF19" s="32"/>
-      <c r="CG19" s="32"/>
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="31"/>
+      <c r="CG19" s="17"/>
       <c r="CH19" s="17"/>
       <c r="CI19" s="17"/>
       <c r="CJ19" s="17"/>
@@ -4853,8 +4830,8 @@
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="32"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="17"/>
       <c r="CR19" s="17"/>
       <c r="CS19" s="17"/>
       <c r="CT19" s="17"/>
@@ -4875,22 +4852,22 @@
       <c r="DI19" s="17"/>
       <c r="DJ19" s="17"/>
       <c r="DK19" s="17"/>
-      <c r="DL19" s="17"/>
+      <c r="DM19" s="17"/>
       <c r="DN19" s="17"/>
-      <c r="DO19" s="17"/>
-      <c r="DY19" s="13"/>
-    </row>
-    <row r="20" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G20" s="13"/>
-      <c r="M20" s="19"/>
+      <c r="DX19" s="13"/>
+    </row>
+    <row r="20" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F20" s="13"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="17"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="32"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="32"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
@@ -4939,14 +4916,14 @@
       <c r="BW20" s="17"/>
       <c r="BX20" s="17"/>
       <c r="BY20" s="17"/>
-      <c r="BZ20" s="17"/>
-      <c r="CA20" s="32"/>
+      <c r="BZ20" s="31"/>
+      <c r="CA20" s="17"/>
       <c r="CB20" s="17"/>
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
-      <c r="CE20" s="17"/>
-      <c r="CF20" s="32"/>
-      <c r="CG20" s="32"/>
+      <c r="CE20" s="31"/>
+      <c r="CF20" s="31"/>
+      <c r="CG20" s="17"/>
       <c r="CH20" s="17"/>
       <c r="CI20" s="17"/>
       <c r="CJ20" s="17"/>
@@ -4955,8 +4932,8 @@
       <c r="CM20" s="17"/>
       <c r="CN20" s="17"/>
       <c r="CO20" s="17"/>
-      <c r="CP20" s="17"/>
-      <c r="CQ20" s="32"/>
+      <c r="CP20" s="31"/>
+      <c r="CQ20" s="17"/>
       <c r="CR20" s="17"/>
       <c r="CS20" s="17"/>
       <c r="CT20" s="17"/>
@@ -4977,22 +4954,22 @@
       <c r="DI20" s="17"/>
       <c r="DJ20" s="17"/>
       <c r="DK20" s="17"/>
-      <c r="DL20" s="17"/>
+      <c r="DM20" s="17"/>
       <c r="DN20" s="17"/>
-      <c r="DO20" s="17"/>
-      <c r="DY20" s="13"/>
-    </row>
-    <row r="21" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G21" s="13"/>
-      <c r="M21" s="19"/>
+      <c r="DX20" s="13"/>
+    </row>
+    <row r="21" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F21" s="13"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="32"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="32"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
       <c r="AF21" s="17"/>
@@ -5041,14 +5018,14 @@
       <c r="BW21" s="17"/>
       <c r="BX21" s="17"/>
       <c r="BY21" s="17"/>
-      <c r="BZ21" s="17"/>
-      <c r="CA21" s="32"/>
+      <c r="BZ21" s="31"/>
+      <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
-      <c r="CE21" s="17"/>
-      <c r="CF21" s="32"/>
-      <c r="CG21" s="32"/>
+      <c r="CE21" s="31"/>
+      <c r="CF21" s="31"/>
+      <c r="CG21" s="17"/>
       <c r="CH21" s="17"/>
       <c r="CI21" s="17"/>
       <c r="CJ21" s="17"/>
@@ -5057,8 +5034,8 @@
       <c r="CM21" s="17"/>
       <c r="CN21" s="17"/>
       <c r="CO21" s="17"/>
-      <c r="CP21" s="17"/>
-      <c r="CQ21" s="32"/>
+      <c r="CP21" s="31"/>
+      <c r="CQ21" s="17"/>
       <c r="CR21" s="17"/>
       <c r="CS21" s="17"/>
       <c r="CT21" s="17"/>
@@ -5079,22 +5056,22 @@
       <c r="DI21" s="17"/>
       <c r="DJ21" s="17"/>
       <c r="DK21" s="17"/>
-      <c r="DL21" s="17"/>
+      <c r="DM21" s="17"/>
       <c r="DN21" s="17"/>
-      <c r="DO21" s="17"/>
-      <c r="DY21" s="13"/>
-    </row>
-    <row r="22" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G22" s="13"/>
-      <c r="M22" s="19"/>
+      <c r="DX21" s="13"/>
+    </row>
+    <row r="22" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F22" s="13"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="32"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="32"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
       <c r="AF22" s="17"/>
@@ -5143,14 +5120,14 @@
       <c r="BW22" s="17"/>
       <c r="BX22" s="17"/>
       <c r="BY22" s="17"/>
-      <c r="BZ22" s="17"/>
-      <c r="CA22" s="32"/>
+      <c r="BZ22" s="31"/>
+      <c r="CA22" s="17"/>
       <c r="CB22" s="17"/>
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
-      <c r="CE22" s="17"/>
-      <c r="CF22" s="32"/>
-      <c r="CG22" s="32"/>
+      <c r="CE22" s="31"/>
+      <c r="CF22" s="31"/>
+      <c r="CG22" s="17"/>
       <c r="CH22" s="17"/>
       <c r="CI22" s="17"/>
       <c r="CJ22" s="17"/>
@@ -5159,8 +5136,8 @@
       <c r="CM22" s="17"/>
       <c r="CN22" s="17"/>
       <c r="CO22" s="17"/>
-      <c r="CP22" s="17"/>
-      <c r="CQ22" s="32"/>
+      <c r="CP22" s="31"/>
+      <c r="CQ22" s="17"/>
       <c r="CR22" s="17"/>
       <c r="CS22" s="17"/>
       <c r="CT22" s="17"/>
@@ -5181,22 +5158,22 @@
       <c r="DI22" s="17"/>
       <c r="DJ22" s="17"/>
       <c r="DK22" s="17"/>
-      <c r="DL22" s="17"/>
+      <c r="DM22" s="17"/>
       <c r="DN22" s="17"/>
-      <c r="DO22" s="17"/>
-      <c r="DY22" s="13"/>
-    </row>
-    <row r="23" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G23" s="13"/>
-      <c r="M23" s="19"/>
+      <c r="DX22" s="13"/>
+    </row>
+    <row r="23" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F23" s="13"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="32"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="32"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
       <c r="AF23" s="17"/>
@@ -5245,14 +5222,14 @@
       <c r="BW23" s="17"/>
       <c r="BX23" s="17"/>
       <c r="BY23" s="17"/>
-      <c r="BZ23" s="17"/>
-      <c r="CA23" s="32"/>
+      <c r="BZ23" s="31"/>
+      <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
-      <c r="CE23" s="17"/>
-      <c r="CF23" s="32"/>
-      <c r="CG23" s="32"/>
+      <c r="CE23" s="31"/>
+      <c r="CF23" s="31"/>
+      <c r="CG23" s="17"/>
       <c r="CH23" s="17"/>
       <c r="CI23" s="17"/>
       <c r="CJ23" s="17"/>
@@ -5261,8 +5238,8 @@
       <c r="CM23" s="17"/>
       <c r="CN23" s="17"/>
       <c r="CO23" s="17"/>
-      <c r="CP23" s="17"/>
-      <c r="CQ23" s="32"/>
+      <c r="CP23" s="31"/>
+      <c r="CQ23" s="17"/>
       <c r="CR23" s="17"/>
       <c r="CS23" s="17"/>
       <c r="CT23" s="17"/>
@@ -5283,22 +5260,22 @@
       <c r="DI23" s="17"/>
       <c r="DJ23" s="17"/>
       <c r="DK23" s="17"/>
-      <c r="DL23" s="17"/>
+      <c r="DM23" s="17"/>
       <c r="DN23" s="17"/>
-      <c r="DO23" s="17"/>
-      <c r="DY23" s="13"/>
-    </row>
-    <row r="24" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G24" s="13"/>
-      <c r="M24" s="19"/>
+      <c r="DX23" s="13"/>
+    </row>
+    <row r="24" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F24" s="13"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="32"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="32"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
       <c r="AF24" s="17"/>
@@ -5347,14 +5324,14 @@
       <c r="BW24" s="17"/>
       <c r="BX24" s="17"/>
       <c r="BY24" s="17"/>
-      <c r="BZ24" s="17"/>
-      <c r="CA24" s="32"/>
+      <c r="BZ24" s="31"/>
+      <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
-      <c r="CE24" s="17"/>
-      <c r="CF24" s="32"/>
-      <c r="CG24" s="32"/>
+      <c r="CE24" s="31"/>
+      <c r="CF24" s="31"/>
+      <c r="CG24" s="17"/>
       <c r="CH24" s="17"/>
       <c r="CI24" s="17"/>
       <c r="CJ24" s="17"/>
@@ -5363,8 +5340,8 @@
       <c r="CM24" s="17"/>
       <c r="CN24" s="17"/>
       <c r="CO24" s="17"/>
-      <c r="CP24" s="17"/>
-      <c r="CQ24" s="32"/>
+      <c r="CP24" s="31"/>
+      <c r="CQ24" s="17"/>
       <c r="CR24" s="17"/>
       <c r="CS24" s="17"/>
       <c r="CT24" s="17"/>
@@ -5385,22 +5362,22 @@
       <c r="DI24" s="17"/>
       <c r="DJ24" s="17"/>
       <c r="DK24" s="17"/>
-      <c r="DL24" s="17"/>
+      <c r="DM24" s="17"/>
       <c r="DN24" s="17"/>
-      <c r="DO24" s="17"/>
-      <c r="DY24" s="13"/>
-    </row>
-    <row r="25" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G25" s="13"/>
-      <c r="M25" s="19"/>
+      <c r="DX24" s="13"/>
+    </row>
+    <row r="25" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F25" s="13"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="32"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="32"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
       <c r="AF25" s="17"/>
@@ -5449,14 +5426,14 @@
       <c r="BW25" s="17"/>
       <c r="BX25" s="17"/>
       <c r="BY25" s="17"/>
-      <c r="BZ25" s="17"/>
-      <c r="CA25" s="32"/>
+      <c r="BZ25" s="31"/>
+      <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
-      <c r="CE25" s="17"/>
-      <c r="CF25" s="32"/>
-      <c r="CG25" s="32"/>
+      <c r="CE25" s="31"/>
+      <c r="CF25" s="31"/>
+      <c r="CG25" s="17"/>
       <c r="CH25" s="17"/>
       <c r="CI25" s="17"/>
       <c r="CJ25" s="17"/>
@@ -5465,8 +5442,8 @@
       <c r="CM25" s="17"/>
       <c r="CN25" s="17"/>
       <c r="CO25" s="17"/>
-      <c r="CP25" s="17"/>
-      <c r="CQ25" s="32"/>
+      <c r="CP25" s="31"/>
+      <c r="CQ25" s="17"/>
       <c r="CR25" s="17"/>
       <c r="CS25" s="17"/>
       <c r="CT25" s="17"/>
@@ -5487,22 +5464,22 @@
       <c r="DI25" s="17"/>
       <c r="DJ25" s="17"/>
       <c r="DK25" s="17"/>
-      <c r="DL25" s="17"/>
+      <c r="DM25" s="17"/>
       <c r="DN25" s="17"/>
-      <c r="DO25" s="17"/>
-      <c r="DY25" s="13"/>
-    </row>
-    <row r="26" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G26" s="13"/>
-      <c r="M26" s="19"/>
+      <c r="DX25" s="13"/>
+    </row>
+    <row r="26" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F26" s="13"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="32"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="32"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
       <c r="AF26" s="17"/>
@@ -5551,14 +5528,14 @@
       <c r="BW26" s="17"/>
       <c r="BX26" s="17"/>
       <c r="BY26" s="17"/>
-      <c r="BZ26" s="17"/>
-      <c r="CA26" s="32"/>
+      <c r="BZ26" s="31"/>
+      <c r="CA26" s="17"/>
       <c r="CB26" s="17"/>
       <c r="CC26" s="17"/>
       <c r="CD26" s="17"/>
-      <c r="CE26" s="17"/>
-      <c r="CF26" s="32"/>
-      <c r="CG26" s="32"/>
+      <c r="CE26" s="31"/>
+      <c r="CF26" s="31"/>
+      <c r="CG26" s="17"/>
       <c r="CH26" s="17"/>
       <c r="CI26" s="17"/>
       <c r="CJ26" s="17"/>
@@ -5567,8 +5544,8 @@
       <c r="CM26" s="17"/>
       <c r="CN26" s="17"/>
       <c r="CO26" s="17"/>
-      <c r="CP26" s="17"/>
-      <c r="CQ26" s="32"/>
+      <c r="CP26" s="31"/>
+      <c r="CQ26" s="17"/>
       <c r="CR26" s="17"/>
       <c r="CS26" s="17"/>
       <c r="CT26" s="17"/>
@@ -5589,22 +5566,22 @@
       <c r="DI26" s="17"/>
       <c r="DJ26" s="17"/>
       <c r="DK26" s="17"/>
-      <c r="DL26" s="17"/>
+      <c r="DM26" s="17"/>
       <c r="DN26" s="17"/>
-      <c r="DO26" s="17"/>
-      <c r="DY26" s="13"/>
-    </row>
-    <row r="27" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G27" s="13"/>
-      <c r="M27" s="19"/>
+      <c r="DX26" s="13"/>
+    </row>
+    <row r="27" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F27" s="13"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="32"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="32"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
       <c r="AF27" s="17"/>
@@ -5653,14 +5630,14 @@
       <c r="BW27" s="17"/>
       <c r="BX27" s="17"/>
       <c r="BY27" s="17"/>
-      <c r="BZ27" s="17"/>
-      <c r="CA27" s="32"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
       <c r="CC27" s="17"/>
       <c r="CD27" s="17"/>
-      <c r="CE27" s="17"/>
-      <c r="CF27" s="32"/>
-      <c r="CG27" s="32"/>
+      <c r="CE27" s="31"/>
+      <c r="CF27" s="31"/>
+      <c r="CG27" s="17"/>
       <c r="CH27" s="17"/>
       <c r="CI27" s="17"/>
       <c r="CJ27" s="17"/>
@@ -5669,8 +5646,8 @@
       <c r="CM27" s="17"/>
       <c r="CN27" s="17"/>
       <c r="CO27" s="17"/>
-      <c r="CP27" s="17"/>
-      <c r="CQ27" s="32"/>
+      <c r="CP27" s="31"/>
+      <c r="CQ27" s="17"/>
       <c r="CR27" s="17"/>
       <c r="CS27" s="17"/>
       <c r="CT27" s="17"/>
@@ -5691,22 +5668,22 @@
       <c r="DI27" s="17"/>
       <c r="DJ27" s="17"/>
       <c r="DK27" s="17"/>
-      <c r="DL27" s="17"/>
+      <c r="DM27" s="17"/>
       <c r="DN27" s="17"/>
-      <c r="DO27" s="17"/>
-      <c r="DY27" s="13"/>
-    </row>
-    <row r="28" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G28" s="13"/>
-      <c r="M28" s="19"/>
+      <c r="DX27" s="13"/>
+    </row>
+    <row r="28" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F28" s="13"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="32"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="32"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
       <c r="AF28" s="17"/>
@@ -5755,14 +5732,14 @@
       <c r="BW28" s="17"/>
       <c r="BX28" s="17"/>
       <c r="BY28" s="17"/>
-      <c r="BZ28" s="17"/>
-      <c r="CA28" s="32"/>
+      <c r="BZ28" s="31"/>
+      <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
       <c r="CC28" s="17"/>
       <c r="CD28" s="17"/>
-      <c r="CE28" s="17"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="17"/>
       <c r="CH28" s="17"/>
       <c r="CI28" s="17"/>
       <c r="CJ28" s="17"/>
@@ -5771,8 +5748,8 @@
       <c r="CM28" s="17"/>
       <c r="CN28" s="17"/>
       <c r="CO28" s="17"/>
-      <c r="CP28" s="17"/>
-      <c r="CQ28" s="32"/>
+      <c r="CP28" s="31"/>
+      <c r="CQ28" s="17"/>
       <c r="CR28" s="17"/>
       <c r="CS28" s="17"/>
       <c r="CT28" s="17"/>
@@ -5793,22 +5770,22 @@
       <c r="DI28" s="17"/>
       <c r="DJ28" s="17"/>
       <c r="DK28" s="17"/>
-      <c r="DL28" s="17"/>
+      <c r="DM28" s="17"/>
       <c r="DN28" s="17"/>
-      <c r="DO28" s="17"/>
-      <c r="DY28" s="13"/>
-    </row>
-    <row r="29" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G29" s="13"/>
-      <c r="M29" s="19"/>
+      <c r="DX28" s="13"/>
+    </row>
+    <row r="29" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F29" s="13"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="17"/>
       <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="32"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="32"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
       <c r="AF29" s="17"/>
@@ -5857,14 +5834,14 @@
       <c r="BW29" s="17"/>
       <c r="BX29" s="17"/>
       <c r="BY29" s="17"/>
-      <c r="BZ29" s="17"/>
-      <c r="CA29" s="32"/>
+      <c r="BZ29" s="31"/>
+      <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
-      <c r="CE29" s="17"/>
-      <c r="CF29" s="32"/>
-      <c r="CG29" s="32"/>
+      <c r="CE29" s="31"/>
+      <c r="CF29" s="31"/>
+      <c r="CG29" s="17"/>
       <c r="CH29" s="17"/>
       <c r="CI29" s="17"/>
       <c r="CJ29" s="17"/>
@@ -5873,8 +5850,8 @@
       <c r="CM29" s="17"/>
       <c r="CN29" s="17"/>
       <c r="CO29" s="17"/>
-      <c r="CP29" s="17"/>
-      <c r="CQ29" s="32"/>
+      <c r="CP29" s="31"/>
+      <c r="CQ29" s="17"/>
       <c r="CR29" s="17"/>
       <c r="CS29" s="17"/>
       <c r="CT29" s="17"/>
@@ -5895,22 +5872,22 @@
       <c r="DI29" s="17"/>
       <c r="DJ29" s="17"/>
       <c r="DK29" s="17"/>
-      <c r="DL29" s="17"/>
+      <c r="DM29" s="17"/>
       <c r="DN29" s="17"/>
-      <c r="DO29" s="17"/>
-      <c r="DY29" s="13"/>
-    </row>
-    <row r="30" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G30" s="13"/>
-      <c r="M30" s="19"/>
+      <c r="DX29" s="13"/>
+    </row>
+    <row r="30" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F30" s="13"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="32"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="32"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
       <c r="AF30" s="17"/>
@@ -5959,14 +5936,14 @@
       <c r="BW30" s="17"/>
       <c r="BX30" s="17"/>
       <c r="BY30" s="17"/>
-      <c r="BZ30" s="17"/>
-      <c r="CA30" s="32"/>
+      <c r="BZ30" s="31"/>
+      <c r="CA30" s="17"/>
       <c r="CB30" s="17"/>
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
-      <c r="CE30" s="17"/>
-      <c r="CF30" s="32"/>
-      <c r="CG30" s="32"/>
+      <c r="CE30" s="31"/>
+      <c r="CF30" s="31"/>
+      <c r="CG30" s="17"/>
       <c r="CH30" s="17"/>
       <c r="CI30" s="17"/>
       <c r="CJ30" s="17"/>
@@ -5975,8 +5952,8 @@
       <c r="CM30" s="17"/>
       <c r="CN30" s="17"/>
       <c r="CO30" s="17"/>
-      <c r="CP30" s="17"/>
-      <c r="CQ30" s="32"/>
+      <c r="CP30" s="31"/>
+      <c r="CQ30" s="17"/>
       <c r="CR30" s="17"/>
       <c r="CS30" s="17"/>
       <c r="CT30" s="17"/>
@@ -5997,22 +5974,22 @@
       <c r="DI30" s="17"/>
       <c r="DJ30" s="17"/>
       <c r="DK30" s="17"/>
-      <c r="DL30" s="17"/>
+      <c r="DM30" s="17"/>
       <c r="DN30" s="17"/>
-      <c r="DO30" s="17"/>
-      <c r="DY30" s="13"/>
-    </row>
-    <row r="31" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G31" s="13"/>
-      <c r="M31" s="19"/>
+      <c r="DX30" s="13"/>
+    </row>
+    <row r="31" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F31" s="13"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="32"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="32"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17"/>
@@ -6061,14 +6038,14 @@
       <c r="BW31" s="17"/>
       <c r="BX31" s="17"/>
       <c r="BY31" s="17"/>
-      <c r="BZ31" s="17"/>
-      <c r="CA31" s="32"/>
+      <c r="BZ31" s="31"/>
+      <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
-      <c r="CE31" s="17"/>
-      <c r="CF31" s="32"/>
-      <c r="CG31" s="32"/>
+      <c r="CE31" s="31"/>
+      <c r="CF31" s="31"/>
+      <c r="CG31" s="17"/>
       <c r="CH31" s="17"/>
       <c r="CI31" s="17"/>
       <c r="CJ31" s="17"/>
@@ -6077,8 +6054,8 @@
       <c r="CM31" s="17"/>
       <c r="CN31" s="17"/>
       <c r="CO31" s="17"/>
-      <c r="CP31" s="17"/>
-      <c r="CQ31" s="32"/>
+      <c r="CP31" s="31"/>
+      <c r="CQ31" s="17"/>
       <c r="CR31" s="17"/>
       <c r="CS31" s="17"/>
       <c r="CT31" s="17"/>
@@ -6099,22 +6076,22 @@
       <c r="DI31" s="17"/>
       <c r="DJ31" s="17"/>
       <c r="DK31" s="17"/>
-      <c r="DL31" s="17"/>
+      <c r="DM31" s="17"/>
       <c r="DN31" s="17"/>
-      <c r="DO31" s="17"/>
-      <c r="DY31" s="13"/>
-    </row>
-    <row r="32" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G32" s="13"/>
-      <c r="M32" s="19"/>
+      <c r="DX31" s="13"/>
+    </row>
+    <row r="32" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F32" s="13"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="32"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="32"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
@@ -6163,14 +6140,14 @@
       <c r="BW32" s="17"/>
       <c r="BX32" s="17"/>
       <c r="BY32" s="17"/>
-      <c r="BZ32" s="17"/>
-      <c r="CA32" s="32"/>
+      <c r="BZ32" s="31"/>
+      <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
-      <c r="CE32" s="17"/>
-      <c r="CF32" s="32"/>
-      <c r="CG32" s="32"/>
+      <c r="CE32" s="31"/>
+      <c r="CF32" s="31"/>
+      <c r="CG32" s="17"/>
       <c r="CH32" s="17"/>
       <c r="CI32" s="17"/>
       <c r="CJ32" s="17"/>
@@ -6179,8 +6156,8 @@
       <c r="CM32" s="17"/>
       <c r="CN32" s="17"/>
       <c r="CO32" s="17"/>
-      <c r="CP32" s="17"/>
-      <c r="CQ32" s="32"/>
+      <c r="CP32" s="31"/>
+      <c r="CQ32" s="17"/>
       <c r="CR32" s="17"/>
       <c r="CS32" s="17"/>
       <c r="CT32" s="17"/>
@@ -6201,22 +6178,22 @@
       <c r="DI32" s="17"/>
       <c r="DJ32" s="17"/>
       <c r="DK32" s="17"/>
-      <c r="DL32" s="17"/>
+      <c r="DM32" s="17"/>
       <c r="DN32" s="17"/>
-      <c r="DO32" s="17"/>
-      <c r="DY32" s="13"/>
-    </row>
-    <row r="33" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G33" s="13"/>
-      <c r="M33" s="19"/>
+      <c r="DX32" s="13"/>
+    </row>
+    <row r="33" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F33" s="13"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="32"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="32"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
       <c r="AF33" s="17"/>
@@ -6265,14 +6242,14 @@
       <c r="BW33" s="17"/>
       <c r="BX33" s="17"/>
       <c r="BY33" s="17"/>
-      <c r="BZ33" s="17"/>
-      <c r="CA33" s="32"/>
+      <c r="BZ33" s="31"/>
+      <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
-      <c r="CE33" s="17"/>
-      <c r="CF33" s="32"/>
-      <c r="CG33" s="32"/>
+      <c r="CE33" s="31"/>
+      <c r="CF33" s="31"/>
+      <c r="CG33" s="17"/>
       <c r="CH33" s="17"/>
       <c r="CI33" s="17"/>
       <c r="CJ33" s="17"/>
@@ -6281,8 +6258,8 @@
       <c r="CM33" s="17"/>
       <c r="CN33" s="17"/>
       <c r="CO33" s="17"/>
-      <c r="CP33" s="17"/>
-      <c r="CQ33" s="32"/>
+      <c r="CP33" s="31"/>
+      <c r="CQ33" s="17"/>
       <c r="CR33" s="17"/>
       <c r="CS33" s="17"/>
       <c r="CT33" s="17"/>
@@ -6303,22 +6280,22 @@
       <c r="DI33" s="17"/>
       <c r="DJ33" s="17"/>
       <c r="DK33" s="17"/>
-      <c r="DL33" s="17"/>
+      <c r="DM33" s="17"/>
       <c r="DN33" s="17"/>
-      <c r="DO33" s="17"/>
-      <c r="DY33" s="13"/>
-    </row>
-    <row r="34" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G34" s="13"/>
-      <c r="M34" s="19"/>
+      <c r="DX33" s="13"/>
+    </row>
+    <row r="34" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F34" s="13"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="32"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="32"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
       <c r="AF34" s="17"/>
@@ -6367,14 +6344,14 @@
       <c r="BW34" s="17"/>
       <c r="BX34" s="17"/>
       <c r="BY34" s="17"/>
-      <c r="BZ34" s="17"/>
-      <c r="CA34" s="32"/>
+      <c r="BZ34" s="31"/>
+      <c r="CA34" s="17"/>
       <c r="CB34" s="17"/>
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
-      <c r="CE34" s="17"/>
-      <c r="CF34" s="32"/>
-      <c r="CG34" s="32"/>
+      <c r="CE34" s="31"/>
+      <c r="CF34" s="31"/>
+      <c r="CG34" s="17"/>
       <c r="CH34" s="17"/>
       <c r="CI34" s="17"/>
       <c r="CJ34" s="17"/>
@@ -6383,8 +6360,8 @@
       <c r="CM34" s="17"/>
       <c r="CN34" s="17"/>
       <c r="CO34" s="17"/>
-      <c r="CP34" s="17"/>
-      <c r="CQ34" s="32"/>
+      <c r="CP34" s="31"/>
+      <c r="CQ34" s="17"/>
       <c r="CR34" s="17"/>
       <c r="CS34" s="17"/>
       <c r="CT34" s="17"/>
@@ -6405,22 +6382,22 @@
       <c r="DI34" s="17"/>
       <c r="DJ34" s="17"/>
       <c r="DK34" s="17"/>
-      <c r="DL34" s="17"/>
+      <c r="DM34" s="17"/>
       <c r="DN34" s="17"/>
-      <c r="DO34" s="17"/>
-      <c r="DY34" s="13"/>
-    </row>
-    <row r="35" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G35" s="13"/>
-      <c r="M35" s="19"/>
+      <c r="DX34" s="13"/>
+    </row>
+    <row r="35" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F35" s="13"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="32"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="32"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17"/>
       <c r="AF35" s="17"/>
@@ -6469,14 +6446,14 @@
       <c r="BW35" s="17"/>
       <c r="BX35" s="17"/>
       <c r="BY35" s="17"/>
-      <c r="BZ35" s="17"/>
-      <c r="CA35" s="32"/>
+      <c r="BZ35" s="31"/>
+      <c r="CA35" s="17"/>
       <c r="CB35" s="17"/>
       <c r="CC35" s="17"/>
       <c r="CD35" s="17"/>
-      <c r="CE35" s="17"/>
-      <c r="CF35" s="32"/>
-      <c r="CG35" s="32"/>
+      <c r="CE35" s="31"/>
+      <c r="CF35" s="31"/>
+      <c r="CG35" s="17"/>
       <c r="CH35" s="17"/>
       <c r="CI35" s="17"/>
       <c r="CJ35" s="17"/>
@@ -6485,8 +6462,8 @@
       <c r="CM35" s="17"/>
       <c r="CN35" s="17"/>
       <c r="CO35" s="17"/>
-      <c r="CP35" s="17"/>
-      <c r="CQ35" s="32"/>
+      <c r="CP35" s="31"/>
+      <c r="CQ35" s="17"/>
       <c r="CR35" s="17"/>
       <c r="CS35" s="17"/>
       <c r="CT35" s="17"/>
@@ -6507,74 +6484,73 @@
       <c r="DI35" s="17"/>
       <c r="DJ35" s="17"/>
       <c r="DK35" s="17"/>
-      <c r="DL35" s="17"/>
+      <c r="DM35" s="17"/>
       <c r="DN35" s="17"/>
-      <c r="DO35" s="17"/>
-      <c r="DY35" s="13"/>
-    </row>
-    <row r="36" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G36" s="13"/>
-      <c r="M36" s="19"/>
+      <c r="DX35" s="13"/>
+    </row>
+    <row r="36" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F36" s="13"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="Y36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="CA36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="BZ36" s="19"/>
+      <c r="CE36" s="19"/>
       <c r="CF36" s="19"/>
-      <c r="CG36" s="19"/>
-      <c r="CQ36" s="19"/>
-      <c r="DY36" s="13"/>
-    </row>
-    <row r="37" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G37" s="13"/>
-      <c r="M37" s="19"/>
+      <c r="CP36" s="19"/>
+      <c r="DX36" s="13"/>
+    </row>
+    <row r="37" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F37" s="13"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="17"/>
       <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="Y37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="CA37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="BZ37" s="19"/>
+      <c r="CE37" s="19"/>
       <c r="CF37" s="19"/>
-      <c r="CG37" s="19"/>
-      <c r="CQ37" s="19"/>
-      <c r="DY37" s="13"/>
-    </row>
-    <row r="38" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G38" s="13"/>
-      <c r="M38" s="19"/>
+      <c r="CP37" s="19"/>
+      <c r="DX37" s="13"/>
+    </row>
+    <row r="38" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F38" s="13"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="Y38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="CA38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="BZ38" s="19"/>
+      <c r="CE38" s="19"/>
       <c r="CF38" s="19"/>
-      <c r="CG38" s="19"/>
-      <c r="CQ38" s="19"/>
-      <c r="DY38" s="13"/>
-    </row>
-    <row r="39" spans="7:129" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="G39" s="13"/>
-      <c r="M39" s="19"/>
+      <c r="CP38" s="19"/>
+      <c r="DX38" s="13"/>
+    </row>
+    <row r="39" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="F39" s="13"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="Y39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="CA39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="BZ39" s="19"/>
+      <c r="CE39" s="19"/>
       <c r="CF39" s="19"/>
-      <c r="CG39" s="19"/>
-      <c r="CQ39" s="19"/>
-      <c r="DY39" s="13"/>
-    </row>
-    <row r="40" spans="7:129" s="18" customFormat="1">
-      <c r="M40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="CA40" s="19"/>
+      <c r="CP39" s="19"/>
+      <c r="DX39" s="13"/>
+    </row>
+    <row r="40" spans="6:128" s="18" customFormat="1">
+      <c r="L40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="BZ40" s="19"/>
+      <c r="CE40" s="19"/>
       <c r="CF40" s="19"/>
-      <c r="CG40" s="19"/>
-      <c r="CQ40" s="19"/>
-    </row>
-    <row r="41" spans="7:129" s="18" customFormat="1"/>
-    <row r="42" spans="7:129" s="18" customFormat="1" ht="12" customHeight="1"/>
+      <c r="CP40" s="19"/>
+    </row>
+    <row r="41" spans="6:128" s="18" customFormat="1"/>
+    <row r="42" spans="6:128" s="18" customFormat="1" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6608,7 +6584,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1">
@@ -6832,8 +6808,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -6847,10 +6823,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -6864,10 +6840,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6881,10 +6857,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6898,10 +6874,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6915,10 +6891,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6932,10 +6908,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6949,10 +6925,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6966,10 +6942,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6983,10 +6959,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7000,10 +6976,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7017,10 +6993,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7034,10 +7010,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7051,10 +7027,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7068,10 +7044,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7085,10 +7061,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7102,10 +7078,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7119,10 +7095,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -7136,10 +7112,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7153,10 +7129,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7170,10 +7146,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -7187,10 +7163,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -7204,10 +7180,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7221,10 +7197,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -7434,10 +7410,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="55"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7449,8 +7425,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -7464,10 +7440,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -7481,10 +7457,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -7498,10 +7474,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -7515,10 +7491,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="55"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -7532,10 +7508,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="55"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -7549,10 +7525,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="55"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -7566,10 +7542,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="55"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -7613,10 +7589,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="55"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7628,8 +7604,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7643,10 +7619,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="55"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -7660,10 +7636,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="55"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -7677,10 +7653,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="55"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7694,10 +7670,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="55"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7711,10 +7687,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="55"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -7728,10 +7704,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="55"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7745,10 +7721,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="55"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7762,10 +7738,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="55"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7779,10 +7755,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="55"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7796,10 +7772,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="55"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -7813,10 +7789,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="55"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -7830,10 +7806,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="55"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -7847,10 +7823,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="55"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -7864,10 +7840,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="55"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -7881,10 +7857,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="55"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -7898,10 +7874,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="55"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -7915,10 +7891,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="55"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -7932,10 +7908,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="55"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -7949,10 +7925,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="55"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -7966,10 +7942,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="55"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -7983,10 +7959,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="55"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -8000,10 +7976,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="55"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -8017,10 +7993,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="55"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -8034,10 +8010,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="55"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8051,10 +8027,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="55"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -8068,10 +8044,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="55"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -8085,10 +8061,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="55"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8102,10 +8078,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="55"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -8693,6 +8669,61 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -8701,61 +8732,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/wastewater_biosample_template.xlsx
+++ b/assets/sample_metadata/wastewater_biosample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\02.scratch\ppox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5FFE3D-2B25-4572-AD19-A50E69AECC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8A571-DFC0-4667-AA15-E97820499912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3850" yWindow="3740" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21840" yWindow="6410" windowWidth="20790" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NWSS_Metadata" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{8F70F8D4-E69E-E443-A064-CCD1D1F4D4DE}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{8F70F8D4-E69E-E443-A064-CCD1D1F4D4DE}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{0F75BE03-DF0E-4741-8874-ED5081447508}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{0F75BE03-DF0E-4741-8874-ED5081447508}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{F7D64A2F-AE23-3E4B-9DF1-7116DE690F46}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{F7D64A2F-AE23-3E4B-9DF1-7116DE690F46}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{EF678A32-511C-D84E-ADF1-2E591656AF2C}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{EF678A32-511C-D84E-ADF1-2E591656AF2C}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{E5296A58-8444-F34B-906D-F2410A90B907}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{E5296A58-8444-F34B-906D-F2410A90B907}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{11624994-9978-024B-8681-F5E652E28630}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{11624994-9978-024B-8681-F5E652E28630}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{3ECE29DA-97FE-C84B-BB36-D871DD08820C}">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{3ECE29DA-97FE-C84B-BB36-D871DD08820C}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{4FAF7BA6-C4A7-1642-AE08-015E8E6583D8}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{4FAF7BA6-C4A7-1642-AE08-015E8E6583D8}">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{1073CB93-8A8E-2B44-8B4B-C923C358AAAA}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{1073CB93-8A8E-2B44-8B4B-C923C358AAAA}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{E77A5E63-5D6E-EB43-9539-B1B7545F9B36}">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{E77A5E63-5D6E-EB43-9539-B1B7545F9B36}">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{4F705598-626F-4A43-B41B-781B64E4B37D}">
+    <comment ref="AG2" authorId="0" shapeId="0" xr:uid="{4F705598-626F-4A43-B41B-781B64E4B37D}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{876137D5-E4AE-BB48-8BF0-9E4982BD6E75}">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{876137D5-E4AE-BB48-8BF0-9E4982BD6E75}">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{98495637-0659-4F49-B346-76CD7202890A}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{98495637-0659-4F49-B346-76CD7202890A}">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{BBA2504D-B665-FE43-982A-E205A56DEAE6}">
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{BBA2504D-B665-FE43-982A-E205A56DEAE6}">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="0" shapeId="0" xr:uid="{40CF946F-CED4-434A-94CA-8731CEA5F73B}">
+    <comment ref="AK2" authorId="0" shapeId="0" xr:uid="{40CF946F-CED4-434A-94CA-8731CEA5F73B}">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="0" shapeId="0" xr:uid="{D8A6FB62-ED9C-B742-81A3-071F32F4D325}">
+    <comment ref="AL2" authorId="0" shapeId="0" xr:uid="{D8A6FB62-ED9C-B742-81A3-071F32F4D325}">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{81A6F2FC-E415-0143-8B58-8FA703EEC16D}">
+    <comment ref="AM2" authorId="0" shapeId="0" xr:uid="{81A6F2FC-E415-0143-8B58-8FA703EEC16D}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{EA70DF8F-032A-5249-A3B7-7DE889E93DB5}">
+    <comment ref="AN2" authorId="0" shapeId="0" xr:uid="{EA70DF8F-032A-5249-A3B7-7DE889E93DB5}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{E4BF336C-54C7-FA4D-804F-DFA6007E2B05}">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{E4BF336C-54C7-FA4D-804F-DFA6007E2B05}">
       <text>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY2" authorId="1" shapeId="0" xr:uid="{50185EF4-35DE-0D4E-871D-6F28165049C6}">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{50185EF4-35DE-0D4E-871D-6F28165049C6}">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="1" shapeId="0" xr:uid="{389EB998-EFE6-384C-B3D2-0F67F5A0FED6}">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{389EB998-EFE6-384C-B3D2-0F67F5A0FED6}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA2" authorId="0" shapeId="0" xr:uid="{9D422331-E3ED-B74E-B175-7849BD5D9534}">
+    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{9D422331-E3ED-B74E-B175-7849BD5D9534}">
       <text>
         <r>
           <rPr>
@@ -337,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{DA45AB15-707A-B043-8837-3B38E8FED35A}">
+    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{DA45AB15-707A-B043-8837-3B38E8FED35A}">
       <text>
         <r>
           <rPr>
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF2" authorId="0" shapeId="0" xr:uid="{8EFA9AFE-1B01-2B42-BDC7-EE9760FCC9A7}">
+    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{8EFA9AFE-1B01-2B42-BDC7-EE9760FCC9A7}">
       <text>
         <r>
           <rPr>
@@ -363,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{9D2AB255-F6C2-1A46-A302-398D5BE9097E}">
+    <comment ref="AX2" authorId="0" shapeId="0" xr:uid="{9D2AB255-F6C2-1A46-A302-398D5BE9097E}">
       <text>
         <r>
           <rPr>
@@ -376,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="0" shapeId="0" xr:uid="{45534E51-B629-DD41-BC34-81F730250065}">
+    <comment ref="AY2" authorId="0" shapeId="0" xr:uid="{45534E51-B629-DD41-BC34-81F730250065}">
       <text>
         <r>
           <rPr>
@@ -389,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI2" authorId="0" shapeId="0" xr:uid="{989EBFB0-26E3-FA47-853D-0C19815BB82A}">
+    <comment ref="AZ2" authorId="0" shapeId="0" xr:uid="{989EBFB0-26E3-FA47-853D-0C19815BB82A}">
       <text>
         <r>
           <rPr>
@@ -402,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ2" authorId="0" shapeId="0" xr:uid="{7B36CB72-1083-374F-9843-50C698AF6907}">
+    <comment ref="BA2" authorId="0" shapeId="0" xr:uid="{7B36CB72-1083-374F-9843-50C698AF6907}">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK2" authorId="0" shapeId="0" xr:uid="{EFD019AE-AA3C-8A4C-9384-7A2441ABC0A1}">
+    <comment ref="BB2" authorId="0" shapeId="0" xr:uid="{EFD019AE-AA3C-8A4C-9384-7A2441ABC0A1}">
       <text>
         <r>
           <rPr>
@@ -428,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL2" authorId="0" shapeId="0" xr:uid="{D69AF32C-73F0-314F-893A-E3B5335BAAA5}">
+    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{D69AF32C-73F0-314F-893A-E3B5335BAAA5}">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM2" authorId="0" shapeId="0" xr:uid="{4B21AE6C-1406-9A4A-9449-BA32FF5B43DC}">
+    <comment ref="BD2" authorId="0" shapeId="0" xr:uid="{4B21AE6C-1406-9A4A-9449-BA32FF5B43DC}">
       <text>
         <r>
           <rPr>
@@ -454,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN2" authorId="0" shapeId="0" xr:uid="{87C2975E-08E9-B64B-8AFD-53378ACD0D81}">
+    <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{87C2975E-08E9-B64B-8AFD-53378ACD0D81}">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO2" authorId="0" shapeId="0" xr:uid="{9AB63383-8D08-C748-9C99-27A3E3D0CA23}">
+    <comment ref="BF2" authorId="0" shapeId="0" xr:uid="{9AB63383-8D08-C748-9C99-27A3E3D0CA23}">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="0" shapeId="0" xr:uid="{86769650-6F5E-794F-A2B2-3C3D9A723FB0}">
+    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{86769650-6F5E-794F-A2B2-3C3D9A723FB0}">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ2" authorId="0" shapeId="0" xr:uid="{74070E91-E538-5F4E-B8CC-0A233A8CD60E}">
+    <comment ref="BH2" authorId="0" shapeId="0" xr:uid="{74070E91-E538-5F4E-B8CC-0A233A8CD60E}">
       <text>
         <r>
           <rPr>
@@ -506,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR2" authorId="0" shapeId="0" xr:uid="{50A15D4E-15A3-0C4C-8EAC-4B693A103575}">
+    <comment ref="BI2" authorId="0" shapeId="0" xr:uid="{50A15D4E-15A3-0C4C-8EAC-4B693A103575}">
       <text>
         <r>
           <rPr>
@@ -519,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX2" authorId="0" shapeId="0" xr:uid="{9279467B-8BCE-9F4F-A5FA-A6765A412B4D}">
+    <comment ref="BO2" authorId="0" shapeId="0" xr:uid="{9279467B-8BCE-9F4F-A5FA-A6765A412B4D}">
       <text>
         <r>
           <rPr>
@@ -532,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY2" authorId="0" shapeId="0" xr:uid="{05C5002D-9637-3549-98C0-02197A5CA289}">
+    <comment ref="BP2" authorId="0" shapeId="0" xr:uid="{05C5002D-9637-3549-98C0-02197A5CA289}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="405">
   <si>
     <t>Strategy</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>Assembly-Data</t>
   </si>
   <si>
-    <t>sample_type</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -1428,9 +1425,6 @@
     <t>Sample info</t>
   </si>
   <si>
-    <t>SRA - all</t>
-  </si>
-  <si>
     <t>SRA - Illumina info</t>
   </si>
   <si>
@@ -1440,9 +1434,6 @@
     <t>collected_by</t>
   </si>
   <si>
-    <t>lat_lon</t>
-  </si>
-  <si>
     <t>illumina_library_strategy</t>
   </si>
   <si>
@@ -1455,27 +1446,12 @@
     <t>nanopore_library_protocol</t>
   </si>
   <si>
-    <t>2022-06</t>
-  </si>
-  <si>
-    <t>isolate</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>organism</t>
   </si>
   <si>
     <t>collection_date</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>ncbi-spuid</t>
   </si>
   <si>
@@ -1647,81 +1623,30 @@
     <t>sequenced_by</t>
   </si>
   <si>
-    <t>Targeted Amplification sequencing of wastewater sample</t>
-  </si>
-  <si>
     <t>nanopore_library_name</t>
   </si>
   <si>
     <t>wastewater metagenome</t>
   </si>
   <si>
-    <t>Wastewater</t>
-  </si>
-  <si>
-    <t>post grit removal</t>
-  </si>
-  <si>
     <t>composite</t>
   </si>
   <si>
-    <t>Pasteurized; virus captured with Ceres NanoTrap particles; nucleic acid extracted with MagMAX DNA/RNA binding beads</t>
-  </si>
-  <si>
     <t>ceres nanotrap</t>
   </si>
   <si>
-    <t>thermo magmax microbiome ultra nucleic acid isolation kit</t>
-  </si>
-  <si>
-    <t>BRSV</t>
-  </si>
-  <si>
     <t>SARS-CoV-2</t>
   </si>
   <si>
-    <t>RT-qPCR Detection of SARS-CoV-2 from Wastewater Using the AB 7500 (protocols.io)</t>
-  </si>
-  <si>
-    <t>cycles (Ct value)</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>host_disease</t>
-  </si>
-  <si>
-    <t>host_sex</t>
-  </si>
-  <si>
-    <t>host_age</t>
-  </si>
-  <si>
     <t>fasta_path</t>
   </si>
   <si>
     <t>gff_path</t>
   </si>
   <si>
-    <t>PRJNA849962</t>
-  </si>
-  <si>
-    <t>Crystal M. Gigante; Isaac Ghinai; Matthew H. Seabolt; Hui Zhao; Kimberly Wilkins; Andrea McCollum; Christina Hutson; Whitni Davidson; Agam Rao; Janna Kerins; Yu Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ivar 0.1; samtools 1.7; bwa 0.7.17;  SPAdes 3.13.0; CLC 23</t>
-  </si>
-  <si>
-    <t>assets/sample_fastas/mpox/IL0005.fasta</t>
-  </si>
-  <si>
-    <t>MPXV_IL0005</t>
-  </si>
-  <si>
     <t>assets/sample_fastqs/mpox/LIY15306A2_2022_054_3005007722.R_1.mpx.fastq.gz</t>
   </si>
   <si>
@@ -1758,55 +1683,88 @@
     <t>*ww_surv_target_1_known_present</t>
   </si>
   <si>
-    <t>Leave Blank, needed for validation</t>
-  </si>
-  <si>
-    <t>GenomeTrakr</t>
-  </si>
-  <si>
-    <t>Biobot Analytics</t>
-  </si>
-  <si>
     <t>public health surveillance community-level</t>
   </si>
   <si>
     <t>wastewater treatment plant</t>
   </si>
   <si>
-    <t>nj</t>
-  </si>
-  <si>
-    <t>6493.P</t>
-  </si>
-  <si>
-    <t>Ginkgo Bioworks clinical laboratory</t>
-  </si>
-  <si>
-    <t>This submission is part of a test for NWSS submission</t>
-  </si>
-  <si>
-    <t>Case info (leave blank!)</t>
-  </si>
-  <si>
     <t>Assembly info (only include if aligned to reference)</t>
   </si>
   <si>
     <t>https://submit.ncbi.nlm.nih.gov/biosample/template/?organism-organism_name=&amp;organism-taxonomy_id=&amp;package-0=SARS-CoV-2.wwsurv.1.0&amp;action=definition</t>
   </si>
   <si>
-    <t>NWSS-testing1</t>
-  </si>
-  <si>
-    <t>NWSS-testing2</t>
-  </si>
-  <si>
-    <t>nwss_sample_id1</t>
-  </si>
-  <si>
-    <t>nwss_sample_id2</t>
-  </si>
-  <si>
-    <t>Not Provided</t>
+    <t>PRJNA889839</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>population of jurisdiction encompassing the wastewater service area</t>
+  </si>
+  <si>
+    <t>raw wastewater</t>
+  </si>
+  <si>
+    <t>Wisconsin SARS-CoV-2 Wastewater Monitoring Network</t>
+  </si>
+  <si>
+    <t>wastewater</t>
+  </si>
+  <si>
+    <t>&lt;100000</t>
+  </si>
+  <si>
+    <t>Internal control spiked in samples at receipt. Samples were concentrated using Nanotrap Microbiome A beads combined with the enhancement reagent 2 (Ceres) on KingFisher Apex and extracted using Maxwell HT viral TNA kit (Promega) on KingFisher Flex.</t>
+  </si>
+  <si>
+    <t>promega ht tna kit</t>
+  </si>
+  <si>
+    <t>bovine coronavirus</t>
+  </si>
+  <si>
+    <t>pepper mild mottle virus</t>
+  </si>
+  <si>
+    <t>IDT PMMoV primer-probe set described in PMID 24056678 measured using dPCR QIAcuity instrument 96W plates (Qiagen).</t>
+  </si>
+  <si>
+    <t>copies/L</t>
+  </si>
+  <si>
+    <t>IDT SARS-CoV-2 Wastewater Surveillance CDC Assay For QIAcuity dPCR 24W (Qiagen)</t>
+  </si>
+  <si>
+    <t>N gene (N1)</t>
+  </si>
+  <si>
+    <t>N gene (N2)</t>
+  </si>
+  <si>
+    <t>Identification of the diversity of mutations across the SARS-CoV-2 metagenome</t>
+  </si>
+  <si>
+    <t>Wisconsin State Laboratory of Hygiene</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>WSLH-806667001</t>
+  </si>
+  <si>
+    <t>ncbi-spuid-sra</t>
+  </si>
+  <si>
+    <t>807536001-S1S1</t>
+  </si>
+  <si>
+    <t>807536001-S1S1-R</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1915,19 +1873,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1948,7 +1907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2031,17 +1990,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2054,7 +2002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2112,26 +2060,20 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2141,62 +2083,54 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2508,462 +2442,432 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EF42"/>
+  <dimension ref="A1:DV41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.1796875" customWidth="1"/>
     <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" customWidth="1"/>
-    <col min="15" max="15" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" customWidth="1"/>
-    <col min="19" max="20" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="115" width="13.453125" customWidth="1"/>
-    <col min="116" max="116" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="118" max="123" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="13.453125" customWidth="1"/>
-    <col min="126" max="133" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="13.453125" customWidth="1"/>
-    <col min="135" max="135" width="13.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="8.81640625" style="19"/>
+    <col min="14" max="14" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="105" width="13.453125" customWidth="1"/>
+    <col min="106" max="106" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="108" max="113" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="13.453125" customWidth="1"/>
+    <col min="116" max="123" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="13.453125" customWidth="1"/>
+    <col min="125" max="125" width="13.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" s="27" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:118" s="25" customFormat="1" ht="17" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="M1" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="S1" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="BQ1" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="31"/>
+      <c r="BU1" s="31"/>
+      <c r="BV1" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="CF1" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="L1" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="M1" s="32"/>
-      <c r="X1" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB1" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="BZ1" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="CB1" s="33"/>
-      <c r="CC1" s="33"/>
-      <c r="CD1" s="33"/>
-      <c r="CE1" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="CF1" s="26" t="s">
+      <c r="D2" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="U2" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="CP1" s="26" t="s">
+      <c r="V2" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB2" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG2" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH2" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK2" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL2" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM2" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN2" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO2" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP2" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ2" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="AR2" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="AS2" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AT2" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU2" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV2" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW2" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX2" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY2" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ2" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="BA2" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="BB2" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC2" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="BD2" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="BE2" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF2" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG2" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH2" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="BI2" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="BJ2" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="BK2" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="BL2" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="BM2" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN2" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="BO2" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="BP2" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="BQ2" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="BR2" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT2" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="BU2" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="BV2" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="BW2" s="32" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="BX2" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="BY2" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="BZ2" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="CA2" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="CB2" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="O2" s="23" t="s">
+      <c r="CC2" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="P2" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="V2" s="23" t="s">
+      <c r="CD2" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="CE2" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="CF2" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="CG2" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="W2" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="X2" s="49" t="s">
+      <c r="CH2" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="CI2" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ2" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK2" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="CL2" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="CM2" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="CN2" s="43"/>
+    </row>
+    <row r="3" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="E3" s="45"/>
+      <c r="M3" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="O3" s="51">
+        <v>45886</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="R3" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="Z2" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB2" s="51" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC2" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD2" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE2" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF2" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH2" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI2" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ2" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK2" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL2" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="AM2" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="AN2" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="AO2" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="AP2" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ2" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR2" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="AS2" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT2" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="AU2" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV2" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="AW2" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX2" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="AY2" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="AZ2" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA2" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="BB2" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="BC2" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="BD2" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="BE2" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="BF2" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="BG2" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="BH2" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="BI2" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="BJ2" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="BK2" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="BL2" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="BM2" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="BN2" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="BO2" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="BP2" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="BQ2" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="BR2" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="BS2" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="BT2" s="41" t="s">
+      <c r="S3" s="48"/>
+      <c r="T3" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="X3" s="20">
+        <v>1741289.4280000001</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD3" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="BU2" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="BV2" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="BW2" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="BX2" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY2" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="BZ2" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="CA2" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="CB2" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="CC2" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="CD2" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="CE2" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="CF2" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="CG2" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="CH2" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="CI2" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="CJ2" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="CK2" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="CL2" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="CM2" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="CN2" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="CO2" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="CP2" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="CQ2" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="CR2" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="CS2" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="CT2" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="CU2" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="CV2" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="CW2" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="CX2" s="46"/>
-    </row>
-    <row r="3" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="X3" s="24"/>
-      <c r="AB3" s="52">
-        <v>8675</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF3" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG3" s="20">
-        <v>110000000</v>
-      </c>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20">
-        <v>40000</v>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="20">
+        <v>7.7</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="AJ3" s="20" t="s">
-        <v>407</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AL3" s="20" t="s">
-        <v>369</v>
+      <c r="AL3" s="20">
+        <v>806667001</v>
       </c>
       <c r="AM3" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="AN3" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO3" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="AP3" s="20" t="s">
         <v>1</v>
@@ -2972,371 +2876,221 @@
         <v>1</v>
       </c>
       <c r="AR3" s="20" t="s">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="AS3" s="20" t="s">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="AT3" s="20" t="s">
-        <v>1</v>
+        <v>390</v>
       </c>
       <c r="AU3" s="20" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="AV3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="20" t="s">
-        <v>1</v>
+        <v>392</v>
+      </c>
+      <c r="AW3" s="20">
+        <v>105440000</v>
       </c>
       <c r="AX3" s="20" t="s">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="AY3" s="20" t="s">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="AZ3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="BA3" s="20" t="s">
-        <v>371</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="20" t="s">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="20" t="s">
-        <v>373</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
+        <v>361</v>
+      </c>
+      <c r="BE3" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="BF3" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="BG3" s="21">
+        <v>154560</v>
+      </c>
+      <c r="BH3" s="21" t="s">
+        <v>394</v>
+      </c>
       <c r="BI3" s="20" t="s">
-        <v>1</v>
+        <v>396</v>
       </c>
       <c r="BJ3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="20" t="s">
-        <v>1</v>
+        <v>361</v>
+      </c>
+      <c r="BK3" s="20">
+        <v>154560</v>
       </c>
       <c r="BL3" s="20" t="s">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="BM3" s="20" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="BN3" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="BO3" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="BP3" s="21">
-        <v>35</v>
-      </c>
-      <c r="BQ3" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="BR3" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="BS3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="20" t="s">
-        <v>409</v>
+        <v>362</v>
+      </c>
+      <c r="BO3" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="BP3" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="BS3" s="22"/>
+      <c r="BT3" s="22"/>
+      <c r="BU3" s="22"/>
+      <c r="BV3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY3" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="BZ3" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="CB3" s="22">
-        <v>40</v>
-      </c>
-      <c r="CC3" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="CD3" s="22"/>
-      <c r="CE3" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CF3" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="CG3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="CH3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="CI3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ3" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="CL3" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="CM3" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="CN3" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="CO3" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="CP3" s="24"/>
-    </row>
-    <row r="4" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="CB3" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="CC3" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="CD3" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="X4" s="24"/>
-      <c r="AB4" s="52">
-        <v>8675</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF4" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG4" s="20">
-        <v>110000000</v>
-      </c>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20">
-        <v>40000</v>
-      </c>
-      <c r="AJ4" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="AK4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM4" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20">
-        <v>24</v>
-      </c>
-      <c r="AP4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="AV4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="BB4" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="BC4" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="BD4" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="BN4" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="BO4" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="BP4" s="21">
-        <v>35</v>
-      </c>
-      <c r="BQ4" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="BR4" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="BS4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="BZ4" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="CB4" s="22">
-        <v>40</v>
-      </c>
-      <c r="CC4" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="CD4" s="22"/>
-      <c r="CE4" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CF4" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="CG4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="CH4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="CI4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ4" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="CL4" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="CM4" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="CN4" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="CO4" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="CP4" s="24"/>
-    </row>
-    <row r="5" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F5" s="13"/>
-      <c r="L5" s="19"/>
+      <c r="CE3" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="CF3" s="23"/>
+    </row>
+    <row r="4" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C4" s="29"/>
+      <c r="G4" s="13"/>
+      <c r="M4" s="17"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="29"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="29"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+      <c r="CA4" s="17"/>
+      <c r="CB4" s="17"/>
+      <c r="CC4" s="17"/>
+      <c r="CD4" s="17"/>
+      <c r="CE4" s="17"/>
+      <c r="CF4" s="29"/>
+      <c r="CG4" s="17"/>
+      <c r="CH4" s="17"/>
+      <c r="CI4" s="17"/>
+      <c r="CJ4" s="17"/>
+      <c r="CK4" s="17"/>
+      <c r="CL4" s="17"/>
+      <c r="CM4" s="17"/>
+      <c r="CN4" s="17"/>
+      <c r="CO4" s="17"/>
+      <c r="CP4" s="17"/>
+      <c r="CQ4" s="17"/>
+      <c r="CR4" s="17"/>
+      <c r="CS4" s="17"/>
+      <c r="CT4" s="17"/>
+      <c r="CU4" s="17"/>
+      <c r="CV4" s="17"/>
+      <c r="CW4" s="17"/>
+      <c r="CX4" s="17"/>
+      <c r="CY4" s="17"/>
+      <c r="CZ4" s="17"/>
+      <c r="DA4" s="17"/>
+      <c r="DC4" s="17"/>
+      <c r="DD4" s="17"/>
+      <c r="DN4" s="13"/>
+    </row>
+    <row r="5" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C5" s="29"/>
+      <c r="G5" s="13"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="17"/>
-      <c r="X5" s="31"/>
+      <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
-      <c r="AB5" s="31"/>
+      <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="17"/>
       <c r="AE5" s="17"/>
@@ -3377,22 +3131,22 @@
       <c r="BN5" s="17"/>
       <c r="BO5" s="17"/>
       <c r="BP5" s="17"/>
-      <c r="BQ5" s="17"/>
+      <c r="BQ5" s="29"/>
       <c r="BR5" s="17"/>
       <c r="BS5" s="17"/>
       <c r="BT5" s="17"/>
       <c r="BU5" s="17"/>
-      <c r="BV5" s="17"/>
+      <c r="BV5" s="29"/>
       <c r="BW5" s="17"/>
       <c r="BX5" s="17"/>
       <c r="BY5" s="17"/>
-      <c r="BZ5" s="31"/>
+      <c r="BZ5" s="17"/>
       <c r="CA5" s="17"/>
       <c r="CB5" s="17"/>
       <c r="CC5" s="17"/>
       <c r="CD5" s="17"/>
-      <c r="CE5" s="31"/>
-      <c r="CF5" s="31"/>
+      <c r="CE5" s="17"/>
+      <c r="CF5" s="29"/>
       <c r="CG5" s="17"/>
       <c r="CH5" s="17"/>
       <c r="CI5" s="17"/>
@@ -3402,7 +3156,7 @@
       <c r="CM5" s="17"/>
       <c r="CN5" s="17"/>
       <c r="CO5" s="17"/>
-      <c r="CP5" s="31"/>
+      <c r="CP5" s="17"/>
       <c r="CQ5" s="17"/>
       <c r="CR5" s="17"/>
       <c r="CS5" s="17"/>
@@ -3414,31 +3168,24 @@
       <c r="CY5" s="17"/>
       <c r="CZ5" s="17"/>
       <c r="DA5" s="17"/>
-      <c r="DB5" s="17"/>
       <c r="DC5" s="17"/>
       <c r="DD5" s="17"/>
-      <c r="DE5" s="17"/>
-      <c r="DF5" s="17"/>
-      <c r="DG5" s="17"/>
-      <c r="DH5" s="17"/>
-      <c r="DI5" s="17"/>
-      <c r="DJ5" s="17"/>
-      <c r="DK5" s="17"/>
-      <c r="DM5" s="17"/>
-      <c r="DN5" s="17"/>
-      <c r="DX5" s="13"/>
-    </row>
-    <row r="6" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F6" s="13"/>
-      <c r="L6" s="19"/>
+      <c r="DN5" s="13"/>
+    </row>
+    <row r="6" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C6" s="29"/>
+      <c r="G6" s="13"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
       <c r="W6" s="17"/>
-      <c r="X6" s="31"/>
+      <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
-      <c r="AB6" s="31"/>
+      <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
@@ -3479,22 +3226,22 @@
       <c r="BN6" s="17"/>
       <c r="BO6" s="17"/>
       <c r="BP6" s="17"/>
-      <c r="BQ6" s="17"/>
+      <c r="BQ6" s="29"/>
       <c r="BR6" s="17"/>
       <c r="BS6" s="17"/>
       <c r="BT6" s="17"/>
       <c r="BU6" s="17"/>
-      <c r="BV6" s="17"/>
+      <c r="BV6" s="29"/>
       <c r="BW6" s="17"/>
       <c r="BX6" s="17"/>
       <c r="BY6" s="17"/>
-      <c r="BZ6" s="31"/>
+      <c r="BZ6" s="17"/>
       <c r="CA6" s="17"/>
       <c r="CB6" s="17"/>
       <c r="CC6" s="17"/>
       <c r="CD6" s="17"/>
-      <c r="CE6" s="31"/>
-      <c r="CF6" s="31"/>
+      <c r="CE6" s="17"/>
+      <c r="CF6" s="29"/>
       <c r="CG6" s="17"/>
       <c r="CH6" s="17"/>
       <c r="CI6" s="17"/>
@@ -3504,7 +3251,7 @@
       <c r="CM6" s="17"/>
       <c r="CN6" s="17"/>
       <c r="CO6" s="17"/>
-      <c r="CP6" s="31"/>
+      <c r="CP6" s="17"/>
       <c r="CQ6" s="17"/>
       <c r="CR6" s="17"/>
       <c r="CS6" s="17"/>
@@ -3516,31 +3263,24 @@
       <c r="CY6" s="17"/>
       <c r="CZ6" s="17"/>
       <c r="DA6" s="17"/>
-      <c r="DB6" s="17"/>
       <c r="DC6" s="17"/>
       <c r="DD6" s="17"/>
-      <c r="DE6" s="17"/>
-      <c r="DF6" s="17"/>
-      <c r="DG6" s="17"/>
-      <c r="DH6" s="17"/>
-      <c r="DI6" s="17"/>
-      <c r="DJ6" s="17"/>
-      <c r="DK6" s="17"/>
-      <c r="DM6" s="17"/>
-      <c r="DN6" s="17"/>
-      <c r="DX6" s="13"/>
-    </row>
-    <row r="7" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F7" s="13"/>
-      <c r="L7" s="19"/>
+      <c r="DN6" s="13"/>
+    </row>
+    <row r="7" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C7" s="29"/>
+      <c r="G7" s="13"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
       <c r="W7" s="17"/>
-      <c r="X7" s="31"/>
+      <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
-      <c r="AB7" s="31"/>
+      <c r="AB7" s="17"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
       <c r="AE7" s="17"/>
@@ -3581,22 +3321,22 @@
       <c r="BN7" s="17"/>
       <c r="BO7" s="17"/>
       <c r="BP7" s="17"/>
-      <c r="BQ7" s="17"/>
+      <c r="BQ7" s="29"/>
       <c r="BR7" s="17"/>
       <c r="BS7" s="17"/>
       <c r="BT7" s="17"/>
       <c r="BU7" s="17"/>
-      <c r="BV7" s="17"/>
+      <c r="BV7" s="29"/>
       <c r="BW7" s="17"/>
       <c r="BX7" s="17"/>
       <c r="BY7" s="17"/>
-      <c r="BZ7" s="31"/>
+      <c r="BZ7" s="17"/>
       <c r="CA7" s="17"/>
       <c r="CB7" s="17"/>
       <c r="CC7" s="17"/>
       <c r="CD7" s="17"/>
-      <c r="CE7" s="31"/>
-      <c r="CF7" s="31"/>
+      <c r="CE7" s="17"/>
+      <c r="CF7" s="29"/>
       <c r="CG7" s="17"/>
       <c r="CH7" s="17"/>
       <c r="CI7" s="17"/>
@@ -3606,7 +3346,7 @@
       <c r="CM7" s="17"/>
       <c r="CN7" s="17"/>
       <c r="CO7" s="17"/>
-      <c r="CP7" s="31"/>
+      <c r="CP7" s="17"/>
       <c r="CQ7" s="17"/>
       <c r="CR7" s="17"/>
       <c r="CS7" s="17"/>
@@ -3618,31 +3358,24 @@
       <c r="CY7" s="17"/>
       <c r="CZ7" s="17"/>
       <c r="DA7" s="17"/>
-      <c r="DB7" s="17"/>
       <c r="DC7" s="17"/>
       <c r="DD7" s="17"/>
-      <c r="DE7" s="17"/>
-      <c r="DF7" s="17"/>
-      <c r="DG7" s="17"/>
-      <c r="DH7" s="17"/>
-      <c r="DI7" s="17"/>
-      <c r="DJ7" s="17"/>
-      <c r="DK7" s="17"/>
-      <c r="DM7" s="17"/>
-      <c r="DN7" s="17"/>
-      <c r="DX7" s="13"/>
-    </row>
-    <row r="8" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F8" s="13"/>
-      <c r="L8" s="19"/>
+      <c r="DN7" s="13"/>
+    </row>
+    <row r="8" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C8" s="29"/>
+      <c r="G8" s="13"/>
       <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
       <c r="W8" s="17"/>
-      <c r="X8" s="31"/>
+      <c r="X8" s="17"/>
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
-      <c r="AB8" s="31"/>
+      <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
       <c r="AE8" s="17"/>
@@ -3683,22 +3416,22 @@
       <c r="BN8" s="17"/>
       <c r="BO8" s="17"/>
       <c r="BP8" s="17"/>
-      <c r="BQ8" s="17"/>
+      <c r="BQ8" s="29"/>
       <c r="BR8" s="17"/>
       <c r="BS8" s="17"/>
       <c r="BT8" s="17"/>
       <c r="BU8" s="17"/>
-      <c r="BV8" s="17"/>
+      <c r="BV8" s="29"/>
       <c r="BW8" s="17"/>
       <c r="BX8" s="17"/>
       <c r="BY8" s="17"/>
-      <c r="BZ8" s="31"/>
+      <c r="BZ8" s="17"/>
       <c r="CA8" s="17"/>
       <c r="CB8" s="17"/>
       <c r="CC8" s="17"/>
       <c r="CD8" s="17"/>
-      <c r="CE8" s="31"/>
-      <c r="CF8" s="31"/>
+      <c r="CE8" s="17"/>
+      <c r="CF8" s="29"/>
       <c r="CG8" s="17"/>
       <c r="CH8" s="17"/>
       <c r="CI8" s="17"/>
@@ -3708,7 +3441,7 @@
       <c r="CM8" s="17"/>
       <c r="CN8" s="17"/>
       <c r="CO8" s="17"/>
-      <c r="CP8" s="31"/>
+      <c r="CP8" s="17"/>
       <c r="CQ8" s="17"/>
       <c r="CR8" s="17"/>
       <c r="CS8" s="17"/>
@@ -3720,31 +3453,24 @@
       <c r="CY8" s="17"/>
       <c r="CZ8" s="17"/>
       <c r="DA8" s="17"/>
-      <c r="DB8" s="17"/>
       <c r="DC8" s="17"/>
       <c r="DD8" s="17"/>
-      <c r="DE8" s="17"/>
-      <c r="DF8" s="17"/>
-      <c r="DG8" s="17"/>
-      <c r="DH8" s="17"/>
-      <c r="DI8" s="17"/>
-      <c r="DJ8" s="17"/>
-      <c r="DK8" s="17"/>
-      <c r="DM8" s="17"/>
-      <c r="DN8" s="17"/>
-      <c r="DX8" s="13"/>
-    </row>
-    <row r="9" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F9" s="13"/>
-      <c r="L9" s="19"/>
+      <c r="DN8" s="13"/>
+    </row>
+    <row r="9" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C9" s="29"/>
+      <c r="G9" s="13"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
       <c r="W9" s="17"/>
-      <c r="X9" s="31"/>
+      <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
-      <c r="AB9" s="31"/>
+      <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
       <c r="AD9" s="17"/>
       <c r="AE9" s="17"/>
@@ -3785,22 +3511,22 @@
       <c r="BN9" s="17"/>
       <c r="BO9" s="17"/>
       <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
+      <c r="BQ9" s="29"/>
       <c r="BR9" s="17"/>
       <c r="BS9" s="17"/>
       <c r="BT9" s="17"/>
       <c r="BU9" s="17"/>
-      <c r="BV9" s="17"/>
+      <c r="BV9" s="29"/>
       <c r="BW9" s="17"/>
       <c r="BX9" s="17"/>
       <c r="BY9" s="17"/>
-      <c r="BZ9" s="31"/>
+      <c r="BZ9" s="17"/>
       <c r="CA9" s="17"/>
       <c r="CB9" s="17"/>
       <c r="CC9" s="17"/>
       <c r="CD9" s="17"/>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="29"/>
       <c r="CG9" s="17"/>
       <c r="CH9" s="17"/>
       <c r="CI9" s="17"/>
@@ -3810,7 +3536,7 @@
       <c r="CM9" s="17"/>
       <c r="CN9" s="17"/>
       <c r="CO9" s="17"/>
-      <c r="CP9" s="31"/>
+      <c r="CP9" s="17"/>
       <c r="CQ9" s="17"/>
       <c r="CR9" s="17"/>
       <c r="CS9" s="17"/>
@@ -3822,31 +3548,24 @@
       <c r="CY9" s="17"/>
       <c r="CZ9" s="17"/>
       <c r="DA9" s="17"/>
-      <c r="DB9" s="17"/>
       <c r="DC9" s="17"/>
       <c r="DD9" s="17"/>
-      <c r="DE9" s="17"/>
-      <c r="DF9" s="17"/>
-      <c r="DG9" s="17"/>
-      <c r="DH9" s="17"/>
-      <c r="DI9" s="17"/>
-      <c r="DJ9" s="17"/>
-      <c r="DK9" s="17"/>
-      <c r="DM9" s="17"/>
-      <c r="DN9" s="17"/>
-      <c r="DX9" s="13"/>
-    </row>
-    <row r="10" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F10" s="13"/>
-      <c r="L10" s="19"/>
+      <c r="DN9" s="13"/>
+    </row>
+    <row r="10" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C10" s="29"/>
+      <c r="G10" s="13"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
       <c r="W10" s="17"/>
-      <c r="X10" s="31"/>
+      <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
-      <c r="AB10" s="31"/>
+      <c r="AB10" s="17"/>
       <c r="AC10" s="17"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="17"/>
@@ -3887,22 +3606,22 @@
       <c r="BN10" s="17"/>
       <c r="BO10" s="17"/>
       <c r="BP10" s="17"/>
-      <c r="BQ10" s="17"/>
+      <c r="BQ10" s="29"/>
       <c r="BR10" s="17"/>
       <c r="BS10" s="17"/>
       <c r="BT10" s="17"/>
       <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
+      <c r="BV10" s="29"/>
       <c r="BW10" s="17"/>
       <c r="BX10" s="17"/>
       <c r="BY10" s="17"/>
-      <c r="BZ10" s="31"/>
+      <c r="BZ10" s="17"/>
       <c r="CA10" s="17"/>
       <c r="CB10" s="17"/>
       <c r="CC10" s="17"/>
       <c r="CD10" s="17"/>
-      <c r="CE10" s="31"/>
-      <c r="CF10" s="31"/>
+      <c r="CE10" s="17"/>
+      <c r="CF10" s="29"/>
       <c r="CG10" s="17"/>
       <c r="CH10" s="17"/>
       <c r="CI10" s="17"/>
@@ -3912,7 +3631,7 @@
       <c r="CM10" s="17"/>
       <c r="CN10" s="17"/>
       <c r="CO10" s="17"/>
-      <c r="CP10" s="31"/>
+      <c r="CP10" s="17"/>
       <c r="CQ10" s="17"/>
       <c r="CR10" s="17"/>
       <c r="CS10" s="17"/>
@@ -3924,31 +3643,24 @@
       <c r="CY10" s="17"/>
       <c r="CZ10" s="17"/>
       <c r="DA10" s="17"/>
-      <c r="DB10" s="17"/>
       <c r="DC10" s="17"/>
       <c r="DD10" s="17"/>
-      <c r="DE10" s="17"/>
-      <c r="DF10" s="17"/>
-      <c r="DG10" s="17"/>
-      <c r="DH10" s="17"/>
-      <c r="DI10" s="17"/>
-      <c r="DJ10" s="17"/>
-      <c r="DK10" s="17"/>
-      <c r="DM10" s="17"/>
-      <c r="DN10" s="17"/>
-      <c r="DX10" s="13"/>
-    </row>
-    <row r="11" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F11" s="13"/>
-      <c r="L11" s="19"/>
+      <c r="DN10" s="13"/>
+    </row>
+    <row r="11" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C11" s="29"/>
+      <c r="G11" s="13"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
       <c r="W11" s="17"/>
-      <c r="X11" s="31"/>
+      <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
-      <c r="AB11" s="31"/>
+      <c r="AB11" s="17"/>
       <c r="AC11" s="17"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="17"/>
@@ -3989,22 +3701,22 @@
       <c r="BN11" s="17"/>
       <c r="BO11" s="17"/>
       <c r="BP11" s="17"/>
-      <c r="BQ11" s="17"/>
+      <c r="BQ11" s="29"/>
       <c r="BR11" s="17"/>
       <c r="BS11" s="17"/>
       <c r="BT11" s="17"/>
       <c r="BU11" s="17"/>
-      <c r="BV11" s="17"/>
+      <c r="BV11" s="29"/>
       <c r="BW11" s="17"/>
       <c r="BX11" s="17"/>
       <c r="BY11" s="17"/>
-      <c r="BZ11" s="31"/>
+      <c r="BZ11" s="17"/>
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
       <c r="CC11" s="17"/>
       <c r="CD11" s="17"/>
-      <c r="CE11" s="31"/>
-      <c r="CF11" s="31"/>
+      <c r="CE11" s="17"/>
+      <c r="CF11" s="29"/>
       <c r="CG11" s="17"/>
       <c r="CH11" s="17"/>
       <c r="CI11" s="17"/>
@@ -4014,7 +3726,7 @@
       <c r="CM11" s="17"/>
       <c r="CN11" s="17"/>
       <c r="CO11" s="17"/>
-      <c r="CP11" s="31"/>
+      <c r="CP11" s="17"/>
       <c r="CQ11" s="17"/>
       <c r="CR11" s="17"/>
       <c r="CS11" s="17"/>
@@ -4026,31 +3738,24 @@
       <c r="CY11" s="17"/>
       <c r="CZ11" s="17"/>
       <c r="DA11" s="17"/>
-      <c r="DB11" s="17"/>
       <c r="DC11" s="17"/>
       <c r="DD11" s="17"/>
-      <c r="DE11" s="17"/>
-      <c r="DF11" s="17"/>
-      <c r="DG11" s="17"/>
-      <c r="DH11" s="17"/>
-      <c r="DI11" s="17"/>
-      <c r="DJ11" s="17"/>
-      <c r="DK11" s="17"/>
-      <c r="DM11" s="17"/>
-      <c r="DN11" s="17"/>
-      <c r="DX11" s="13"/>
-    </row>
-    <row r="12" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F12" s="13"/>
-      <c r="L12" s="19"/>
+      <c r="DN11" s="13"/>
+    </row>
+    <row r="12" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C12" s="29"/>
+      <c r="G12" s="13"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="17"/>
-      <c r="X12" s="31"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
-      <c r="AB12" s="31"/>
+      <c r="AB12" s="17"/>
       <c r="AC12" s="17"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="17"/>
@@ -4091,22 +3796,22 @@
       <c r="BN12" s="17"/>
       <c r="BO12" s="17"/>
       <c r="BP12" s="17"/>
-      <c r="BQ12" s="17"/>
+      <c r="BQ12" s="29"/>
       <c r="BR12" s="17"/>
       <c r="BS12" s="17"/>
       <c r="BT12" s="17"/>
       <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
+      <c r="BV12" s="29"/>
       <c r="BW12" s="17"/>
       <c r="BX12" s="17"/>
       <c r="BY12" s="17"/>
-      <c r="BZ12" s="31"/>
+      <c r="BZ12" s="17"/>
       <c r="CA12" s="17"/>
       <c r="CB12" s="17"/>
       <c r="CC12" s="17"/>
       <c r="CD12" s="17"/>
-      <c r="CE12" s="31"/>
-      <c r="CF12" s="31"/>
+      <c r="CE12" s="17"/>
+      <c r="CF12" s="29"/>
       <c r="CG12" s="17"/>
       <c r="CH12" s="17"/>
       <c r="CI12" s="17"/>
@@ -4116,7 +3821,7 @@
       <c r="CM12" s="17"/>
       <c r="CN12" s="17"/>
       <c r="CO12" s="17"/>
-      <c r="CP12" s="31"/>
+      <c r="CP12" s="17"/>
       <c r="CQ12" s="17"/>
       <c r="CR12" s="17"/>
       <c r="CS12" s="17"/>
@@ -4128,31 +3833,24 @@
       <c r="CY12" s="17"/>
       <c r="CZ12" s="17"/>
       <c r="DA12" s="17"/>
-      <c r="DB12" s="17"/>
       <c r="DC12" s="17"/>
       <c r="DD12" s="17"/>
-      <c r="DE12" s="17"/>
-      <c r="DF12" s="17"/>
-      <c r="DG12" s="17"/>
-      <c r="DH12" s="17"/>
-      <c r="DI12" s="17"/>
-      <c r="DJ12" s="17"/>
-      <c r="DK12" s="17"/>
-      <c r="DM12" s="17"/>
-      <c r="DN12" s="17"/>
-      <c r="DX12" s="13"/>
-    </row>
-    <row r="13" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F13" s="13"/>
-      <c r="L13" s="19"/>
+      <c r="DN12" s="13"/>
+    </row>
+    <row r="13" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C13" s="29"/>
+      <c r="G13" s="13"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="17"/>
-      <c r="X13" s="31"/>
+      <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
-      <c r="AB13" s="31"/>
+      <c r="AB13" s="17"/>
       <c r="AC13" s="17"/>
       <c r="AD13" s="17"/>
       <c r="AE13" s="17"/>
@@ -4193,22 +3891,22 @@
       <c r="BN13" s="17"/>
       <c r="BO13" s="17"/>
       <c r="BP13" s="17"/>
-      <c r="BQ13" s="17"/>
+      <c r="BQ13" s="29"/>
       <c r="BR13" s="17"/>
       <c r="BS13" s="17"/>
       <c r="BT13" s="17"/>
       <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
+      <c r="BV13" s="29"/>
       <c r="BW13" s="17"/>
       <c r="BX13" s="17"/>
       <c r="BY13" s="17"/>
-      <c r="BZ13" s="31"/>
+      <c r="BZ13" s="17"/>
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
       <c r="CC13" s="17"/>
       <c r="CD13" s="17"/>
-      <c r="CE13" s="31"/>
-      <c r="CF13" s="31"/>
+      <c r="CE13" s="17"/>
+      <c r="CF13" s="29"/>
       <c r="CG13" s="17"/>
       <c r="CH13" s="17"/>
       <c r="CI13" s="17"/>
@@ -4218,7 +3916,7 @@
       <c r="CM13" s="17"/>
       <c r="CN13" s="17"/>
       <c r="CO13" s="17"/>
-      <c r="CP13" s="31"/>
+      <c r="CP13" s="17"/>
       <c r="CQ13" s="17"/>
       <c r="CR13" s="17"/>
       <c r="CS13" s="17"/>
@@ -4230,31 +3928,24 @@
       <c r="CY13" s="17"/>
       <c r="CZ13" s="17"/>
       <c r="DA13" s="17"/>
-      <c r="DB13" s="17"/>
       <c r="DC13" s="17"/>
       <c r="DD13" s="17"/>
-      <c r="DE13" s="17"/>
-      <c r="DF13" s="17"/>
-      <c r="DG13" s="17"/>
-      <c r="DH13" s="17"/>
-      <c r="DI13" s="17"/>
-      <c r="DJ13" s="17"/>
-      <c r="DK13" s="17"/>
-      <c r="DM13" s="17"/>
-      <c r="DN13" s="17"/>
-      <c r="DX13" s="13"/>
-    </row>
-    <row r="14" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F14" s="13"/>
-      <c r="L14" s="19"/>
+      <c r="DN13" s="13"/>
+    </row>
+    <row r="14" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C14" s="29"/>
+      <c r="G14" s="13"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="17"/>
-      <c r="X14" s="31"/>
+      <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
-      <c r="AB14" s="31"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
       <c r="AD14" s="17"/>
       <c r="AE14" s="17"/>
@@ -4295,22 +3986,22 @@
       <c r="BN14" s="17"/>
       <c r="BO14" s="17"/>
       <c r="BP14" s="17"/>
-      <c r="BQ14" s="17"/>
+      <c r="BQ14" s="29"/>
       <c r="BR14" s="17"/>
       <c r="BS14" s="17"/>
       <c r="BT14" s="17"/>
       <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
+      <c r="BV14" s="29"/>
       <c r="BW14" s="17"/>
       <c r="BX14" s="17"/>
       <c r="BY14" s="17"/>
-      <c r="BZ14" s="31"/>
+      <c r="BZ14" s="17"/>
       <c r="CA14" s="17"/>
       <c r="CB14" s="17"/>
       <c r="CC14" s="17"/>
       <c r="CD14" s="17"/>
-      <c r="CE14" s="31"/>
-      <c r="CF14" s="31"/>
+      <c r="CE14" s="17"/>
+      <c r="CF14" s="29"/>
       <c r="CG14" s="17"/>
       <c r="CH14" s="17"/>
       <c r="CI14" s="17"/>
@@ -4320,7 +4011,7 @@
       <c r="CM14" s="17"/>
       <c r="CN14" s="17"/>
       <c r="CO14" s="17"/>
-      <c r="CP14" s="31"/>
+      <c r="CP14" s="17"/>
       <c r="CQ14" s="17"/>
       <c r="CR14" s="17"/>
       <c r="CS14" s="17"/>
@@ -4332,31 +4023,24 @@
       <c r="CY14" s="17"/>
       <c r="CZ14" s="17"/>
       <c r="DA14" s="17"/>
-      <c r="DB14" s="17"/>
       <c r="DC14" s="17"/>
       <c r="DD14" s="17"/>
-      <c r="DE14" s="17"/>
-      <c r="DF14" s="17"/>
-      <c r="DG14" s="17"/>
-      <c r="DH14" s="17"/>
-      <c r="DI14" s="17"/>
-      <c r="DJ14" s="17"/>
-      <c r="DK14" s="17"/>
-      <c r="DM14" s="17"/>
-      <c r="DN14" s="17"/>
-      <c r="DX14" s="13"/>
-    </row>
-    <row r="15" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F15" s="13"/>
-      <c r="L15" s="19"/>
+      <c r="DN14" s="13"/>
+    </row>
+    <row r="15" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C15" s="29"/>
+      <c r="G15" s="13"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="17"/>
-      <c r="X15" s="31"/>
+      <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
-      <c r="AB15" s="31"/>
+      <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17"/>
       <c r="AE15" s="17"/>
@@ -4397,22 +4081,22 @@
       <c r="BN15" s="17"/>
       <c r="BO15" s="17"/>
       <c r="BP15" s="17"/>
-      <c r="BQ15" s="17"/>
+      <c r="BQ15" s="29"/>
       <c r="BR15" s="17"/>
       <c r="BS15" s="17"/>
       <c r="BT15" s="17"/>
       <c r="BU15" s="17"/>
-      <c r="BV15" s="17"/>
+      <c r="BV15" s="29"/>
       <c r="BW15" s="17"/>
       <c r="BX15" s="17"/>
       <c r="BY15" s="17"/>
-      <c r="BZ15" s="31"/>
+      <c r="BZ15" s="17"/>
       <c r="CA15" s="17"/>
       <c r="CB15" s="17"/>
       <c r="CC15" s="17"/>
       <c r="CD15" s="17"/>
-      <c r="CE15" s="31"/>
-      <c r="CF15" s="31"/>
+      <c r="CE15" s="17"/>
+      <c r="CF15" s="29"/>
       <c r="CG15" s="17"/>
       <c r="CH15" s="17"/>
       <c r="CI15" s="17"/>
@@ -4422,7 +4106,7 @@
       <c r="CM15" s="17"/>
       <c r="CN15" s="17"/>
       <c r="CO15" s="17"/>
-      <c r="CP15" s="31"/>
+      <c r="CP15" s="17"/>
       <c r="CQ15" s="17"/>
       <c r="CR15" s="17"/>
       <c r="CS15" s="17"/>
@@ -4434,31 +4118,24 @@
       <c r="CY15" s="17"/>
       <c r="CZ15" s="17"/>
       <c r="DA15" s="17"/>
-      <c r="DB15" s="17"/>
       <c r="DC15" s="17"/>
       <c r="DD15" s="17"/>
-      <c r="DE15" s="17"/>
-      <c r="DF15" s="17"/>
-      <c r="DG15" s="17"/>
-      <c r="DH15" s="17"/>
-      <c r="DI15" s="17"/>
-      <c r="DJ15" s="17"/>
-      <c r="DK15" s="17"/>
-      <c r="DM15" s="17"/>
-      <c r="DN15" s="17"/>
-      <c r="DX15" s="13"/>
-    </row>
-    <row r="16" spans="1:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F16" s="13"/>
-      <c r="L16" s="19"/>
+      <c r="DN15" s="13"/>
+    </row>
+    <row r="16" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C16" s="29"/>
+      <c r="G16" s="13"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
       <c r="W16" s="17"/>
-      <c r="X16" s="31"/>
+      <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="31"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="17"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
@@ -4499,22 +4176,22 @@
       <c r="BN16" s="17"/>
       <c r="BO16" s="17"/>
       <c r="BP16" s="17"/>
-      <c r="BQ16" s="17"/>
+      <c r="BQ16" s="29"/>
       <c r="BR16" s="17"/>
       <c r="BS16" s="17"/>
       <c r="BT16" s="17"/>
       <c r="BU16" s="17"/>
-      <c r="BV16" s="17"/>
+      <c r="BV16" s="29"/>
       <c r="BW16" s="17"/>
       <c r="BX16" s="17"/>
       <c r="BY16" s="17"/>
-      <c r="BZ16" s="31"/>
+      <c r="BZ16" s="17"/>
       <c r="CA16" s="17"/>
       <c r="CB16" s="17"/>
       <c r="CC16" s="17"/>
       <c r="CD16" s="17"/>
-      <c r="CE16" s="31"/>
-      <c r="CF16" s="31"/>
+      <c r="CE16" s="17"/>
+      <c r="CF16" s="29"/>
       <c r="CG16" s="17"/>
       <c r="CH16" s="17"/>
       <c r="CI16" s="17"/>
@@ -4524,7 +4201,7 @@
       <c r="CM16" s="17"/>
       <c r="CN16" s="17"/>
       <c r="CO16" s="17"/>
-      <c r="CP16" s="31"/>
+      <c r="CP16" s="17"/>
       <c r="CQ16" s="17"/>
       <c r="CR16" s="17"/>
       <c r="CS16" s="17"/>
@@ -4536,31 +4213,24 @@
       <c r="CY16" s="17"/>
       <c r="CZ16" s="17"/>
       <c r="DA16" s="17"/>
-      <c r="DB16" s="17"/>
       <c r="DC16" s="17"/>
       <c r="DD16" s="17"/>
-      <c r="DE16" s="17"/>
-      <c r="DF16" s="17"/>
-      <c r="DG16" s="17"/>
-      <c r="DH16" s="17"/>
-      <c r="DI16" s="17"/>
-      <c r="DJ16" s="17"/>
-      <c r="DK16" s="17"/>
-      <c r="DM16" s="17"/>
-      <c r="DN16" s="17"/>
-      <c r="DX16" s="13"/>
-    </row>
-    <row r="17" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F17" s="13"/>
-      <c r="L17" s="19"/>
+      <c r="DN16" s="13"/>
+    </row>
+    <row r="17" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C17" s="29"/>
+      <c r="G17" s="13"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
       <c r="W17" s="17"/>
-      <c r="X17" s="31"/>
+      <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
-      <c r="AB17" s="31"/>
+      <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="17"/>
@@ -4601,22 +4271,22 @@
       <c r="BN17" s="17"/>
       <c r="BO17" s="17"/>
       <c r="BP17" s="17"/>
-      <c r="BQ17" s="17"/>
+      <c r="BQ17" s="29"/>
       <c r="BR17" s="17"/>
       <c r="BS17" s="17"/>
       <c r="BT17" s="17"/>
       <c r="BU17" s="17"/>
-      <c r="BV17" s="17"/>
+      <c r="BV17" s="29"/>
       <c r="BW17" s="17"/>
       <c r="BX17" s="17"/>
       <c r="BY17" s="17"/>
-      <c r="BZ17" s="31"/>
+      <c r="BZ17" s="17"/>
       <c r="CA17" s="17"/>
       <c r="CB17" s="17"/>
       <c r="CC17" s="17"/>
       <c r="CD17" s="17"/>
-      <c r="CE17" s="31"/>
-      <c r="CF17" s="31"/>
+      <c r="CE17" s="17"/>
+      <c r="CF17" s="29"/>
       <c r="CG17" s="17"/>
       <c r="CH17" s="17"/>
       <c r="CI17" s="17"/>
@@ -4626,7 +4296,7 @@
       <c r="CM17" s="17"/>
       <c r="CN17" s="17"/>
       <c r="CO17" s="17"/>
-      <c r="CP17" s="31"/>
+      <c r="CP17" s="17"/>
       <c r="CQ17" s="17"/>
       <c r="CR17" s="17"/>
       <c r="CS17" s="17"/>
@@ -4638,31 +4308,24 @@
       <c r="CY17" s="17"/>
       <c r="CZ17" s="17"/>
       <c r="DA17" s="17"/>
-      <c r="DB17" s="17"/>
       <c r="DC17" s="17"/>
       <c r="DD17" s="17"/>
-      <c r="DE17" s="17"/>
-      <c r="DF17" s="17"/>
-      <c r="DG17" s="17"/>
-      <c r="DH17" s="17"/>
-      <c r="DI17" s="17"/>
-      <c r="DJ17" s="17"/>
-      <c r="DK17" s="17"/>
-      <c r="DM17" s="17"/>
-      <c r="DN17" s="17"/>
-      <c r="DX17" s="13"/>
-    </row>
-    <row r="18" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F18" s="13"/>
-      <c r="L18" s="19"/>
+      <c r="DN17" s="13"/>
+    </row>
+    <row r="18" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C18" s="29"/>
+      <c r="G18" s="13"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
       <c r="W18" s="17"/>
-      <c r="X18" s="31"/>
+      <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
-      <c r="AB18" s="31"/>
+      <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
@@ -4703,22 +4366,22 @@
       <c r="BN18" s="17"/>
       <c r="BO18" s="17"/>
       <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
+      <c r="BQ18" s="29"/>
       <c r="BR18" s="17"/>
       <c r="BS18" s="17"/>
       <c r="BT18" s="17"/>
       <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
+      <c r="BV18" s="29"/>
       <c r="BW18" s="17"/>
       <c r="BX18" s="17"/>
       <c r="BY18" s="17"/>
-      <c r="BZ18" s="31"/>
+      <c r="BZ18" s="17"/>
       <c r="CA18" s="17"/>
       <c r="CB18" s="17"/>
       <c r="CC18" s="17"/>
       <c r="CD18" s="17"/>
-      <c r="CE18" s="31"/>
-      <c r="CF18" s="31"/>
+      <c r="CE18" s="17"/>
+      <c r="CF18" s="29"/>
       <c r="CG18" s="17"/>
       <c r="CH18" s="17"/>
       <c r="CI18" s="17"/>
@@ -4728,7 +4391,7 @@
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
-      <c r="CP18" s="31"/>
+      <c r="CP18" s="17"/>
       <c r="CQ18" s="17"/>
       <c r="CR18" s="17"/>
       <c r="CS18" s="17"/>
@@ -4740,31 +4403,24 @@
       <c r="CY18" s="17"/>
       <c r="CZ18" s="17"/>
       <c r="DA18" s="17"/>
-      <c r="DB18" s="17"/>
       <c r="DC18" s="17"/>
       <c r="DD18" s="17"/>
-      <c r="DE18" s="17"/>
-      <c r="DF18" s="17"/>
-      <c r="DG18" s="17"/>
-      <c r="DH18" s="17"/>
-      <c r="DI18" s="17"/>
-      <c r="DJ18" s="17"/>
-      <c r="DK18" s="17"/>
-      <c r="DM18" s="17"/>
-      <c r="DN18" s="17"/>
-      <c r="DX18" s="13"/>
-    </row>
-    <row r="19" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F19" s="13"/>
-      <c r="L19" s="19"/>
+      <c r="DN18" s="13"/>
+    </row>
+    <row r="19" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C19" s="29"/>
+      <c r="G19" s="13"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
       <c r="W19" s="17"/>
-      <c r="X19" s="31"/>
+      <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
-      <c r="AB19" s="31"/>
+      <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
@@ -4805,22 +4461,22 @@
       <c r="BN19" s="17"/>
       <c r="BO19" s="17"/>
       <c r="BP19" s="17"/>
-      <c r="BQ19" s="17"/>
+      <c r="BQ19" s="29"/>
       <c r="BR19" s="17"/>
       <c r="BS19" s="17"/>
       <c r="BT19" s="17"/>
       <c r="BU19" s="17"/>
-      <c r="BV19" s="17"/>
+      <c r="BV19" s="29"/>
       <c r="BW19" s="17"/>
       <c r="BX19" s="17"/>
       <c r="BY19" s="17"/>
-      <c r="BZ19" s="31"/>
+      <c r="BZ19" s="17"/>
       <c r="CA19" s="17"/>
       <c r="CB19" s="17"/>
       <c r="CC19" s="17"/>
       <c r="CD19" s="17"/>
-      <c r="CE19" s="31"/>
-      <c r="CF19" s="31"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="29"/>
       <c r="CG19" s="17"/>
       <c r="CH19" s="17"/>
       <c r="CI19" s="17"/>
@@ -4830,7 +4486,7 @@
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
-      <c r="CP19" s="31"/>
+      <c r="CP19" s="17"/>
       <c r="CQ19" s="17"/>
       <c r="CR19" s="17"/>
       <c r="CS19" s="17"/>
@@ -4842,31 +4498,24 @@
       <c r="CY19" s="17"/>
       <c r="CZ19" s="17"/>
       <c r="DA19" s="17"/>
-      <c r="DB19" s="17"/>
       <c r="DC19" s="17"/>
       <c r="DD19" s="17"/>
-      <c r="DE19" s="17"/>
-      <c r="DF19" s="17"/>
-      <c r="DG19" s="17"/>
-      <c r="DH19" s="17"/>
-      <c r="DI19" s="17"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="17"/>
-      <c r="DM19" s="17"/>
-      <c r="DN19" s="17"/>
-      <c r="DX19" s="13"/>
-    </row>
-    <row r="20" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F20" s="13"/>
-      <c r="L20" s="19"/>
+      <c r="DN19" s="13"/>
+    </row>
+    <row r="20" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C20" s="29"/>
+      <c r="G20" s="13"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
       <c r="W20" s="17"/>
-      <c r="X20" s="31"/>
+      <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
-      <c r="AB20" s="31"/>
+      <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
@@ -4907,22 +4556,22 @@
       <c r="BN20" s="17"/>
       <c r="BO20" s="17"/>
       <c r="BP20" s="17"/>
-      <c r="BQ20" s="17"/>
+      <c r="BQ20" s="29"/>
       <c r="BR20" s="17"/>
       <c r="BS20" s="17"/>
       <c r="BT20" s="17"/>
       <c r="BU20" s="17"/>
-      <c r="BV20" s="17"/>
+      <c r="BV20" s="29"/>
       <c r="BW20" s="17"/>
       <c r="BX20" s="17"/>
       <c r="BY20" s="17"/>
-      <c r="BZ20" s="31"/>
+      <c r="BZ20" s="17"/>
       <c r="CA20" s="17"/>
       <c r="CB20" s="17"/>
       <c r="CC20" s="17"/>
       <c r="CD20" s="17"/>
-      <c r="CE20" s="31"/>
-      <c r="CF20" s="31"/>
+      <c r="CE20" s="17"/>
+      <c r="CF20" s="29"/>
       <c r="CG20" s="17"/>
       <c r="CH20" s="17"/>
       <c r="CI20" s="17"/>
@@ -4932,7 +4581,7 @@
       <c r="CM20" s="17"/>
       <c r="CN20" s="17"/>
       <c r="CO20" s="17"/>
-      <c r="CP20" s="31"/>
+      <c r="CP20" s="17"/>
       <c r="CQ20" s="17"/>
       <c r="CR20" s="17"/>
       <c r="CS20" s="17"/>
@@ -4944,31 +4593,24 @@
       <c r="CY20" s="17"/>
       <c r="CZ20" s="17"/>
       <c r="DA20" s="17"/>
-      <c r="DB20" s="17"/>
       <c r="DC20" s="17"/>
       <c r="DD20" s="17"/>
-      <c r="DE20" s="17"/>
-      <c r="DF20" s="17"/>
-      <c r="DG20" s="17"/>
-      <c r="DH20" s="17"/>
-      <c r="DI20" s="17"/>
-      <c r="DJ20" s="17"/>
-      <c r="DK20" s="17"/>
-      <c r="DM20" s="17"/>
-      <c r="DN20" s="17"/>
-      <c r="DX20" s="13"/>
-    </row>
-    <row r="21" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F21" s="13"/>
-      <c r="L21" s="19"/>
+      <c r="DN20" s="13"/>
+    </row>
+    <row r="21" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C21" s="29"/>
+      <c r="G21" s="13"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
       <c r="W21" s="17"/>
-      <c r="X21" s="31"/>
+      <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
-      <c r="AB21" s="31"/>
+      <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
@@ -5009,22 +4651,22 @@
       <c r="BN21" s="17"/>
       <c r="BO21" s="17"/>
       <c r="BP21" s="17"/>
-      <c r="BQ21" s="17"/>
+      <c r="BQ21" s="29"/>
       <c r="BR21" s="17"/>
       <c r="BS21" s="17"/>
       <c r="BT21" s="17"/>
       <c r="BU21" s="17"/>
-      <c r="BV21" s="17"/>
+      <c r="BV21" s="29"/>
       <c r="BW21" s="17"/>
       <c r="BX21" s="17"/>
       <c r="BY21" s="17"/>
-      <c r="BZ21" s="31"/>
+      <c r="BZ21" s="17"/>
       <c r="CA21" s="17"/>
       <c r="CB21" s="17"/>
       <c r="CC21" s="17"/>
       <c r="CD21" s="17"/>
-      <c r="CE21" s="31"/>
-      <c r="CF21" s="31"/>
+      <c r="CE21" s="17"/>
+      <c r="CF21" s="29"/>
       <c r="CG21" s="17"/>
       <c r="CH21" s="17"/>
       <c r="CI21" s="17"/>
@@ -5034,7 +4676,7 @@
       <c r="CM21" s="17"/>
       <c r="CN21" s="17"/>
       <c r="CO21" s="17"/>
-      <c r="CP21" s="31"/>
+      <c r="CP21" s="17"/>
       <c r="CQ21" s="17"/>
       <c r="CR21" s="17"/>
       <c r="CS21" s="17"/>
@@ -5046,31 +4688,24 @@
       <c r="CY21" s="17"/>
       <c r="CZ21" s="17"/>
       <c r="DA21" s="17"/>
-      <c r="DB21" s="17"/>
       <c r="DC21" s="17"/>
       <c r="DD21" s="17"/>
-      <c r="DE21" s="17"/>
-      <c r="DF21" s="17"/>
-      <c r="DG21" s="17"/>
-      <c r="DH21" s="17"/>
-      <c r="DI21" s="17"/>
-      <c r="DJ21" s="17"/>
-      <c r="DK21" s="17"/>
-      <c r="DM21" s="17"/>
-      <c r="DN21" s="17"/>
-      <c r="DX21" s="13"/>
-    </row>
-    <row r="22" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F22" s="13"/>
-      <c r="L22" s="19"/>
+      <c r="DN21" s="13"/>
+    </row>
+    <row r="22" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C22" s="29"/>
+      <c r="G22" s="13"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
       <c r="W22" s="17"/>
-      <c r="X22" s="31"/>
+      <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
-      <c r="AB22" s="31"/>
+      <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
@@ -5111,22 +4746,22 @@
       <c r="BN22" s="17"/>
       <c r="BO22" s="17"/>
       <c r="BP22" s="17"/>
-      <c r="BQ22" s="17"/>
+      <c r="BQ22" s="29"/>
       <c r="BR22" s="17"/>
       <c r="BS22" s="17"/>
       <c r="BT22" s="17"/>
       <c r="BU22" s="17"/>
-      <c r="BV22" s="17"/>
+      <c r="BV22" s="29"/>
       <c r="BW22" s="17"/>
       <c r="BX22" s="17"/>
       <c r="BY22" s="17"/>
-      <c r="BZ22" s="31"/>
+      <c r="BZ22" s="17"/>
       <c r="CA22" s="17"/>
       <c r="CB22" s="17"/>
       <c r="CC22" s="17"/>
       <c r="CD22" s="17"/>
-      <c r="CE22" s="31"/>
-      <c r="CF22" s="31"/>
+      <c r="CE22" s="17"/>
+      <c r="CF22" s="29"/>
       <c r="CG22" s="17"/>
       <c r="CH22" s="17"/>
       <c r="CI22" s="17"/>
@@ -5136,7 +4771,7 @@
       <c r="CM22" s="17"/>
       <c r="CN22" s="17"/>
       <c r="CO22" s="17"/>
-      <c r="CP22" s="31"/>
+      <c r="CP22" s="17"/>
       <c r="CQ22" s="17"/>
       <c r="CR22" s="17"/>
       <c r="CS22" s="17"/>
@@ -5148,31 +4783,24 @@
       <c r="CY22" s="17"/>
       <c r="CZ22" s="17"/>
       <c r="DA22" s="17"/>
-      <c r="DB22" s="17"/>
       <c r="DC22" s="17"/>
       <c r="DD22" s="17"/>
-      <c r="DE22" s="17"/>
-      <c r="DF22" s="17"/>
-      <c r="DG22" s="17"/>
-      <c r="DH22" s="17"/>
-      <c r="DI22" s="17"/>
-      <c r="DJ22" s="17"/>
-      <c r="DK22" s="17"/>
-      <c r="DM22" s="17"/>
-      <c r="DN22" s="17"/>
-      <c r="DX22" s="13"/>
-    </row>
-    <row r="23" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F23" s="13"/>
-      <c r="L23" s="19"/>
+      <c r="DN22" s="13"/>
+    </row>
+    <row r="23" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C23" s="29"/>
+      <c r="G23" s="13"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
       <c r="W23" s="17"/>
-      <c r="X23" s="31"/>
+      <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
-      <c r="AB23" s="31"/>
+      <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
@@ -5213,22 +4841,22 @@
       <c r="BN23" s="17"/>
       <c r="BO23" s="17"/>
       <c r="BP23" s="17"/>
-      <c r="BQ23" s="17"/>
+      <c r="BQ23" s="29"/>
       <c r="BR23" s="17"/>
       <c r="BS23" s="17"/>
       <c r="BT23" s="17"/>
       <c r="BU23" s="17"/>
-      <c r="BV23" s="17"/>
+      <c r="BV23" s="29"/>
       <c r="BW23" s="17"/>
       <c r="BX23" s="17"/>
       <c r="BY23" s="17"/>
-      <c r="BZ23" s="31"/>
+      <c r="BZ23" s="17"/>
       <c r="CA23" s="17"/>
       <c r="CB23" s="17"/>
       <c r="CC23" s="17"/>
       <c r="CD23" s="17"/>
-      <c r="CE23" s="31"/>
-      <c r="CF23" s="31"/>
+      <c r="CE23" s="17"/>
+      <c r="CF23" s="29"/>
       <c r="CG23" s="17"/>
       <c r="CH23" s="17"/>
       <c r="CI23" s="17"/>
@@ -5238,7 +4866,7 @@
       <c r="CM23" s="17"/>
       <c r="CN23" s="17"/>
       <c r="CO23" s="17"/>
-      <c r="CP23" s="31"/>
+      <c r="CP23" s="17"/>
       <c r="CQ23" s="17"/>
       <c r="CR23" s="17"/>
       <c r="CS23" s="17"/>
@@ -5250,31 +4878,24 @@
       <c r="CY23" s="17"/>
       <c r="CZ23" s="17"/>
       <c r="DA23" s="17"/>
-      <c r="DB23" s="17"/>
       <c r="DC23" s="17"/>
       <c r="DD23" s="17"/>
-      <c r="DE23" s="17"/>
-      <c r="DF23" s="17"/>
-      <c r="DG23" s="17"/>
-      <c r="DH23" s="17"/>
-      <c r="DI23" s="17"/>
-      <c r="DJ23" s="17"/>
-      <c r="DK23" s="17"/>
-      <c r="DM23" s="17"/>
-      <c r="DN23" s="17"/>
-      <c r="DX23" s="13"/>
-    </row>
-    <row r="24" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F24" s="13"/>
-      <c r="L24" s="19"/>
+      <c r="DN23" s="13"/>
+    </row>
+    <row r="24" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C24" s="29"/>
+      <c r="G24" s="13"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
       <c r="W24" s="17"/>
-      <c r="X24" s="31"/>
+      <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
-      <c r="AB24" s="31"/>
+      <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
@@ -5315,22 +4936,22 @@
       <c r="BN24" s="17"/>
       <c r="BO24" s="17"/>
       <c r="BP24" s="17"/>
-      <c r="BQ24" s="17"/>
+      <c r="BQ24" s="29"/>
       <c r="BR24" s="17"/>
       <c r="BS24" s="17"/>
       <c r="BT24" s="17"/>
       <c r="BU24" s="17"/>
-      <c r="BV24" s="17"/>
+      <c r="BV24" s="29"/>
       <c r="BW24" s="17"/>
       <c r="BX24" s="17"/>
       <c r="BY24" s="17"/>
-      <c r="BZ24" s="31"/>
+      <c r="BZ24" s="17"/>
       <c r="CA24" s="17"/>
       <c r="CB24" s="17"/>
       <c r="CC24" s="17"/>
       <c r="CD24" s="17"/>
-      <c r="CE24" s="31"/>
-      <c r="CF24" s="31"/>
+      <c r="CE24" s="17"/>
+      <c r="CF24" s="29"/>
       <c r="CG24" s="17"/>
       <c r="CH24" s="17"/>
       <c r="CI24" s="17"/>
@@ -5340,7 +4961,7 @@
       <c r="CM24" s="17"/>
       <c r="CN24" s="17"/>
       <c r="CO24" s="17"/>
-      <c r="CP24" s="31"/>
+      <c r="CP24" s="17"/>
       <c r="CQ24" s="17"/>
       <c r="CR24" s="17"/>
       <c r="CS24" s="17"/>
@@ -5352,31 +4973,24 @@
       <c r="CY24" s="17"/>
       <c r="CZ24" s="17"/>
       <c r="DA24" s="17"/>
-      <c r="DB24" s="17"/>
       <c r="DC24" s="17"/>
       <c r="DD24" s="17"/>
-      <c r="DE24" s="17"/>
-      <c r="DF24" s="17"/>
-      <c r="DG24" s="17"/>
-      <c r="DH24" s="17"/>
-      <c r="DI24" s="17"/>
-      <c r="DJ24" s="17"/>
-      <c r="DK24" s="17"/>
-      <c r="DM24" s="17"/>
-      <c r="DN24" s="17"/>
-      <c r="DX24" s="13"/>
-    </row>
-    <row r="25" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F25" s="13"/>
-      <c r="L25" s="19"/>
+      <c r="DN24" s="13"/>
+    </row>
+    <row r="25" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C25" s="29"/>
+      <c r="G25" s="13"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
       <c r="W25" s="17"/>
-      <c r="X25" s="31"/>
+      <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
-      <c r="AB25" s="31"/>
+      <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
@@ -5417,22 +5031,22 @@
       <c r="BN25" s="17"/>
       <c r="BO25" s="17"/>
       <c r="BP25" s="17"/>
-      <c r="BQ25" s="17"/>
+      <c r="BQ25" s="29"/>
       <c r="BR25" s="17"/>
       <c r="BS25" s="17"/>
       <c r="BT25" s="17"/>
       <c r="BU25" s="17"/>
-      <c r="BV25" s="17"/>
+      <c r="BV25" s="29"/>
       <c r="BW25" s="17"/>
       <c r="BX25" s="17"/>
       <c r="BY25" s="17"/>
-      <c r="BZ25" s="31"/>
+      <c r="BZ25" s="17"/>
       <c r="CA25" s="17"/>
       <c r="CB25" s="17"/>
       <c r="CC25" s="17"/>
       <c r="CD25" s="17"/>
-      <c r="CE25" s="31"/>
-      <c r="CF25" s="31"/>
+      <c r="CE25" s="17"/>
+      <c r="CF25" s="29"/>
       <c r="CG25" s="17"/>
       <c r="CH25" s="17"/>
       <c r="CI25" s="17"/>
@@ -5442,7 +5056,7 @@
       <c r="CM25" s="17"/>
       <c r="CN25" s="17"/>
       <c r="CO25" s="17"/>
-      <c r="CP25" s="31"/>
+      <c r="CP25" s="17"/>
       <c r="CQ25" s="17"/>
       <c r="CR25" s="17"/>
       <c r="CS25" s="17"/>
@@ -5454,31 +5068,24 @@
       <c r="CY25" s="17"/>
       <c r="CZ25" s="17"/>
       <c r="DA25" s="17"/>
-      <c r="DB25" s="17"/>
       <c r="DC25" s="17"/>
       <c r="DD25" s="17"/>
-      <c r="DE25" s="17"/>
-      <c r="DF25" s="17"/>
-      <c r="DG25" s="17"/>
-      <c r="DH25" s="17"/>
-      <c r="DI25" s="17"/>
-      <c r="DJ25" s="17"/>
-      <c r="DK25" s="17"/>
-      <c r="DM25" s="17"/>
-      <c r="DN25" s="17"/>
-      <c r="DX25" s="13"/>
-    </row>
-    <row r="26" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F26" s="13"/>
-      <c r="L26" s="19"/>
+      <c r="DN25" s="13"/>
+    </row>
+    <row r="26" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C26" s="29"/>
+      <c r="G26" s="13"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
       <c r="W26" s="17"/>
-      <c r="X26" s="31"/>
+      <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
-      <c r="AB26" s="31"/>
+      <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
@@ -5519,22 +5126,22 @@
       <c r="BN26" s="17"/>
       <c r="BO26" s="17"/>
       <c r="BP26" s="17"/>
-      <c r="BQ26" s="17"/>
+      <c r="BQ26" s="29"/>
       <c r="BR26" s="17"/>
       <c r="BS26" s="17"/>
       <c r="BT26" s="17"/>
       <c r="BU26" s="17"/>
-      <c r="BV26" s="17"/>
+      <c r="BV26" s="29"/>
       <c r="BW26" s="17"/>
       <c r="BX26" s="17"/>
       <c r="BY26" s="17"/>
-      <c r="BZ26" s="31"/>
+      <c r="BZ26" s="17"/>
       <c r="CA26" s="17"/>
       <c r="CB26" s="17"/>
       <c r="CC26" s="17"/>
       <c r="CD26" s="17"/>
-      <c r="CE26" s="31"/>
-      <c r="CF26" s="31"/>
+      <c r="CE26" s="17"/>
+      <c r="CF26" s="29"/>
       <c r="CG26" s="17"/>
       <c r="CH26" s="17"/>
       <c r="CI26" s="17"/>
@@ -5544,7 +5151,7 @@
       <c r="CM26" s="17"/>
       <c r="CN26" s="17"/>
       <c r="CO26" s="17"/>
-      <c r="CP26" s="31"/>
+      <c r="CP26" s="17"/>
       <c r="CQ26" s="17"/>
       <c r="CR26" s="17"/>
       <c r="CS26" s="17"/>
@@ -5556,31 +5163,24 @@
       <c r="CY26" s="17"/>
       <c r="CZ26" s="17"/>
       <c r="DA26" s="17"/>
-      <c r="DB26" s="17"/>
       <c r="DC26" s="17"/>
       <c r="DD26" s="17"/>
-      <c r="DE26" s="17"/>
-      <c r="DF26" s="17"/>
-      <c r="DG26" s="17"/>
-      <c r="DH26" s="17"/>
-      <c r="DI26" s="17"/>
-      <c r="DJ26" s="17"/>
-      <c r="DK26" s="17"/>
-      <c r="DM26" s="17"/>
-      <c r="DN26" s="17"/>
-      <c r="DX26" s="13"/>
-    </row>
-    <row r="27" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F27" s="13"/>
-      <c r="L27" s="19"/>
+      <c r="DN26" s="13"/>
+    </row>
+    <row r="27" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C27" s="29"/>
+      <c r="G27" s="13"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
       <c r="W27" s="17"/>
-      <c r="X27" s="31"/>
+      <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
-      <c r="AB27" s="31"/>
+      <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
@@ -5621,22 +5221,22 @@
       <c r="BN27" s="17"/>
       <c r="BO27" s="17"/>
       <c r="BP27" s="17"/>
-      <c r="BQ27" s="17"/>
+      <c r="BQ27" s="29"/>
       <c r="BR27" s="17"/>
       <c r="BS27" s="17"/>
       <c r="BT27" s="17"/>
       <c r="BU27" s="17"/>
-      <c r="BV27" s="17"/>
+      <c r="BV27" s="29"/>
       <c r="BW27" s="17"/>
       <c r="BX27" s="17"/>
       <c r="BY27" s="17"/>
-      <c r="BZ27" s="31"/>
+      <c r="BZ27" s="17"/>
       <c r="CA27" s="17"/>
       <c r="CB27" s="17"/>
       <c r="CC27" s="17"/>
       <c r="CD27" s="17"/>
-      <c r="CE27" s="31"/>
-      <c r="CF27" s="31"/>
+      <c r="CE27" s="17"/>
+      <c r="CF27" s="29"/>
       <c r="CG27" s="17"/>
       <c r="CH27" s="17"/>
       <c r="CI27" s="17"/>
@@ -5646,7 +5246,7 @@
       <c r="CM27" s="17"/>
       <c r="CN27" s="17"/>
       <c r="CO27" s="17"/>
-      <c r="CP27" s="31"/>
+      <c r="CP27" s="17"/>
       <c r="CQ27" s="17"/>
       <c r="CR27" s="17"/>
       <c r="CS27" s="17"/>
@@ -5658,31 +5258,24 @@
       <c r="CY27" s="17"/>
       <c r="CZ27" s="17"/>
       <c r="DA27" s="17"/>
-      <c r="DB27" s="17"/>
       <c r="DC27" s="17"/>
       <c r="DD27" s="17"/>
-      <c r="DE27" s="17"/>
-      <c r="DF27" s="17"/>
-      <c r="DG27" s="17"/>
-      <c r="DH27" s="17"/>
-      <c r="DI27" s="17"/>
-      <c r="DJ27" s="17"/>
-      <c r="DK27" s="17"/>
-      <c r="DM27" s="17"/>
-      <c r="DN27" s="17"/>
-      <c r="DX27" s="13"/>
-    </row>
-    <row r="28" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F28" s="13"/>
-      <c r="L28" s="19"/>
+      <c r="DN27" s="13"/>
+    </row>
+    <row r="28" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C28" s="29"/>
+      <c r="G28" s="13"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
       <c r="W28" s="17"/>
-      <c r="X28" s="31"/>
+      <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
-      <c r="AB28" s="31"/>
+      <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
@@ -5723,22 +5316,22 @@
       <c r="BN28" s="17"/>
       <c r="BO28" s="17"/>
       <c r="BP28" s="17"/>
-      <c r="BQ28" s="17"/>
+      <c r="BQ28" s="29"/>
       <c r="BR28" s="17"/>
       <c r="BS28" s="17"/>
       <c r="BT28" s="17"/>
       <c r="BU28" s="17"/>
-      <c r="BV28" s="17"/>
+      <c r="BV28" s="29"/>
       <c r="BW28" s="17"/>
       <c r="BX28" s="17"/>
       <c r="BY28" s="17"/>
-      <c r="BZ28" s="31"/>
+      <c r="BZ28" s="17"/>
       <c r="CA28" s="17"/>
       <c r="CB28" s="17"/>
       <c r="CC28" s="17"/>
       <c r="CD28" s="17"/>
-      <c r="CE28" s="31"/>
-      <c r="CF28" s="31"/>
+      <c r="CE28" s="17"/>
+      <c r="CF28" s="29"/>
       <c r="CG28" s="17"/>
       <c r="CH28" s="17"/>
       <c r="CI28" s="17"/>
@@ -5748,7 +5341,7 @@
       <c r="CM28" s="17"/>
       <c r="CN28" s="17"/>
       <c r="CO28" s="17"/>
-      <c r="CP28" s="31"/>
+      <c r="CP28" s="17"/>
       <c r="CQ28" s="17"/>
       <c r="CR28" s="17"/>
       <c r="CS28" s="17"/>
@@ -5760,31 +5353,24 @@
       <c r="CY28" s="17"/>
       <c r="CZ28" s="17"/>
       <c r="DA28" s="17"/>
-      <c r="DB28" s="17"/>
       <c r="DC28" s="17"/>
       <c r="DD28" s="17"/>
-      <c r="DE28" s="17"/>
-      <c r="DF28" s="17"/>
-      <c r="DG28" s="17"/>
-      <c r="DH28" s="17"/>
-      <c r="DI28" s="17"/>
-      <c r="DJ28" s="17"/>
-      <c r="DK28" s="17"/>
-      <c r="DM28" s="17"/>
-      <c r="DN28" s="17"/>
-      <c r="DX28" s="13"/>
-    </row>
-    <row r="29" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F29" s="13"/>
-      <c r="L29" s="19"/>
+      <c r="DN28" s="13"/>
+    </row>
+    <row r="29" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C29" s="29"/>
+      <c r="G29" s="13"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
       <c r="W29" s="17"/>
-      <c r="X29" s="31"/>
+      <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
-      <c r="AB29" s="31"/>
+      <c r="AB29" s="17"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
@@ -5825,22 +5411,22 @@
       <c r="BN29" s="17"/>
       <c r="BO29" s="17"/>
       <c r="BP29" s="17"/>
-      <c r="BQ29" s="17"/>
+      <c r="BQ29" s="29"/>
       <c r="BR29" s="17"/>
       <c r="BS29" s="17"/>
       <c r="BT29" s="17"/>
       <c r="BU29" s="17"/>
-      <c r="BV29" s="17"/>
+      <c r="BV29" s="29"/>
       <c r="BW29" s="17"/>
       <c r="BX29" s="17"/>
       <c r="BY29" s="17"/>
-      <c r="BZ29" s="31"/>
+      <c r="BZ29" s="17"/>
       <c r="CA29" s="17"/>
       <c r="CB29" s="17"/>
       <c r="CC29" s="17"/>
       <c r="CD29" s="17"/>
-      <c r="CE29" s="31"/>
-      <c r="CF29" s="31"/>
+      <c r="CE29" s="17"/>
+      <c r="CF29" s="29"/>
       <c r="CG29" s="17"/>
       <c r="CH29" s="17"/>
       <c r="CI29" s="17"/>
@@ -5850,7 +5436,7 @@
       <c r="CM29" s="17"/>
       <c r="CN29" s="17"/>
       <c r="CO29" s="17"/>
-      <c r="CP29" s="31"/>
+      <c r="CP29" s="17"/>
       <c r="CQ29" s="17"/>
       <c r="CR29" s="17"/>
       <c r="CS29" s="17"/>
@@ -5862,31 +5448,24 @@
       <c r="CY29" s="17"/>
       <c r="CZ29" s="17"/>
       <c r="DA29" s="17"/>
-      <c r="DB29" s="17"/>
       <c r="DC29" s="17"/>
       <c r="DD29" s="17"/>
-      <c r="DE29" s="17"/>
-      <c r="DF29" s="17"/>
-      <c r="DG29" s="17"/>
-      <c r="DH29" s="17"/>
-      <c r="DI29" s="17"/>
-      <c r="DJ29" s="17"/>
-      <c r="DK29" s="17"/>
-      <c r="DM29" s="17"/>
-      <c r="DN29" s="17"/>
-      <c r="DX29" s="13"/>
-    </row>
-    <row r="30" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F30" s="13"/>
-      <c r="L30" s="19"/>
+      <c r="DN29" s="13"/>
+    </row>
+    <row r="30" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C30" s="29"/>
+      <c r="G30" s="13"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
       <c r="W30" s="17"/>
-      <c r="X30" s="31"/>
+      <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
-      <c r="AB30" s="31"/>
+      <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
@@ -5927,22 +5506,22 @@
       <c r="BN30" s="17"/>
       <c r="BO30" s="17"/>
       <c r="BP30" s="17"/>
-      <c r="BQ30" s="17"/>
+      <c r="BQ30" s="29"/>
       <c r="BR30" s="17"/>
       <c r="BS30" s="17"/>
       <c r="BT30" s="17"/>
       <c r="BU30" s="17"/>
-      <c r="BV30" s="17"/>
+      <c r="BV30" s="29"/>
       <c r="BW30" s="17"/>
       <c r="BX30" s="17"/>
       <c r="BY30" s="17"/>
-      <c r="BZ30" s="31"/>
+      <c r="BZ30" s="17"/>
       <c r="CA30" s="17"/>
       <c r="CB30" s="17"/>
       <c r="CC30" s="17"/>
       <c r="CD30" s="17"/>
-      <c r="CE30" s="31"/>
-      <c r="CF30" s="31"/>
+      <c r="CE30" s="17"/>
+      <c r="CF30" s="29"/>
       <c r="CG30" s="17"/>
       <c r="CH30" s="17"/>
       <c r="CI30" s="17"/>
@@ -5952,7 +5531,7 @@
       <c r="CM30" s="17"/>
       <c r="CN30" s="17"/>
       <c r="CO30" s="17"/>
-      <c r="CP30" s="31"/>
+      <c r="CP30" s="17"/>
       <c r="CQ30" s="17"/>
       <c r="CR30" s="17"/>
       <c r="CS30" s="17"/>
@@ -5964,31 +5543,24 @@
       <c r="CY30" s="17"/>
       <c r="CZ30" s="17"/>
       <c r="DA30" s="17"/>
-      <c r="DB30" s="17"/>
       <c r="DC30" s="17"/>
       <c r="DD30" s="17"/>
-      <c r="DE30" s="17"/>
-      <c r="DF30" s="17"/>
-      <c r="DG30" s="17"/>
-      <c r="DH30" s="17"/>
-      <c r="DI30" s="17"/>
-      <c r="DJ30" s="17"/>
-      <c r="DK30" s="17"/>
-      <c r="DM30" s="17"/>
-      <c r="DN30" s="17"/>
-      <c r="DX30" s="13"/>
-    </row>
-    <row r="31" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F31" s="13"/>
-      <c r="L31" s="19"/>
+      <c r="DN30" s="13"/>
+    </row>
+    <row r="31" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C31" s="29"/>
+      <c r="G31" s="13"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
       <c r="W31" s="17"/>
-      <c r="X31" s="31"/>
+      <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
-      <c r="AB31" s="31"/>
+      <c r="AB31" s="17"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
@@ -6029,22 +5601,22 @@
       <c r="BN31" s="17"/>
       <c r="BO31" s="17"/>
       <c r="BP31" s="17"/>
-      <c r="BQ31" s="17"/>
+      <c r="BQ31" s="29"/>
       <c r="BR31" s="17"/>
       <c r="BS31" s="17"/>
       <c r="BT31" s="17"/>
       <c r="BU31" s="17"/>
-      <c r="BV31" s="17"/>
+      <c r="BV31" s="29"/>
       <c r="BW31" s="17"/>
       <c r="BX31" s="17"/>
       <c r="BY31" s="17"/>
-      <c r="BZ31" s="31"/>
+      <c r="BZ31" s="17"/>
       <c r="CA31" s="17"/>
       <c r="CB31" s="17"/>
       <c r="CC31" s="17"/>
       <c r="CD31" s="17"/>
-      <c r="CE31" s="31"/>
-      <c r="CF31" s="31"/>
+      <c r="CE31" s="17"/>
+      <c r="CF31" s="29"/>
       <c r="CG31" s="17"/>
       <c r="CH31" s="17"/>
       <c r="CI31" s="17"/>
@@ -6054,7 +5626,7 @@
       <c r="CM31" s="17"/>
       <c r="CN31" s="17"/>
       <c r="CO31" s="17"/>
-      <c r="CP31" s="31"/>
+      <c r="CP31" s="17"/>
       <c r="CQ31" s="17"/>
       <c r="CR31" s="17"/>
       <c r="CS31" s="17"/>
@@ -6066,31 +5638,24 @@
       <c r="CY31" s="17"/>
       <c r="CZ31" s="17"/>
       <c r="DA31" s="17"/>
-      <c r="DB31" s="17"/>
       <c r="DC31" s="17"/>
       <c r="DD31" s="17"/>
-      <c r="DE31" s="17"/>
-      <c r="DF31" s="17"/>
-      <c r="DG31" s="17"/>
-      <c r="DH31" s="17"/>
-      <c r="DI31" s="17"/>
-      <c r="DJ31" s="17"/>
-      <c r="DK31" s="17"/>
-      <c r="DM31" s="17"/>
-      <c r="DN31" s="17"/>
-      <c r="DX31" s="13"/>
-    </row>
-    <row r="32" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F32" s="13"/>
-      <c r="L32" s="19"/>
+      <c r="DN31" s="13"/>
+    </row>
+    <row r="32" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C32" s="29"/>
+      <c r="G32" s="13"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
       <c r="W32" s="17"/>
-      <c r="X32" s="31"/>
+      <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
-      <c r="AB32" s="31"/>
+      <c r="AB32" s="17"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
@@ -6131,22 +5696,22 @@
       <c r="BN32" s="17"/>
       <c r="BO32" s="17"/>
       <c r="BP32" s="17"/>
-      <c r="BQ32" s="17"/>
+      <c r="BQ32" s="29"/>
       <c r="BR32" s="17"/>
       <c r="BS32" s="17"/>
       <c r="BT32" s="17"/>
       <c r="BU32" s="17"/>
-      <c r="BV32" s="17"/>
+      <c r="BV32" s="29"/>
       <c r="BW32" s="17"/>
       <c r="BX32" s="17"/>
       <c r="BY32" s="17"/>
-      <c r="BZ32" s="31"/>
+      <c r="BZ32" s="17"/>
       <c r="CA32" s="17"/>
       <c r="CB32" s="17"/>
       <c r="CC32" s="17"/>
       <c r="CD32" s="17"/>
-      <c r="CE32" s="31"/>
-      <c r="CF32" s="31"/>
+      <c r="CE32" s="17"/>
+      <c r="CF32" s="29"/>
       <c r="CG32" s="17"/>
       <c r="CH32" s="17"/>
       <c r="CI32" s="17"/>
@@ -6156,7 +5721,7 @@
       <c r="CM32" s="17"/>
       <c r="CN32" s="17"/>
       <c r="CO32" s="17"/>
-      <c r="CP32" s="31"/>
+      <c r="CP32" s="17"/>
       <c r="CQ32" s="17"/>
       <c r="CR32" s="17"/>
       <c r="CS32" s="17"/>
@@ -6168,31 +5733,24 @@
       <c r="CY32" s="17"/>
       <c r="CZ32" s="17"/>
       <c r="DA32" s="17"/>
-      <c r="DB32" s="17"/>
       <c r="DC32" s="17"/>
       <c r="DD32" s="17"/>
-      <c r="DE32" s="17"/>
-      <c r="DF32" s="17"/>
-      <c r="DG32" s="17"/>
-      <c r="DH32" s="17"/>
-      <c r="DI32" s="17"/>
-      <c r="DJ32" s="17"/>
-      <c r="DK32" s="17"/>
-      <c r="DM32" s="17"/>
-      <c r="DN32" s="17"/>
-      <c r="DX32" s="13"/>
-    </row>
-    <row r="33" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F33" s="13"/>
-      <c r="L33" s="19"/>
+      <c r="DN32" s="13"/>
+    </row>
+    <row r="33" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C33" s="29"/>
+      <c r="G33" s="13"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
       <c r="W33" s="17"/>
-      <c r="X33" s="31"/>
+      <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
-      <c r="AB33" s="31"/>
+      <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
@@ -6233,22 +5791,22 @@
       <c r="BN33" s="17"/>
       <c r="BO33" s="17"/>
       <c r="BP33" s="17"/>
-      <c r="BQ33" s="17"/>
+      <c r="BQ33" s="29"/>
       <c r="BR33" s="17"/>
       <c r="BS33" s="17"/>
       <c r="BT33" s="17"/>
       <c r="BU33" s="17"/>
-      <c r="BV33" s="17"/>
+      <c r="BV33" s="29"/>
       <c r="BW33" s="17"/>
       <c r="BX33" s="17"/>
       <c r="BY33" s="17"/>
-      <c r="BZ33" s="31"/>
+      <c r="BZ33" s="17"/>
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
       <c r="CC33" s="17"/>
       <c r="CD33" s="17"/>
-      <c r="CE33" s="31"/>
-      <c r="CF33" s="31"/>
+      <c r="CE33" s="17"/>
+      <c r="CF33" s="29"/>
       <c r="CG33" s="17"/>
       <c r="CH33" s="17"/>
       <c r="CI33" s="17"/>
@@ -6258,7 +5816,7 @@
       <c r="CM33" s="17"/>
       <c r="CN33" s="17"/>
       <c r="CO33" s="17"/>
-      <c r="CP33" s="31"/>
+      <c r="CP33" s="17"/>
       <c r="CQ33" s="17"/>
       <c r="CR33" s="17"/>
       <c r="CS33" s="17"/>
@@ -6270,31 +5828,24 @@
       <c r="CY33" s="17"/>
       <c r="CZ33" s="17"/>
       <c r="DA33" s="17"/>
-      <c r="DB33" s="17"/>
       <c r="DC33" s="17"/>
       <c r="DD33" s="17"/>
-      <c r="DE33" s="17"/>
-      <c r="DF33" s="17"/>
-      <c r="DG33" s="17"/>
-      <c r="DH33" s="17"/>
-      <c r="DI33" s="17"/>
-      <c r="DJ33" s="17"/>
-      <c r="DK33" s="17"/>
-      <c r="DM33" s="17"/>
-      <c r="DN33" s="17"/>
-      <c r="DX33" s="13"/>
-    </row>
-    <row r="34" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F34" s="13"/>
-      <c r="L34" s="19"/>
+      <c r="DN33" s="13"/>
+    </row>
+    <row r="34" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C34" s="29"/>
+      <c r="G34" s="13"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
       <c r="W34" s="17"/>
-      <c r="X34" s="31"/>
+      <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
-      <c r="AB34" s="31"/>
+      <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -6335,22 +5886,22 @@
       <c r="BN34" s="17"/>
       <c r="BO34" s="17"/>
       <c r="BP34" s="17"/>
-      <c r="BQ34" s="17"/>
+      <c r="BQ34" s="29"/>
       <c r="BR34" s="17"/>
       <c r="BS34" s="17"/>
       <c r="BT34" s="17"/>
       <c r="BU34" s="17"/>
-      <c r="BV34" s="17"/>
+      <c r="BV34" s="29"/>
       <c r="BW34" s="17"/>
       <c r="BX34" s="17"/>
       <c r="BY34" s="17"/>
-      <c r="BZ34" s="31"/>
+      <c r="BZ34" s="17"/>
       <c r="CA34" s="17"/>
       <c r="CB34" s="17"/>
       <c r="CC34" s="17"/>
       <c r="CD34" s="17"/>
-      <c r="CE34" s="31"/>
-      <c r="CF34" s="31"/>
+      <c r="CE34" s="17"/>
+      <c r="CF34" s="29"/>
       <c r="CG34" s="17"/>
       <c r="CH34" s="17"/>
       <c r="CI34" s="17"/>
@@ -6360,7 +5911,7 @@
       <c r="CM34" s="17"/>
       <c r="CN34" s="17"/>
       <c r="CO34" s="17"/>
-      <c r="CP34" s="31"/>
+      <c r="CP34" s="17"/>
       <c r="CQ34" s="17"/>
       <c r="CR34" s="17"/>
       <c r="CS34" s="17"/>
@@ -6372,185 +5923,59 @@
       <c r="CY34" s="17"/>
       <c r="CZ34" s="17"/>
       <c r="DA34" s="17"/>
-      <c r="DB34" s="17"/>
       <c r="DC34" s="17"/>
       <c r="DD34" s="17"/>
-      <c r="DE34" s="17"/>
-      <c r="DF34" s="17"/>
-      <c r="DG34" s="17"/>
-      <c r="DH34" s="17"/>
-      <c r="DI34" s="17"/>
-      <c r="DJ34" s="17"/>
-      <c r="DK34" s="17"/>
-      <c r="DM34" s="17"/>
-      <c r="DN34" s="17"/>
-      <c r="DX34" s="13"/>
-    </row>
-    <row r="35" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F35" s="13"/>
-      <c r="L35" s="19"/>
+      <c r="DN34" s="13"/>
+    </row>
+    <row r="35" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C35" s="19"/>
+      <c r="G35" s="13"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="17"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="17"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="17"/>
-      <c r="AO35" s="17"/>
-      <c r="AP35" s="17"/>
-      <c r="AQ35" s="17"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
-      <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
-      <c r="AW35" s="17"/>
-      <c r="AX35" s="17"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="17"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="17"/>
-      <c r="BE35" s="17"/>
-      <c r="BF35" s="17"/>
-      <c r="BG35" s="17"/>
-      <c r="BH35" s="17"/>
-      <c r="BI35" s="17"/>
-      <c r="BJ35" s="17"/>
-      <c r="BK35" s="17"/>
-      <c r="BL35" s="17"/>
-      <c r="BM35" s="17"/>
-      <c r="BN35" s="17"/>
-      <c r="BO35" s="17"/>
-      <c r="BP35" s="17"/>
-      <c r="BQ35" s="17"/>
-      <c r="BR35" s="17"/>
-      <c r="BS35" s="17"/>
-      <c r="BT35" s="17"/>
-      <c r="BU35" s="17"/>
-      <c r="BV35" s="17"/>
-      <c r="BW35" s="17"/>
-      <c r="BX35" s="17"/>
-      <c r="BY35" s="17"/>
-      <c r="BZ35" s="31"/>
-      <c r="CA35" s="17"/>
-      <c r="CB35" s="17"/>
-      <c r="CC35" s="17"/>
-      <c r="CD35" s="17"/>
-      <c r="CE35" s="31"/>
-      <c r="CF35" s="31"/>
-      <c r="CG35" s="17"/>
-      <c r="CH35" s="17"/>
-      <c r="CI35" s="17"/>
-      <c r="CJ35" s="17"/>
-      <c r="CK35" s="17"/>
-      <c r="CL35" s="17"/>
-      <c r="CM35" s="17"/>
-      <c r="CN35" s="17"/>
-      <c r="CO35" s="17"/>
-      <c r="CP35" s="31"/>
-      <c r="CQ35" s="17"/>
-      <c r="CR35" s="17"/>
-      <c r="CS35" s="17"/>
-      <c r="CT35" s="17"/>
-      <c r="CU35" s="17"/>
-      <c r="CV35" s="17"/>
-      <c r="CW35" s="17"/>
-      <c r="CX35" s="17"/>
-      <c r="CY35" s="17"/>
-      <c r="CZ35" s="17"/>
-      <c r="DA35" s="17"/>
-      <c r="DB35" s="17"/>
-      <c r="DC35" s="17"/>
-      <c r="DD35" s="17"/>
-      <c r="DE35" s="17"/>
-      <c r="DF35" s="17"/>
-      <c r="DG35" s="17"/>
-      <c r="DH35" s="17"/>
-      <c r="DI35" s="17"/>
-      <c r="DJ35" s="17"/>
-      <c r="DK35" s="17"/>
-      <c r="DM35" s="17"/>
-      <c r="DN35" s="17"/>
-      <c r="DX35" s="13"/>
-    </row>
-    <row r="36" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F36" s="13"/>
-      <c r="L36" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="BQ35" s="19"/>
+      <c r="BV35" s="19"/>
+      <c r="CF35" s="19"/>
+      <c r="DN35" s="13"/>
+    </row>
+    <row r="36" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C36" s="19"/>
+      <c r="G36" s="13"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="X36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="BZ36" s="19"/>
-      <c r="CE36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="BQ36" s="19"/>
+      <c r="BV36" s="19"/>
       <c r="CF36" s="19"/>
-      <c r="CP36" s="19"/>
-      <c r="DX36" s="13"/>
-    </row>
-    <row r="37" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F37" s="13"/>
-      <c r="L37" s="19"/>
+      <c r="DN36" s="13"/>
+    </row>
+    <row r="37" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C37" s="19"/>
+      <c r="G37" s="13"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="X37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="BZ37" s="19"/>
-      <c r="CE37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="BQ37" s="19"/>
+      <c r="BV37" s="19"/>
       <c r="CF37" s="19"/>
-      <c r="CP37" s="19"/>
-      <c r="DX37" s="13"/>
-    </row>
-    <row r="38" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F38" s="13"/>
-      <c r="L38" s="19"/>
+      <c r="DN37" s="13"/>
+    </row>
+    <row r="38" spans="3:118" s="18" customFormat="1" ht="18.75" customHeight="1">
+      <c r="C38" s="19"/>
+      <c r="G38" s="13"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="X38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="BZ38" s="19"/>
-      <c r="CE38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="BQ38" s="19"/>
+      <c r="BV38" s="19"/>
       <c r="CF38" s="19"/>
-      <c r="CP38" s="19"/>
-      <c r="DX38" s="13"/>
-    </row>
-    <row r="39" spans="6:128" s="18" customFormat="1" ht="18.75" customHeight="1">
-      <c r="F39" s="13"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="X39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="BZ39" s="19"/>
-      <c r="CE39" s="19"/>
+      <c r="DN38" s="13"/>
+    </row>
+    <row r="39" spans="3:118" s="18" customFormat="1">
+      <c r="C39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="BQ39" s="19"/>
+      <c r="BV39" s="19"/>
       <c r="CF39" s="19"/>
-      <c r="CP39" s="19"/>
-      <c r="DX39" s="13"/>
-    </row>
-    <row r="40" spans="6:128" s="18" customFormat="1">
-      <c r="L40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="BZ40" s="19"/>
-      <c r="CE40" s="19"/>
-      <c r="CF40" s="19"/>
-      <c r="CP40" s="19"/>
-    </row>
-    <row r="41" spans="6:128" s="18" customFormat="1"/>
-    <row r="42" spans="6:128" s="18" customFormat="1" ht="12" customHeight="1"/>
+    </row>
+    <row r="40" spans="3:118" s="18" customFormat="1"/>
+    <row r="41" spans="3:118" s="18" customFormat="1" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6584,7 +6009,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1">
@@ -6808,8 +6233,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -6823,10 +6248,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -6840,10 +6265,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6857,10 +6282,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6874,10 +6299,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6891,10 +6316,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6908,10 +6333,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6925,10 +6350,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6942,10 +6367,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6959,10 +6384,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6976,10 +6401,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6993,10 +6418,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7010,10 +6435,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7027,10 +6452,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7044,10 +6469,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7061,10 +6486,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7078,10 +6503,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7095,10 +6520,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -7112,10 +6537,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7129,10 +6554,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7146,10 +6571,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -7163,10 +6588,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -7180,10 +6605,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7197,10 +6622,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -7410,10 +6835,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="54"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7425,8 +6850,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -7440,10 +6865,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="55"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -7457,10 +6882,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="54"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -7474,10 +6899,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="54"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -7491,10 +6916,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="54"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -7508,10 +6933,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="54"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -7525,10 +6950,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -7542,10 +6967,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="54"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -7589,10 +7014,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="54"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7604,8 +7029,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7619,10 +7044,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -7636,10 +7061,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -7653,10 +7078,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="54"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7670,10 +7095,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="54"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7687,10 +7112,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -7704,10 +7129,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7721,10 +7146,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7738,10 +7163,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="54"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7755,10 +7180,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="54"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7772,10 +7197,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -7789,10 +7214,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="54"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -7806,10 +7231,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -7823,10 +7248,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="54"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -7840,10 +7265,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="54"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -7857,10 +7282,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="54"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -7874,10 +7299,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="54"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -7891,10 +7316,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="54"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -7908,10 +7333,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="54"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -7925,10 +7350,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="54"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -7942,10 +7367,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="54"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -7959,10 +7384,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="54"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -7976,10 +7401,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="54"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -7993,10 +7418,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="54"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -8010,10 +7435,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8027,10 +7452,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="54"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -8044,10 +7469,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="54"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -8061,10 +7486,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="54"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8078,10 +7503,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="54"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>

--- a/assets/sample_metadata/wastewater_biosample_template.xlsx
+++ b/assets/sample_metadata/wastewater_biosample_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\02.scratch\ppox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8A571-DFC0-4667-AA15-E97820499912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF391BB9-27D8-4848-B752-B45FDEE6A644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="6410" windowWidth="20790" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NWSS_Metadata" sheetId="1" r:id="rId1"/>
@@ -1665,24 +1665,6 @@
     <t>collection_site_id</t>
   </si>
   <si>
-    <t>*ww_population</t>
-  </si>
-  <si>
-    <t>*ww_sample_matrix</t>
-  </si>
-  <si>
-    <t>*ww_sample_type</t>
-  </si>
-  <si>
-    <t>*ww_sample_duration</t>
-  </si>
-  <si>
-    <t>*ww_surv_target_1</t>
-  </si>
-  <si>
-    <t>*ww_surv_target_1_known_present</t>
-  </si>
-  <si>
     <t>public health surveillance community-level</t>
   </si>
   <si>
@@ -1765,6 +1747,24 @@
   </si>
   <si>
     <t>807536001-S1S1-R</t>
+  </si>
+  <si>
+    <t>ww_population</t>
+  </si>
+  <si>
+    <t>ww_sample_matrix</t>
+  </si>
+  <si>
+    <t>ww_sample_type</t>
+  </si>
+  <si>
+    <t>ww_sample_duration</t>
+  </si>
+  <si>
+    <t>ww_surv_target_1</t>
+  </si>
+  <si>
+    <t>ww_surv_target_1_known_present</t>
   </si>
 </sst>
 </file>
@@ -2124,13 +2124,13 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2444,8 +2444,8 @@
   </sheetPr>
   <dimension ref="A1:DV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2462,7 +2462,14 @@
     <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.81640625" customWidth="1"/>
     <col min="17" max="18" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="105" width="13.453125" customWidth="1"/>
+    <col min="19" max="25" width="13.453125" customWidth="1"/>
+    <col min="26" max="26" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.453125" customWidth="1"/>
+    <col min="29" max="29" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.453125" customWidth="1"/>
+    <col min="32" max="32" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="105" width="13.453125" customWidth="1"/>
     <col min="106" max="106" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="108" max="113" width="13.453125" bestFit="1" customWidth="1"/>
@@ -2491,7 +2498,7 @@
         <v>369</v>
       </c>
       <c r="BQ1" s="24" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="BS1" s="31"/>
       <c r="BT1" s="31"/>
@@ -2511,7 +2518,7 @@
         <v>300</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>301</v>
@@ -2580,7 +2587,7 @@
         <v>319</v>
       </c>
       <c r="Z2" s="36" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="AA2" s="33" t="s">
         <v>320</v>
@@ -2589,16 +2596,16 @@
         <v>321</v>
       </c>
       <c r="AC2" s="36" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="AD2" s="36" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="AE2" s="33" t="s">
         <v>322</v>
       </c>
       <c r="AF2" s="36" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="AG2" s="33" t="s">
         <v>323</v>
@@ -2670,10 +2677,10 @@
         <v>345</v>
       </c>
       <c r="BD2" s="36" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="BE2" s="36" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="BF2" s="33" t="s">
         <v>346</v>
@@ -2781,59 +2788,59 @@
     </row>
     <row r="3" spans="1:118" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E3" s="45"/>
       <c r="M3" s="20" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N3" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="49">
         <v>45886</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>287</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="S3" s="48"/>
       <c r="T3" s="20" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="U3" s="20"/>
       <c r="V3" s="20" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="X3" s="20">
         <v>1741289.4280000001</v>
       </c>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA3" s="20" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AB3" s="20" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AD3" s="20" t="s">
         <v>359</v>
@@ -2864,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="AN3" s="20" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AO3" s="20" t="s">
         <v>1</v>
@@ -2876,28 +2883,28 @@
         <v>1</v>
       </c>
       <c r="AR3" s="20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AS3" s="20" t="s">
         <v>360</v>
       </c>
       <c r="AT3" s="20" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AU3" s="20" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AV3" s="20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AW3" s="20">
         <v>105440000</v>
       </c>
       <c r="AX3" s="20" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AY3" s="20" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AZ3" s="20" t="s">
         <v>1</v>
@@ -2918,16 +2925,16 @@
         <v>362</v>
       </c>
       <c r="BF3" s="21" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="BG3" s="21">
         <v>154560</v>
       </c>
       <c r="BH3" s="21" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="BI3" s="20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="BJ3" s="20" t="s">
         <v>361</v>
@@ -2936,19 +2943,19 @@
         <v>154560</v>
       </c>
       <c r="BL3" s="20" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="BM3" s="20" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="BN3" s="20" t="s">
         <v>362</v>
       </c>
       <c r="BO3" s="20" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="BP3" s="20" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="BS3" s="22"/>
       <c r="BT3" s="22"/>
@@ -2969,7 +2976,7 @@
         <v>288</v>
       </c>
       <c r="CB3" s="18" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="CC3" s="18" t="s">
         <v>304</v>
@@ -6009,7 +6016,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1">
@@ -6233,8 +6240,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -6248,10 +6255,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -6265,10 +6272,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6282,10 +6289,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6299,10 +6306,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6316,10 +6323,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6333,10 +6340,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6350,10 +6357,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6367,10 +6374,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6384,10 +6391,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6401,10 +6408,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6418,10 +6425,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -6435,10 +6442,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -6452,10 +6459,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -6469,10 +6476,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -6486,10 +6493,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -6503,10 +6510,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6520,10 +6527,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -6537,10 +6544,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -6554,10 +6561,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6571,10 +6578,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -6588,10 +6595,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -6605,10 +6612,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -6622,10 +6629,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -6835,10 +6842,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6850,8 +6857,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -6865,10 +6872,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -6882,10 +6889,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -6899,10 +6906,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -6916,10 +6923,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -6933,10 +6940,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -6950,10 +6957,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -6967,10 +6974,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -7014,10 +7021,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7029,8 +7036,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7044,10 +7051,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -7061,10 +7068,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -7078,10 +7085,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="49"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7095,10 +7102,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="49"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7112,10 +7119,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="49"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -7129,10 +7136,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="49"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7146,10 +7153,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="49"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7163,10 +7170,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="49"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7180,10 +7187,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="49"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7197,10 +7204,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="49"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -7214,10 +7221,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="49"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -7231,10 +7238,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="49"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -7248,10 +7255,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -7265,10 +7272,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="49"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -7282,10 +7289,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="49"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -7299,10 +7306,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="49"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -7316,10 +7323,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="49"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -7333,10 +7340,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="49"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -7350,10 +7357,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="49"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -7367,10 +7374,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="49" t="s">
+      <c r="B69" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="49"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -7384,10 +7391,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="49"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -7401,10 +7408,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="49"/>
+      <c r="C71" s="50"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -7418,10 +7425,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="49"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -7435,10 +7442,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="49"/>
+      <c r="C73" s="50"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -7452,10 +7459,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="49"/>
+      <c r="C74" s="50"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -7469,10 +7476,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="49"/>
+      <c r="C75" s="50"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -7486,10 +7493,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="49"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -7503,10 +7510,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="49"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -8094,61 +8101,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -8157,6 +8109,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/wastewater_biosample_template.xlsx
+++ b/assets/sample_metadata/wastewater_biosample_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF391BB9-27D8-4848-B752-B45FDEE6A644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C59883-7D00-4218-836C-7866A8BABEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2444,8 +2444,8 @@
   </sheetPr>
   <dimension ref="A1:DV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="BD9" sqref="BD9"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2523,7 +2523,7 @@
       <c r="D2" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="32" t="s">
         <v>312</v>
       </c>
       <c r="F2" s="32" t="s">
@@ -8101,6 +8101,61 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -8109,61 +8164,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
